--- a/장례의전_WBS_분석_with_db.xlsx
+++ b/장례의전_WBS_분석_with_db.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11265" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="임직원" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="386">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5670,6 +5670,258 @@
  SQL2 = SQL2 &amp; " order by 인덱스 desc " </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Query</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">mDate = DateAdd("m",-1*user_boardmax,date())
+ if sDate = "" then
+  sDate = DateAdd("d",-1*user_board,date())
+ end if
+ if eDate = "" then
+  eDate = date()  
+ end if
+ eDate2 = DateAdd("d",1,eDate)
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with receptionListTBL as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY a.시스템일자 desc) AS rowNum, " 
+ SQL = SQL &amp; " a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, b.단체명, d.장례식장, a.행사상태, isnull(e.상태,'') as 상태, a.일반단체구분, f.계약자명 as 직원명, a.행사지점 "
+ SQL = SQL &amp; " from 행사마스터 a "
+ SQL = SQL &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL = SQL &amp; " left outer join 행사_승인요청 e on a.행사번호 = e.행사번호 "
+ SQL = SQL &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 "
+ SQL = SQL &amp; " where 1 = 1  "
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and f.계약자명 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL = SQL &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL = SQL &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if 
+ SQL = SQL &amp; " and a.행사단체 = '"&amp; user_etccode &amp;"' "
+ if user_workplace &lt;&gt; "" then
+  SQL = SQL &amp; " and a.행사지점 = '"&amp; user_workplace &amp;"' "
+ end if
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from receptionListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "
+ SQL_CNT = " select count(*) as count " 
+ SQL_CNT = SQL_CNT &amp; " from 행사마스터 a "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 " 
+ SQL_CNT = SQL_CNT &amp; " where 1 = 1 "
+ if sValue &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and f.계약자명 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL_CNT = SQL_CNT &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL_CNT = SQL_CNT &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if 
+ SQL_CNT = SQL_CNT &amp; " and a.행사단체 = '"&amp; user_etccode &amp;"' "
+ if user_workplace &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and a.행사지점 = '"&amp; user_workplace &amp;"' "
+ end if </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If Right(code,2) = "==" Then
+  DB_ENC = "Y"
+ Else
+  DB_ENC = "N"
+  code = FnAesDecrypt(code, AesEncryptPwd) ' ASP 페이지 암호화
+ End if 
+SQL = "select b.단체명 as 단체 "
+ SQL = SQL &amp; " , a.행사번호 as 접수번호 "
+ SQL = SQL &amp; " , left(a.행사시작일시,4) +'.'+ right(left(a.행사시작일시,6),2) +'.'+ right(left(a.행사시작일시,8),2) +' '+ right(left(a.행사시작일시,10),2) +':'+ right(left(a.행사시작일시,12),2) as 접수일시 "
+ SQL = SQL &amp; " , a.진행팀장 as 의전팀장코드 "
+ SQL = SQL &amp; " , c.성함 as 의전팀장 "
+ SQL = SQL &amp; " , c.연락처 as 의전팀장연락처 "
+ SQL = SQL &amp; " , case when a.일반단체구분 in ('용품배송', '근조화환배송', '용품+화환배송', '화환배송') then '배송' else '장례' end as 행사구분 "
+ SQL = SQL &amp; " , d.상품명 as 진행상품 "
+ SQL = SQL &amp; " , isnull((select sum(입금액) from 수납마스터 (nolock) where 계약코드 = a.계약코드),0) as 납입부금 "
+ SQL = SQL &amp; " , left(e.계약일자,4) +'-'+ right(left(e.계약일자,6),2) +'-'+ right(left(e.계약일자,8),2) as 계약일자 "
+ SQL = SQL &amp; " , f.계약자명 as 직원명 "
+ SQL = SQL &amp; " , f.계약자휴대폰 as 직원연락처 "
+ SQL = SQL &amp; " , f.회원명 as 회원명 "
+ SQL = SQL &amp; " , f.휴대폰 as 회원연락처 "
+ SQL = SQL &amp; " , a.행사지점 as 부서명 "
+ SQL = SQL &amp; " , a.행사소속 as 소속 "
+ SQL = SQL &amp; " , a.행사사번 as 직책 "
+ SQL = SQL &amp; " , a.회원과관계 as 고인과의관계 "
+ SQL = SQL &amp; " , a.현위치 "
+ SQL = SQL &amp; " , a.계약코드 "
+ SQL = SQL &amp; " , a.고인성명 as 고인명 "
+ SQL = SQL &amp; " , g.장례식장 "
+ SQL = SQL &amp; " , isnull(i.지원서비스,'') as 지원서비스 "
+ SQL = SQL &amp; " , isnull(j.서명,'') as 서명, isnull(convert(varchar(16),j.등록일,120),'') as 서명일 "
+ SQL = SQL &amp; " , isnull(k.용품도착일시,'') as 용품도착일 "
+ SQL = SQL &amp; " , isnull(k.화환도착일시,'') as 화환도착일 "
+ SQL = SQL &amp; " , isnull(k.근조기설치,'') as 근조기설치일 "
+ SQL = SQL &amp; " , isnull(k.지원내용_완료, '') 지원내용 "
+ SQL = SQL &amp; " , isnull(k.인수자, '') 인수자 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 " 
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 " 
+ SQL = SQL &amp; " left outer join 상품코드 d (nolock) on a.상품코드 = d.상품코드 " 
+ SQL = SQL &amp; " left outer join 계약마스터 e (nolock) on a.계약코드 = e.계약코드 " 
+ SQL = SQL &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 " 
+ SQL = SQL &amp; " left outer join 행사장례식장 g (nolock) on a.장례식장 = g.코드 "  
+ SQL = SQL &amp; " left outer join 행사_기타정보 i (nolock) on a.행사번호 = i.행사번호 "
+ SQL = SQL &amp; " left outer join 행사_회사지원서명 j (nolock) on a.행사번호 = j.행사번호 "
+ SQL = SQL &amp; " left outer join 행사마스터_세부추가 k (nolock) on a.행사번호 = k.행사번호 "
+ If DB_ENC = "Y" then
+  SQL = SQL &amp; " where a.행사번호 = dbo.fnDecryption('" &amp; code &amp; "','apluslife') "
+ Else
+  SQL = SQL &amp; " where a.행사번호 = '" &amp; code &amp; "' "
+ End if
+ 'SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' "  
+ SQL2 = "select 사원명, convert(varchar(10),접수일,120) as 접수일, 일차, 출동일시, 종료일시 "
+ SQL2 = SQL2 &amp; " from 행사_회사지원 (nolock) "
+ If DB_ENC = "Y" then
+  SQL2 = SQL2 &amp; " where 행사번호 = dbo.fnDecryption('" &amp; code &amp; "','apluslife') "
+ Else
+  SQL2 = SQL2 &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ End if
+ 'SQL2 = SQL2 &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ SQL2 = SQL2 &amp; " order by 순번 asc "
+ SQL3 = " select 파일명, 파일경로 "
+ SQL3 = SQL3 &amp; " from 파일저장 (nolock) "
+ SQL3 = SQL3 &amp; " where 게시판종류 = '행사' and 게시판종류2 = '기타정보' "
+ If DB_ENC = "Y" then
+  SQL3 = SQL3 &amp; " and 게시판인덱스 = dbo.fnDecryption('" &amp; code &amp; "','apluslife') "
+ Else
+  SQL3 = SQL3 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' "
+ End if
+ 'SQL3 = SQL3 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' " 
+ SQL3 = SQL3 &amp; " order by 인덱스 asc "
+ SQL3_1 = " select 파일명, 파일경로 "
+ SQL3_1 = SQL3_1 &amp; " from 파일저장 (nolock) "
+ SQL3_1 = SQL3_1 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '용품' "
+ If DB_ENC = "Y" then
+  SQL3_1 = SQL3_1 &amp; " and 게시판인덱스 = dbo.fnDecryption('" &amp; code &amp; "','apluslife') "
+ Else
+  SQL3_1 = SQL3_1 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' "
+ End if 
+ 'SQL3_1 = SQL3_1 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_1 = SQL3_1 &amp; " order by 인덱스 asc "
+ SQL3_2 = " select 파일명, 파일경로 "
+ SQL3_2 = SQL3_2 &amp; " from 파일저장 (nolock) "
+ SQL3_2 = SQL3_2 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '화환' "
+ If DB_ENC = "Y" then
+  SQL3_2 = SQL3_2 &amp; " and 게시판인덱스 = dbo.fnDecryption('" &amp; code &amp; "','apluslife') "
+ Else
+  SQL3_2 = SQL3_2 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' "
+ End if 
+ 'SQL3_2 = SQL3_2 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_2 = SQL3_2 &amp; " order by 인덱스 asc "
+ SQL3_3 = " select 파일명, 파일경로 "
+ SQL3_3 = SQL3_3 &amp; " from 파일저장 (nolock) "
+ SQL3_3 = SQL3_3 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '조기' "
+ If DB_ENC = "Y" then
+  SQL3_3 = SQL3_3 &amp; " and 게시판인덱스 = dbo.fnDecryption('" &amp; code &amp; "','apluslife') "
+ Else
+  SQL3_3 = SQL3_3 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' "
+ End if 
+ 'SQL3_3 = SQL3_3 &amp; " and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_3 = SQL3_3 &amp; " order by 인덱스 asc "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+ Else  
+  input1 = Rs("의전팀장코드")
+  input2 = Rs("단체")
+  input3 = Rs("접수일시")  
+  input4 = Rs("진행상품")
+  input5 = Rs("고인과의관계")  
+  input8 = Rs("고인명")
+  input9 = Rs("장례식장") 
+        input10 = Rs("지원서비스") 
+  input11 = Trim(Rs("용품도착일"))
+  input12 = Trim(Rs("화환도착일"))
+  input13 = Trim(Rs("근조기설치일"))  
+  input14 = Rs("서명")
+  input15 = Rs("서명일")
+  input16 = Rs("직원명")
+  input17 = Rs("직원연락처")
+  input18 = Rs("부서명")
+  input19 = Rs("소속")
+  input20 = Rs("직책")
+  input21 = Rs("지원내용")
+  input22 = Rs("인수자")
+ End If
+ Set Rs = ConnAplus.execute(SQL2)
+ If Rs.EOF Then
+  rc = 0
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If
+ Set Rs = ConnAplus.execute(SQL3)
+ If Rs.EOF Then
+  rc2 = 0
+ Else
+  rc2 = Rs.RecordCount
+  arrObj2 = Rs.GetRows(rc2)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_1)
+ If Rs.EOF Then
+  rc2_1 = 0
+ Else
+  rc2_1 = Rs.RecordCount
+  arrObj2_1 = Rs.GetRows(rc2_1)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_2)
+ If Rs.EOF Then
+  rc2_2 = 0
+ Else
+  rc2_2 = Rs.RecordCount
+  arrObj2_2 = Rs.GetRows(rc2_2)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_3)
+ If Rs.EOF Then
+  rc2_3 = 0
+ Else
+  rc2_3 = Rs.RecordCount
+  arrObj2_3 = Rs.GetRows(rc2_3)
+ End If
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select count(*) as count "
+ SQL = SQL &amp; " from 공지사항N "
+ Set Rs = ConnAplus.execute(SQL)
+ tCnt = Rs("count")
+ '임시 협력업체-해당협력업체이름 또는 기업담당자-담당기업이름
+ user_subname = ""
+ if user_type = "b" then
+  SQL_TXT = " and 게시분류1 in ('전체', '의전팀장') "
+ elseif user_type = "c" then  
+  SQL_TXT = " and (게시분류1 = '전체' or (게시분류1 = '기업담당자' and 게시분류2 in ('전체', '"&amp; user_groupname &amp; " " &amp; user_workplace &amp;"'))) "
+ elseif user_type = "d" then  
+  SQL_TXT = " and (게시분류1 = '전체' or (게시분류1 = '협력업체' and 게시분류2 in ('전체', '"&amp; user_name &amp;"'))) "
+ else
+  SQL_TXT = ""
+ end if
+ SQL = " select 인덱스,작성자,제목,내용,convert(varchar,등록일,102) as 등록일,파일,파일경로, 게시분류1, 게시분류2 " 
+ SQL = SQL &amp; " from 공지사항N "
+ SQL = SQL &amp; " where 상단고정 = 'N' "
+ SQL = SQL &amp; SQL_TXT
+ SQL = SQL &amp; " order by 인덱스 desc "
+ SQL2 = " select 인덱스,작성자,제목,내용,convert(varchar,등록일,102) as 등록일,파일,파일경로,게시분류1,게시분류2 "
+ SQL2 = SQL2 &amp; " from 공지사항N "
+ SQL2 = SQL2 &amp; " where 상단고정 = 'Y' " 
+ SQL2 = SQL2 &amp; SQL_TXT
+ SQL2 = SQL2 &amp; " order by 인덱스 desc " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -5781,7 +6033,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5818,14 +6070,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6154,7 +6409,7 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
@@ -6171,7 +6426,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -6186,7 +6441,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6203,7 +6458,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -6218,7 +6473,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -6232,7 +6487,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+      <c r="A7" s="13"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="4" t="s">
@@ -6246,7 +6501,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="4" t="s">
@@ -6260,7 +6515,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="4" t="s">
@@ -6271,7 +6526,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="4" t="s">
@@ -6285,7 +6540,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+      <c r="A11" s="13"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="4" t="s">
@@ -6299,7 +6554,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
@@ -6315,7 +6570,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="4" t="s">
@@ -6329,7 +6584,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="4" t="s">
@@ -6343,7 +6598,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+      <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="4" t="s">
@@ -6357,7 +6612,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -6373,7 +6628,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
@@ -6387,7 +6642,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="4" t="s">
@@ -6401,7 +6656,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+      <c r="A19" s="13"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="4" t="s">
@@ -6415,7 +6670,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+      <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="4" t="s">
@@ -6429,7 +6684,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="A21" s="13"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="4" t="s">
@@ -6443,7 +6698,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="4" t="s">
@@ -6457,13 +6712,13 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="12" t="s">
         <v>145</v>
       </c>
       <c r="G23" s="10"/>
@@ -6472,7 +6727,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="4" t="s">
@@ -6481,12 +6736,12 @@
       <c r="F24" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G24" s="14" t="s">
+      <c r="G24" s="12" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -6502,7 +6757,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="4" t="s">
@@ -6516,7 +6771,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="E27" s="4" t="s">
@@ -6530,7 +6785,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="E28" s="4" t="s">
@@ -6544,7 +6799,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="4" t="s">
@@ -6558,7 +6813,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="E30" s="4" t="s">
@@ -6572,7 +6827,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="E31" s="4" t="s">
@@ -6586,7 +6841,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="E32" s="4" t="s">
@@ -6600,7 +6855,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="4" t="s">
@@ -6614,7 +6869,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
@@ -6630,7 +6885,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="4" t="s">
@@ -6644,7 +6899,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
@@ -6658,7 +6913,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="E37" s="4" t="s">
@@ -6672,7 +6927,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
@@ -6686,7 +6941,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="A39" s="13"/>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -6699,7 +6954,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
@@ -6710,7 +6965,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="E41" s="4" t="s">
@@ -6721,7 +6976,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
@@ -6740,7 +6995,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
@@ -6757,19 +7012,19 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="4"/>
       <c r="F44" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="13" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="E45" s="4"/>
@@ -6779,10 +7034,10 @@
       <c r="G45" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="H45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -6798,7 +7053,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
@@ -6812,7 +7067,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
@@ -6848,7 +7103,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
@@ -6862,7 +7117,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
+      <c r="A51" s="13"/>
       <c r="E51" s="4" t="s">
         <v>214</v>
       </c>
@@ -6871,7 +7126,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="E52" s="4" t="s">
         <v>215</v>
       </c>
@@ -6883,7 +7138,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
+      <c r="A53" s="13"/>
       <c r="B53" s="1" t="s">
         <v>60</v>
       </c>
@@ -6901,7 +7156,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="4" t="s">
@@ -6915,7 +7170,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="4" t="s">
@@ -6929,7 +7184,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+      <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="4" t="s">
@@ -6943,7 +7198,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+      <c r="A57" s="13"/>
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -6961,7 +7216,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
+      <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="4" t="s">
@@ -6975,7 +7230,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
+      <c r="A59" s="13"/>
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -6993,7 +7248,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
+      <c r="A60" s="13"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="4" t="s">
@@ -7007,7 +7262,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
+      <c r="A61" s="13"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" t="s">
@@ -7021,7 +7276,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
+      <c r="A62" s="13"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="4" t="s">
@@ -7035,7 +7290,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="13"/>
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
@@ -7053,7 +7308,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
+      <c r="A64" s="13"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="E64" s="4" t="s">
@@ -7067,7 +7322,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
+      <c r="A65" s="13"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="E65" s="4" t="s">
@@ -7081,7 +7336,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
+      <c r="A66" s="13"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="E66" s="4" t="s">
@@ -7095,7 +7350,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="E67" s="4" t="s">
@@ -7109,7 +7364,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -7127,7 +7382,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="213" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="F69" s="4" t="s">
@@ -7138,7 +7393,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
+      <c r="A70" s="13"/>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
@@ -7162,7 +7417,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
+      <c r="A71" s="13"/>
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
@@ -7183,7 +7438,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="E72" s="4" t="s">
@@ -7194,7 +7449,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="E73" s="4" t="s">
@@ -7208,7 +7463,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
@@ -7229,7 +7484,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
+      <c r="A75" s="13"/>
       <c r="B75" s="1" t="s">
         <v>11</v>
       </c>
@@ -7250,7 +7505,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
+      <c r="A76" s="13"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="E76" s="4" t="s">
@@ -7261,7 +7516,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="E77" s="4" t="s">
@@ -7275,7 +7530,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>71</v>
@@ -7291,7 +7546,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12" t="s">
+      <c r="A79" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
@@ -7308,7 +7563,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
+      <c r="A80" s="13"/>
       <c r="B80" s="1" t="s">
         <v>73</v>
       </c>
@@ -7326,7 +7581,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="1" t="s">
         <v>74</v>
       </c>
@@ -7344,7 +7599,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="E82" s="4" t="s">
@@ -7358,7 +7613,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="E83" s="4" t="s">
@@ -7372,7 +7627,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
+      <c r="A84" s="13"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="E84" s="4" t="s">
@@ -7386,7 +7641,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="E85" s="4" t="s">
@@ -7403,7 +7658,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7421,7 +7676,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="E87" s="4" t="s">
@@ -7435,7 +7690,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12"/>
+      <c r="A88" s="13"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="E88" s="4" t="s">
@@ -7449,7 +7704,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
+      <c r="A89" s="13"/>
       <c r="B89" s="1" t="s">
         <v>76</v>
       </c>
@@ -7467,7 +7722,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="E90" s="4" t="s">
@@ -7481,7 +7736,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="E91" s="4" t="s">
@@ -7498,7 +7753,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="E92" s="4" t="s">
@@ -7512,7 +7767,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
+      <c r="A93" s="13"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="E93" s="4" t="s">
@@ -7526,7 +7781,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="E94" s="4" t="s">
@@ -7540,7 +7795,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="E95" s="4" t="s">
@@ -7554,7 +7809,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="E96" s="4" t="s">
@@ -7571,7 +7826,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
+      <c r="A97" s="13"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="E97" s="4" t="s">
@@ -7585,7 +7840,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
@@ -7603,7 +7858,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="E99" s="4" t="s">
@@ -7617,7 +7872,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="1" t="s">
         <v>78</v>
       </c>
@@ -7635,7 +7890,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
+      <c r="A101" s="13"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="E101" s="4" t="s">
@@ -7649,7 +7904,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
@@ -7663,7 +7918,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="E103" s="4" t="s">
@@ -7677,7 +7932,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="E104" s="4" t="s">
@@ -7694,7 +7949,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
+      <c r="A105" s="13"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="E105" s="4" t="s">
@@ -7709,7 +7964,7 @@
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="12"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="1" t="s">
         <v>79</v>
       </c>
@@ -7727,7 +7982,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="12"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="E107" s="4" t="s">
@@ -7741,7 +7996,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="12"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="1" t="s">
         <v>80</v>
       </c>
@@ -7759,7 +8014,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="12"/>
+      <c r="A109" s="13"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="E109" s="4" t="s">
@@ -7773,7 +8028,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="E110" s="4" t="s">
@@ -7787,7 +8042,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
@@ -7811,7 +8066,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="1" t="s">
         <v>9</v>
       </c>
@@ -7832,7 +8087,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
+      <c r="A113" s="13"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="E113" s="4" t="s">
@@ -7843,7 +8098,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="12"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="E114" s="4" t="s">
@@ -7857,7 +8112,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="1" t="s">
         <v>81</v>
       </c>
@@ -7881,7 +8136,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="12"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="1" t="s">
         <v>82</v>
       </c>
@@ -7902,7 +8157,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
+      <c r="A117" s="13"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="E117" s="4" t="s">
@@ -7944,7 +8199,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="12" t="s">
+      <c r="A120" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D120" t="s">
@@ -7958,7 +8213,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A121" s="12"/>
+      <c r="A121" s="13"/>
       <c r="C121" s="1" t="s">
         <v>98</v>
       </c>
@@ -7973,7 +8228,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="12"/>
+      <c r="A122" s="13"/>
       <c r="C122" s="1" t="s">
         <v>99</v>
       </c>
@@ -7988,7 +8243,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="12"/>
+      <c r="A123" s="13"/>
       <c r="C123" s="1" t="s">
         <v>100</v>
       </c>
@@ -8003,7 +8258,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A124" s="12"/>
+      <c r="A124" s="13"/>
       <c r="C124" s="1" t="s">
         <v>101</v>
       </c>
@@ -8018,7 +8273,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="12" t="s">
+      <c r="A125" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D125" t="s">
@@ -8032,7 +8287,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="162" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="12"/>
+      <c r="A126" s="13"/>
       <c r="D126" t="s">
         <v>113</v>
       </c>
@@ -8044,7 +8299,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="243" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="12" t="s">
+      <c r="A127" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D127" t="s">
@@ -8061,7 +8316,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="12"/>
+      <c r="A128" s="13"/>
       <c r="D128" t="s">
         <v>23</v>
       </c>
@@ -8104,7 +8359,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="213" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="12" t="s">
+      <c r="A131" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D131" t="s">
@@ -8118,7 +8373,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="12"/>
+      <c r="A132" s="13"/>
       <c r="D132" t="s">
         <v>120</v>
       </c>
@@ -8130,7 +8385,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="231" x14ac:dyDescent="0.3">
-      <c r="A133" s="12"/>
+      <c r="A133" s="13"/>
       <c r="D133" t="s">
         <v>119</v>
       </c>
@@ -8156,7 +8411,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="12" t="s">
+      <c r="A135" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D135" t="s">
@@ -8170,7 +8425,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="238.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="12"/>
+      <c r="A136" s="13"/>
       <c r="D136" t="s">
         <v>126</v>
       </c>
@@ -8180,7 +8435,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="12"/>
+      <c r="A137" s="13"/>
       <c r="D137" t="s">
         <v>127</v>
       </c>
@@ -8333,10 +8588,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:I126"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -8347,11 +8602,11 @@
     <col min="3" max="3" width="15.125" customWidth="1"/>
     <col min="4" max="4" width="36.625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.125" customWidth="1"/>
-    <col min="6" max="6" width="44.25" customWidth="1"/>
-    <col min="7" max="7" width="35.625" customWidth="1"/>
+    <col min="6" max="7" width="44.25" customWidth="1"/>
+    <col min="8" max="8" width="35.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="7" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -8371,12 +8626,15 @@
         <v>2</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8"/>
-    </row>
-    <row r="2" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="I1" s="8"/>
+    </row>
+    <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
@@ -8388,8 +8646,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8401,8 +8659,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
+    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="E4" s="4" t="s">
@@ -8412,8 +8670,8 @@
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
+    <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="4" t="s">
@@ -8423,8 +8681,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -8434,8 +8692,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
+    <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="4" t="s">
@@ -8445,8 +8703,8 @@
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
+    <row r="8" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="4" t="s">
@@ -8456,8 +8714,8 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
+    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="4" t="s">
@@ -8467,8 +8725,8 @@
         <v>136</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
@@ -8480,8 +8738,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
+    <row r="11" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="4" t="s">
@@ -8491,8 +8749,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="4" t="s">
@@ -8502,8 +8760,8 @@
         <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="4" t="s">
@@ -8513,8 +8771,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -8526,8 +8784,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
+    <row r="15" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="4" t="s">
@@ -8537,8 +8795,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
+    <row r="16" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="4" t="s">
@@ -8548,8 +8806,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="4" t="s">
@@ -8559,8 +8817,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
+    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="4" t="s">
@@ -8570,8 +8828,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
+    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="4" t="s">
@@ -8580,12 +8838,13 @@
       <c r="F19" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
+    <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="4" t="s">
@@ -8594,9 +8853,10 @@
       <c r="F20" s="10" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
+      <c r="G20" s="10"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -8608,8 +8868,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+    <row r="22" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="4" t="s">
@@ -8619,8 +8879,8 @@
         <v>147</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+    <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="4" t="s">
@@ -8630,8 +8890,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+    <row r="24" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="4" t="s">
@@ -8641,8 +8901,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="4" t="s">
@@ -8652,8 +8912,8 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="4" t="s">
@@ -8663,8 +8923,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="E27" s="4" t="s">
@@ -8674,8 +8934,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+    <row r="28" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="E28" s="4" t="s">
@@ -8685,8 +8945,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+    <row r="29" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="4" t="s">
@@ -8696,8 +8956,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -8709,8 +8969,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+    <row r="31" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="E31" s="4" t="s">
@@ -8720,8 +8980,8 @@
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
@@ -8734,7 +8994,7 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="4" t="s">
@@ -8745,7 +9005,7 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="249" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -8761,7 +9021,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="4"/>
@@ -8770,7 +9030,7 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="13"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="E36" s="4"/>
@@ -8779,7 +9039,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="13"/>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -8795,7 +9055,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="13"/>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
@@ -8811,7 +9071,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>35</v>
       </c>
       <c r="D39" t="s">
@@ -8822,7 +9082,7 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+      <c r="A40" s="13"/>
       <c r="E40" s="4" t="s">
         <v>214</v>
       </c>
@@ -8831,7 +9091,7 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+      <c r="A41" s="13"/>
       <c r="E41" s="4" t="s">
         <v>215</v>
       </c>
@@ -8840,7 +9100,7 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="13"/>
       <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
@@ -8855,7 +9115,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="E43" s="4" t="s">
@@ -8866,7 +9126,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="13"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="4" t="s">
@@ -8877,7 +9137,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="13"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="E45" s="4" t="s">
@@ -8888,7 +9148,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="13"/>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -8903,7 +9163,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="13"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="4" t="s">
@@ -8914,7 +9174,7 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="A48" s="13"/>
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
@@ -8928,8 +9188,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+    <row r="49" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="E49" s="4" t="s">
@@ -8939,8 +9199,8 @@
         <v>162</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="E50" t="s">
@@ -8950,8 +9210,8 @@
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
+    <row r="51" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="E51" s="4" t="s">
@@ -8961,8 +9221,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -8976,8 +9236,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
+    <row r="53" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="E53" s="4" t="s">
@@ -8987,8 +9247,8 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+    <row r="54" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="4" t="s">
@@ -8998,8 +9258,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
+    <row r="55" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="4" t="s">
@@ -9009,8 +9269,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+    <row r="56" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A56" s="13"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="4" t="s">
@@ -9020,8 +9280,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
       <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
@@ -9035,16 +9295,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
+    <row r="58" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="F58" s="4" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
+      <c r="G58" s="4"/>
+    </row>
+    <row r="59" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -9060,12 +9321,12 @@
       <c r="F59" t="s">
         <v>154</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
+    <row r="60" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
@@ -9082,8 +9343,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
+    <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" s="4" t="s">
@@ -9093,8 +9354,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
+    <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="4" t="s">
@@ -9104,8 +9365,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+    <row r="63" spans="1:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="13"/>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
@@ -9121,12 +9382,12 @@
       <c r="F63" t="s">
         <v>154</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
+    <row r="64" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="13"/>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
@@ -9143,8 +9404,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
+    <row r="65" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="13"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="E65" s="4" t="s">
@@ -9154,8 +9415,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
+    <row r="66" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="13"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="E66" s="4" t="s">
@@ -9165,8 +9426,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="13"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>71</v>
@@ -9178,8 +9439,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="12" t="s">
+    <row r="68" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D68" t="s">
@@ -9192,8 +9453,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="13"/>
       <c r="B69" s="1" t="s">
         <v>73</v>
       </c>
@@ -9207,8 +9468,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="13"/>
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
@@ -9222,8 +9483,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
+    <row r="71" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="13"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="E71" s="4" t="s">
@@ -9233,8 +9494,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="12"/>
+    <row r="72" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="13"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="E72" s="4" t="s">
@@ -9244,8 +9505,8 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="12"/>
+    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="13"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="E73" s="4" t="s">
@@ -9255,8 +9516,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="12"/>
+    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="13"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="E74" s="4" t="s">
@@ -9265,12 +9526,12 @@
       <c r="F74" t="s">
         <v>172</v>
       </c>
-      <c r="G74" s="4" t="s">
+      <c r="H74" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="12"/>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="13"/>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
@@ -9284,8 +9545,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="12"/>
+    <row r="76" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="13"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="E76" s="4" t="s">
@@ -9295,8 +9556,8 @@
         <v>175</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="12"/>
+    <row r="77" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="13"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="E77" s="4" t="s">
@@ -9306,8 +9567,8 @@
         <v>171</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="12"/>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="13"/>
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
@@ -9321,8 +9582,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="12"/>
+    <row r="79" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="13"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="E79" s="4" t="s">
@@ -9332,8 +9593,8 @@
         <v>180</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="12"/>
+    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="13"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="E80" s="4" t="s">
@@ -9342,12 +9603,12 @@
       <c r="F80" t="s">
         <v>148</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="12"/>
+    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" s="13"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="E81" s="4" t="s">
@@ -9357,8 +9618,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A82" s="12"/>
+    <row r="82" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A82" s="13"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="E82" s="4" t="s">
@@ -9368,8 +9629,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="12"/>
+    <row r="83" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="13"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="E83" s="4" t="s">
@@ -9379,8 +9640,8 @@
         <v>151</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="12"/>
+    <row r="84" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="13"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="E84" s="4" t="s">
@@ -9390,8 +9651,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A85" s="12"/>
+    <row r="85" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A85" s="13"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="E85" s="4" t="s">
@@ -9400,12 +9661,12 @@
       <c r="F85" t="s">
         <v>178</v>
       </c>
-      <c r="G85" s="4" t="s">
+      <c r="H85" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A86" s="12"/>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="13"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="E86" s="4" t="s">
@@ -9415,8 +9676,8 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A87" s="12"/>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="13"/>
       <c r="B87" s="1" t="s">
         <v>77</v>
       </c>
@@ -9430,8 +9691,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="12"/>
+    <row r="88" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="13"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="E88" s="4" t="s">
@@ -9441,8 +9702,8 @@
         <v>182</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A89" s="12"/>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="13"/>
       <c r="B89" s="1" t="s">
         <v>78</v>
       </c>
@@ -9456,8 +9717,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="12"/>
+    <row r="90" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="13"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="E90" s="4" t="s">
@@ -9467,8 +9728,8 @@
         <v>188</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A91" s="12"/>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="13"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="E91" t="s">
@@ -9478,8 +9739,8 @@
         <v>187</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="12"/>
+    <row r="92" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A92" s="13"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="E92" s="4" t="s">
@@ -9489,8 +9750,8 @@
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="12"/>
+    <row r="93" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="13"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="E93" s="4" t="s">
@@ -9499,12 +9760,12 @@
       <c r="F93" t="s">
         <v>184</v>
       </c>
-      <c r="G93" s="4" t="s">
+      <c r="H93" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A94" s="12"/>
+    <row r="94" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A94" s="13"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="E94" s="4" t="s">
@@ -9513,10 +9774,10 @@
       <c r="F94" t="s">
         <v>186</v>
       </c>
-      <c r="G94" s="4"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A95" s="12"/>
+      <c r="H94" s="4"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="13"/>
       <c r="B95" s="1" t="s">
         <v>79</v>
       </c>
@@ -9530,8 +9791,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="12"/>
+    <row r="96" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="13"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="E96" s="4" t="s">
@@ -9541,8 +9802,8 @@
         <v>190</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A97" s="12"/>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="13"/>
       <c r="B97" s="1" t="s">
         <v>80</v>
       </c>
@@ -9556,8 +9817,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="66" x14ac:dyDescent="0.3">
-      <c r="A98" s="12"/>
+    <row r="98" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A98" s="13"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="E98" s="4" t="s">
@@ -9567,8 +9828,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="12"/>
+    <row r="99" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A99" s="13"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="E99" s="4" t="s">
@@ -9578,8 +9839,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="12"/>
+    <row r="100" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="13"/>
       <c r="B100" s="1" t="s">
         <v>8</v>
       </c>
@@ -9595,12 +9856,12 @@
       <c r="F100" t="s">
         <v>154</v>
       </c>
-      <c r="G100" t="s">
+      <c r="H100" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="12"/>
+    <row r="101" spans="1:8" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="13"/>
       <c r="B101" s="1" t="s">
         <v>9</v>
       </c>
@@ -9617,8 +9878,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="12"/>
+    <row r="102" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="13"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="E102" s="4" t="s">
@@ -9628,8 +9889,8 @@
         <v>157</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="12"/>
+    <row r="103" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="13"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="E103" s="4" t="s">
@@ -9639,8 +9900,8 @@
         <v>158</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="12"/>
+    <row r="104" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="13"/>
       <c r="B104" s="1" t="s">
         <v>81</v>
       </c>
@@ -9656,12 +9917,12 @@
       <c r="F104" t="s">
         <v>154</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="12"/>
+    <row r="105" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="13"/>
       <c r="B105" s="1" t="s">
         <v>82</v>
       </c>
@@ -9678,7 +9939,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -9689,7 +9950,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
@@ -9700,7 +9961,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="132" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -9710,12 +9971,12 @@
       <c r="E108" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G108" s="4" t="s">
+      <c r="H108" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A109" s="12" t="s">
+    <row r="109" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A109" s="13" t="s">
         <v>38</v>
       </c>
       <c r="D109" t="s">
@@ -9725,8 +9986,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="12"/>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="13"/>
       <c r="C110" s="1" t="s">
         <v>98</v>
       </c>
@@ -9737,8 +9998,8 @@
         <v>106</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="12"/>
+    <row r="111" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A111" s="13"/>
       <c r="C111" s="1" t="s">
         <v>99</v>
       </c>
@@ -9749,8 +10010,8 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="33" x14ac:dyDescent="0.3">
-      <c r="A112" s="12"/>
+    <row r="112" spans="1:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="A112" s="13"/>
       <c r="C112" s="1" t="s">
         <v>100</v>
       </c>
@@ -9761,8 +10022,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A113" s="12"/>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="13"/>
       <c r="C113" s="1" t="s">
         <v>101</v>
       </c>
@@ -9773,8 +10034,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="12" t="s">
+    <row r="114" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A114" s="13" t="s">
         <v>39</v>
       </c>
       <c r="D114" t="s">
@@ -9784,8 +10045,8 @@
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="12"/>
+    <row r="115" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A115" s="13"/>
       <c r="D115" t="s">
         <v>113</v>
       </c>
@@ -9793,8 +10054,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A116" s="12" t="s">
+    <row r="116" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A116" s="13" t="s">
         <v>40</v>
       </c>
       <c r="D116" t="s">
@@ -9803,24 +10064,24 @@
       <c r="E116" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="12"/>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="13"/>
       <c r="D117" t="s">
         <v>61</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A118" s="12" t="s">
+    <row r="118" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A118" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D118" t="s">
@@ -9830,8 +10091,8 @@
         <v>34</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A119" s="12"/>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="13"/>
       <c r="D119" t="s">
         <v>120</v>
       </c>
@@ -9839,8 +10100,8 @@
         <v>121</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="12"/>
+    <row r="120" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A120" s="13"/>
       <c r="D120" t="s">
         <v>119</v>
       </c>
@@ -9848,7 +10109,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:8" ht="66" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>42</v>
       </c>
@@ -9859,8 +10120,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="132" x14ac:dyDescent="0.3">
-      <c r="A122" s="12" t="s">
+    <row r="122" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A122" s="13" t="s">
         <v>43</v>
       </c>
       <c r="D122" t="s">
@@ -9870,15 +10131,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A123" s="12"/>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="13"/>
       <c r="D123" t="s">
         <v>126</v>
       </c>
       <c r="E123" s="4"/>
     </row>
-    <row r="124" spans="1:7" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="12"/>
+    <row r="124" spans="1:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="13"/>
       <c r="D124" t="s">
         <v>127</v>
       </c>
@@ -9886,7 +10147,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="D125" t="s">
         <v>129</v>
@@ -9895,14 +10156,14 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="H126" s="6" t="s">
         <v>44</v>
       </c>
     </row>
@@ -9927,11 +10188,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -9939,30 +10200,34 @@
     <col min="3" max="3" width="28.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.875" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.375" customWidth="1"/>
+    <col min="7" max="7" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="87.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>26</v>
       </c>
@@ -9972,26 +10237,35 @@
       <c r="D2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="212.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F3" s="4" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="219.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="G4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -10005,9 +10279,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10018,7 +10292,7 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="67.25" customWidth="1"/>
-    <col min="7" max="7" width="21.625" customWidth="1"/>
+    <col min="7" max="7" width="33.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.3">
@@ -10079,7 +10353,7 @@
       <c r="F4" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="14" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10096,7 +10370,7 @@
       <c r="F5" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G5" s="12"/>
+      <c r="G5" s="13"/>
     </row>
     <row r="6" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -10111,7 +10385,7 @@
       <c r="F6" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G6" s="12"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -10124,7 +10398,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="12"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -10139,7 +10413,7 @@
       <c r="F8" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G8" s="12"/>
+      <c r="G8" s="13"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -10152,7 +10426,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="12"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -10167,7 +10441,7 @@
       <c r="F10" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:7" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">

--- a/장례의전_WBS_분석_with_db.xlsx
+++ b/장례의전_WBS_분석_with_db.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="477">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5922,6 +5922,2355 @@
  SQL2 = SQL2 &amp; " order by 인덱스 desc " </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t xml:space="preserve">
+ mDate = DateAdd("m",-1*user_boardmax,date())
+ if sDate = "" then
+  sDate = DateAdd("d",-1*user_board,date())
+ end if
+ if eDate = "" then
+  eDate = date()  
+ end if
+ eDate2 = DateAdd("d",1,eDate)
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with receptionListTBL as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY a.시스템일자 desc) AS rowNum, " 
+ SQL = SQL &amp; " a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, b.단체명, d.장례식장, a.행사상태, isnull(e.상태,'') as 상태, a.일반단체구분 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드 " 
+ SQL = SQL &amp; " left outer join 행사_승인요청 e (nolock) on a.행사번호 = e.행사번호 "
+ SQL = SQL &amp; " where 1=1 "
+ If user_id = "S1211059" Then
+  SQL = SQL &amp; " and a.행사상태 in ( '접수취소', '접수', '취소', '예약' )  " ' 
+ Else
+  SQL = SQL &amp; " and a.행사상태 in ( '접수' )  " ''접수취소', '접수', '취소', '예약' 
+ End if
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL = SQL &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL = SQL &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if 
+    if user_type = "b" then
+        SQL = SQL &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+    end if 
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from receptionListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "
+ SQL_CNT = " select count(*) as count " 
+ SQL_CNT = SQL_CNT &amp; " from 행사마스터 a "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL_CNT = SQL_CNT &amp; " where 1=1 "
+ If user_id = "S1211059" Then
+  SQL_CNT = SQL_CNT &amp; " and a.행사상태 in ( '접수취소', '접수', '취소', '예약' )  " ' 
+ else
+  SQL_CNT = SQL_CNT &amp; " and a.행사상태 in ( '접수' )  " ''접수취소', '접수', '취소', '예약' 
+ End if
+ if sValue &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL_CNT = SQL_CNT &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL_CNT = SQL_CNT &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if 
+    if user_type = "b" then
+        SQL_CNT = SQL_CNT &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+    end if </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select b.단체명 as 단체 "
+ SQL = SQL &amp; " , a.행사번호 as 접수번호 "
+ SQL = SQL &amp; " , left(a.행사시작일시,4) +'.'+ right(left(a.행사시작일시,6),2) +'.'+ right(left(a.행사시작일시,8),2) +' '+ right(left(a.행사시작일시,10),2) +':'+ right(left(a.행사시작일시,12),2)   as 접수일시 "
+ SQL = SQL &amp; " , a.진행팀장 as 의전팀장코드 "
+ SQL = SQL &amp; " , c.성함 as 의전팀장 "
+ SQL = SQL &amp; " , c.연락처 as 의전팀장연락처 "
+ SQL = SQL &amp; " , case when a.일반단체구분 in ('용품배송', '근조화환배송', '용품+화환배송', '화환배송') then '배송' else '장례' end as 행사구분 "
+ SQL = SQL &amp; " , d.상품명 as 진행상품 "
+ SQL = SQL &amp; " , isnull((select sum(입금액) from 수납마스터 (nolock) where 계약코드 = a.계약코드),0) as 납입부금 "
+ SQL = SQL &amp; " , left(e.계약일자,4) +'-'+ right(left(e.계약일자,6),2) +'-'+ right(left(e.계약일자,8),2) as 계약일자 "
+ SQL = SQL &amp; " , f.계약자명 as 직원명 "
+ SQL = SQL &amp; " , f.계약자휴대폰 as 직원연락처 "
+ SQL = SQL &amp; " , f.회원명 as 회원명 "
+ SQL = SQL &amp; " , f.휴대폰 as 회원연락처 "
+ SQL = SQL &amp; " , a.행사지점 as 부서명 "
+ SQL = SQL &amp; " , a.행사소속 as 소속 "
+ SQL = SQL &amp; " , a.행사사번 as 직책 "
+ SQL = SQL &amp; " , a.회원과관계 as 고인과의관계 "
+ SQL = SQL &amp; " , a.현위치 "
+ SQL = SQL &amp; " , f.계약코드 "
+ SQL = SQL &amp; " , f.회원코드 "
+ SQL = SQL &amp; " , a.센터 "
+ SQL = SQL &amp; " , a.일반단체구분 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 " 
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 " 
+ SQL = SQL &amp; " left outer join 상품코드 d (nolock) on a.상품코드 = d.상품코드 " 
+ SQL = SQL &amp; " left outer join 계약마스터 e (nolock) on a.계약코드 = e.계약코드 " 
+ SQL = SQL &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 " 
+ SQL = SQL &amp; " left outer join 행사장례식장 g (nolock) on a.장례식장 = g.코드 " 
+ SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_C = "select 의전관 from 행사마스터 where 행사번호 = '"&amp; code &amp;"' "
+    Set Rs = ConnAplus.execute(SQL_C)
+    If Rs.EOF Then
+  gCode = ""
+ Else  
+  gCode = Rs("의전관")
+    End If    
+ SQL = "select 코드, 직급 as 직책, 성함 as 성명, 연락처,  센터 "
+ SQL = SQL &amp; " from 행사의전팀장 (nolock) " 
+ SQL = SQL &amp; " where 계약여부 = '계약' " 
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and 성함 like '%" &amp; sValue &amp; "%' "
+ end if
+ SQL = SQL &amp; " and ( 본부 like '%' + ( select 본부 from 행사의전팀장 (nolock) where 코드 = '"&amp; gCode &amp;"' ) + '%' "
+ SQL = SQL &amp; " or 센터 = (case when ( select 본부 from 행사의전팀장 (nolock) where 코드 = '"&amp; gCode &amp;"') = '외주' then '' else '꽃집' end) ) "
+ SQL = SQL &amp; " order by 센터 desc, 직급, 성함 "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "update 행사마스터 set 진행팀장 = '"&amp; tcode &amp;"', 센터 = '"&amp; tcenter &amp;"' where 행사번호 = '"&amp; code &amp;"' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select isnull([입금액계],'0') as 입금액계, isnull([실입금회차],'0') as 실입금회차 "
+ SQL = SQL &amp; " from LifeWeb.dbo.계약마스터V " 
+ SQL = SQL &amp; " where [계약코드] = '"&amp; code &amp;"' " 
+ SQL2 = "select isnull(a.납입일자,'') as 수납일자, isnull(a.회차,'') as 회차, isnull(a.입금액,'0') as 입금액, "
+ SQL2 = SQL2 &amp; " (select top(1) 입금방법 from 수납마스터 where 수납일자 = a.납입일자 and 계약코드 = a.계약코드 order by 입금방법) as 방법 " 
+ SQL2 = SQL2 &amp; " from [LifeErp].[dbo].[수납일정표V] a "
+ SQL2 = SQL2 &amp; " where a.계약코드 = '"&amp; code &amp;"' "
+ SQL2 = SQL2 &amp; " and a.납입일자 &lt;&gt; '' "
+ SQL2 = SQL2 &amp; " and a.입금액 = a.납입예정금액 "
+ SQL2 = SQL2 &amp; " order by 회차 desc "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ  
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+  total = 0
+  totalcnt = 0
+ Else  
+  total = FormatNumber(Rs("입금액계"),0)
+  totalcnt = Rs("실입금회차")
+ End If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "exec p_행사등록_회원명변경 '"&amp; code &amp;"', '"&amp; mcode &amp;"', '"&amp; gcode &amp;"', '"&amp; mname &amp;"', '"&amp; mphone &amp;"', '"&amp; mname_o &amp;"', '"&amp; mname_o2 &amp;"', '"&amp; user_id &amp;"'"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "exec [p_문자발송_고객접수안내] '"&amp; code &amp;"', '"&amp; user_id &amp;"', '"&amp; FnAesEncrypt(code, AesEncryptPwd) &amp;"'  " 
+ SQL2 = "select * from ums_data (nolock) where etc2 = '행사_고객접수안내' and etc4 = '"&amp; code &amp;"' "
+ SQL3 = "select * from ums_log (nolock) where etc2 = '행사_고객접수안내' and etc4 = '"&amp; code &amp;"'"
+ SQL4 = "select isnull(b.사진, '') 사진 from 행사마스터 a (nolock) left outer join 행사의전팀장 b (nolock) on a.진행팀장 = b.코드 " 
+ SQL4 = SQL4 &amp; " where a.진행팀장 is not null and b.계약여부 = '계약' and a.행사번호 = '"&amp; code &amp;"'"
+Set Rs = ConnAplus.execute(SQL4)
+ If Rs.EOF Then
+  sign = "Y3"  
+ Else
+  sign = "N"
+  team_pic = Rs("사진")
+ End If
+if sign = "N" then
+  Set Rs = ConnAplus.execute(SQL2)
+  If Rs.EOF Then
+   sign = "N"
+  Else
+   sign = "Y"
+  End If
+  'if sign = "N" then
+   'Set Rs = ConnAplus.execute(SQL3)
+   'If Rs.EOF Then
+   ' sign = "N"
+   'Else
+   ' sign = "Y2"
+   'End If
+  'end if
+ end if
+ if sign = "N" then
+  Set Rs = ConnAplus.execute(SQL)
+  sign = "S"
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = "select 행사번호, isnull(convert(varchar(16),빈소도착,120),'') as 빈소도착, isnull(convert(varchar(16),별세일시,120),'') as 별세일시, 고인명, 고인성별, 고인연령, 사망사유, 장례형태, 장례진행종교, 장례식장코드, "
+ SQL = SQL &amp; " 장례식장명, 호실, [1차장지], [1차장지코드], [2차장지], 버스사용여부, 버스장지, 리무진사용여부, 리무진장지, isnull(convert(varchar(16),입관일시,120),'') as 입관일시, isnull(convert(varchar(16),발인일시,120),'') as 발인일시 "
+ SQL = SQL &amp; " from 행사_고인정보 " 
+ SQL = SQL &amp; " where 행사번호 = '" &amp; code &amp; "' " 
+ SQL2 = "select convert(varchar(10),시스템일자,120) as 등록일 "
+ SQL2 = SQL2 &amp; ", convert(varchar(10),dateadd(d,1,시스템일자),120) 등록일1 , convert(varchar(10),dateadd(d,2,시스템일자),120) 등록일2 "
+ SQL2 = SQL2 &amp; "from 행사마스터 where 행사번호 = '" &amp; code &amp; "' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL2)
+ If Rs.EOF Then
+  regdate1 = ""
+  regdate2 = ""
+ Else
+  regdate = Rs("등록일")
+  regdate1 = Rs("등록일1")
+  regdate2 = Rs("등록일2")
+  'regdate = Rs("등록일")
+  'regdate = Split(regdate,"-")
+  'regdate1 = regdate(0) &amp; "-" &amp; regdate(1) &amp; "-" &amp; Cstr(Cint(regdate(2)) + 1)
+  'regdate2 = regdate(0) &amp; "-" &amp; regdate(1) &amp; "-" &amp; Cstr(Cint(regdate(2)) + 2)
+ End if
+ Set Rs = ConnAplus.execute(SQL) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p1 = p1 &amp; " " &amp; p2 &amp; ":" &amp; p3 &amp; ":00"
+ p4 = p4 &amp; " " &amp; p5 &amp; ":" &amp; p6 &amp; ":00"
+ p23_t = p23 &amp; " " &amp; p24 &amp; ":" &amp; p25 &amp; ":00"
+ p26_t = p26 &amp; " " &amp; p27 &amp; ":" &amp; p28 &amp; ":00"
+ if p29 = "insert" then
+  SQL = " INSERT INTO 행사_고인정보 (행사번호, 빈소도착, 별세일시, 고인명, 고인성별, 고인연령, 사망사유, 장례형태, 장례진행종교, 장례식장코드, 장례식장명,  "
+  SQL = SQL &amp; " 호실, [1차장지], [1차장지코드], [2차장지], 버스사용여부, 버스장지, 리무진사용여부, 리무진장지 "
+  if p23 &lt;&gt; "" then
+   SQL = SQL &amp; " , 입관일시 "
+  end if
+  if p26 &lt;&gt; "" then
+   SQL = SQL &amp; " , 발인일시 "
+  end if
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"','"&amp; p1 &amp;"','"&amp; p4 &amp;"','"&amp; p7 &amp;"','"&amp; p8 &amp;"','"&amp; p9 &amp;"','"&amp; p10 &amp;"','"&amp; p11 &amp;"','"&amp; p12 &amp;"','"&amp; p14 &amp;"','"&amp; p13 &amp;"', "
+  SQL = SQL &amp; " '"&amp; p15 &amp;"','"&amp; p16 &amp;"','"&amp; p17 &amp;"','"&amp; p18 &amp;"','"&amp; p19 &amp;"','"&amp; p20 &amp;"','"&amp; p21 &amp;"','"&amp; p22 &amp;"' "
+  if p23 &lt;&gt; "" then
+   SQL = SQL &amp; " ,'"&amp; p23_t &amp;"' "
+  end if
+  if p26 &lt;&gt; "" then
+   SQL = SQL &amp; " ,'"&amp; p26_t &amp;"' "
+  end if
+  SQL = SQL &amp; " ) "
+ else
+  SQL = " update 행사_고인정보 set 빈소도착 = '"&amp; p1 &amp;"', 별세일시 = '"&amp; p4 &amp;"', 고인명 = '"&amp; p7 &amp;"', 고인성별 = '"&amp; p8 &amp;"', 고인연령 = '"&amp; p9 &amp;"', 사망사유 = '"&amp; p10 &amp;"', "
+  SQL = SQL &amp; " 장례형태 = '"&amp; p11 &amp;"', 장례진행종교 = '"&amp; p12 &amp;"', 장례식장코드 = '"&amp; p14 &amp;"', 장례식장명 = '"&amp; p13 &amp;"', 호실 = '"&amp; p15 &amp;"', [1차장지] = '"&amp; p16 &amp;"',  "
+  SQL = SQL &amp; " [1차장지코드] = '"&amp; p17 &amp;"', [2차장지] = '"&amp; p18 &amp;"', 버스사용여부 = '"&amp; p19 &amp;"', 버스장지 = '"&amp; p20 &amp;"', 리무진사용여부 = '"&amp; p21 &amp;"', 리무진장지 = '"&amp; p22 &amp;"' "
+  if p23 &lt;&gt; "" then
+   SQL = SQL &amp; " , 입관일시 = '"&amp; p23_t &amp;"' "
+  end if
+  if p26 &lt;&gt; "" then
+   SQL = SQL &amp; " , 발인일시 = '"&amp; p26_t &amp;"' "
+  end if
+  SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select 코드, 장례식장 "
+ SQL = SQL &amp; " from 행사장례식장 " 
+ SQL = SQL &amp; " where 영업여부 = '영업' " 
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and 장례식장 like '%" &amp; sValue &amp; "%' "
+ end if 
+ SQL = SQL &amp; " order by 장례식장 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select 상세코드, 대표명칭 "
+ SQL = SQL &amp; " from 공용코드 a (nolock) " 
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and 대표코드  = '00502' " 
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and 대표명칭  like '%" &amp; sValue &amp; "%' "
+ end if 
+ SQL = SQL &amp; " order by 상세코드 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select a.행사번호, a.상주명, a.연락처, a.관계, a.변경행사구분, a.변경상품코드, a.변경상품명, a.지원서비스, b.파일명, "
+ SQL = SQL &amp; " isnull(convert(varchar(16),a.용품도착일,120),'') as 용품도착일, isnull(convert(varchar(16),a.화환도착일,120),'') as 화환도착일, isnull(convert(varchar(16),a.근조기설치일,120),'') as 근조기설치일 "
+ SQL = SQL &amp; " from 행사_기타정보 a (nolock) left outer join 상품코드 b (nolock) on a.변경상품코드 = b.상품코드 " 
+ SQL = SQL &amp; " where 행사번호 = '" &amp; code &amp; "' "  
+ SQL2 = "select a.상세명칭 as 행사구분 "
+ SQL2 = SQL2 &amp; " from 공용코드 a (nolock) " 
+ SQL2 = SQL2 &amp; " where a.대표코드  = '00505' and a.구분5 = 'Y' "
+ SQL2 = SQL2 &amp; " and ( a.상세명칭 in (select 일반단체구분 from 행사마스터 (nolock) where 행사번호 = '" &amp; code &amp; "' )"
+ SQL2 = SQL2 &amp; "  or a.상세명칭 in (select case when 일반단체구분 = '저가형' then '저가형상향' else 일반단체구분 end from 행사마스터 (nolock) where 행사번호 = '" &amp; code &amp; "') ) "
+ SQL2 = SQL2 &amp; " order by a.상세명칭 "
+ SQL3 = "select 상세명칭 as 관계 "
+ SQL3 = SQL3 &amp; " from 공용코드 a (nolock) "
+ SQL3 = SQL3 &amp; " where 대표코드  = '00501' and 구분4 = 'Y' "
+ SQL3 = SQL3 &amp; " order by 구분1 "
+ SQL4 = "select b.상품명, c.단체명 "
+ SQL4 = SQL4 &amp; " from 행사마스터 a (nolock) "
+ SQL4 = SQL4 &amp; "  left outer join 상품코드 b (nolock) on a.상품코드 = b.상품코드 "
+ SQL4 = SQL4 &amp; "  left outer join 행사단체 c (nolock) on a.행사단체 = c.단체코드 "
+ SQL4 = SQL4 &amp; " where a.행사번호 = '" &amp; code &amp; "' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+  input0 = "insert"
+ Else
+  input0 = "update"  
+  input1 = Rs("행사번호")
+  input2 = Rs("상주명")
+  input3 = Rs("연락처")
+  input4 = Rs("관계")
+  input5 = Rs("변경행사구분")
+  input6 = Rs("변경상품코드")
+  input7 = Rs("변경상품명")
+  input8 = Rs("지원서비스")
+  input9 = Rs("용품도착일")
+  input10 = Rs("화환도착일")
+  input11 = Rs("근조기설치일")
+  input12 = Rs("파일명")
+ End If
+ Set Rs = ConnAplus.execute(SQL4) 
+ If Rs.EOF Then
+  input13 = ""
+  input14 = ""  
+ Else  
+  input13 = Rs("상품명") 
+  input14 = Rs("단체명")  
+ End If
+ Set Rs = ConnAplus.execute(SQL2)
+ If Rs.EOF Then
+  rc = 0
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If 
+    Set Rs = ConnAplus.execute(SQL3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8_t = p8 &amp; " " &amp; p9 &amp; ":" &amp; p10 &amp; ":00"
+ p11_t = p11 &amp; " " &amp; p12 &amp; ":" &amp; p13 &amp; ":00"
+ p14_t = p14 &amp; " " &amp; p15 &amp; ":" &amp; p16 &amp; ":00"
+ if p0 = "insert" then
+  SQL = " INSERT INTO 행사_기타정보 (행사번호, 상주명, 연락처, 관계, 변경행사구분, 변경상품코드, 변경상품명, 지원서비스, 용품도착일, 화환도착일, 근조기설치일 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"','"&amp; p1 &amp;"','"&amp; p2 &amp;"','"&amp; p3 &amp;"','"&amp; p4 &amp;"','"&amp; p5 &amp;"','"&amp; p6 &amp;"','"&amp; p7 &amp;"' "
+  if p8 &lt;&gt; "" then
+   SQL = SQL &amp; " ,'"&amp; p8_t &amp;"' "
+  Else
+   SQL = SQL &amp; " , NULL "
+  end if
+  if p11 &lt;&gt; "" then
+   SQL = SQL &amp; " ,'"&amp; p11_t &amp;"' "
+  Else
+   SQL = SQL &amp; " , NULL "
+  end if
+  if p14 &lt;&gt; "" then
+   SQL = SQL &amp; " ,'"&amp; p14_t &amp;"' "
+  Else
+   SQL = SQL &amp; " , NULL "
+  end if
+  SQL = SQL &amp; " ) "
+ else
+  SQL = " update 행사_기타정보 set 상주명 = '"&amp; p1 &amp;"', 연락처 = '"&amp; p2 &amp;"', 관계 = '"&amp; p3 &amp;"', 변경행사구분 = '"&amp; p4 &amp;"', 변경상품코드 = '"&amp; p5 &amp;"', 변경상품명 = '"&amp; p6 &amp;"', 지원서비스 = '"&amp; p7 &amp;"' "
+  if p8 &lt;&gt; "" then
+   SQL = SQL &amp; " , 용품도착일 = '"&amp; p8_t &amp;"' "
+  Else
+   SQL = SQL &amp; " , 용품도착일 = NULL "
+  end if
+  if p11 &lt;&gt; "" then
+   SQL = SQL &amp; " , 화환도착일 = '"&amp; p11_t &amp;"' "
+  Else
+   SQL = SQL &amp; " , 화환도착일 = NULL "
+  end if
+  if p14 &lt;&gt; "" then
+   SQL = SQL &amp; " , 근조기설치일 = '"&amp; p14_t &amp;"' "
+  Else
+   SQL = SQL &amp; " , 근조기설치일 = NULL "
+  end if  
+  SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 파일명, 파일경로 "
+ SQL = SQL &amp; " from 파일저장 "
+ SQL = SQL &amp; " where 게시판종류 = '"&amp; b_type1 &amp;"' and 게시판종류2 = '"&amp; b_type2 &amp;"' and 게시판인덱스 = '"&amp; b_idx &amp;"' "
+ SQL = SQL &amp; " order by 인덱스 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select 상품코드, 상품액, 상품명, 파일명 "
+ SQL = SQL &amp; " from 상품코드 " 
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and convert(varchar(8), getdate(),112) between 판매시작일자 and 판매종료일자 "
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and 상품명 like '%" &amp; sValue &amp; "%' "
+ end if 
+ if sValue_2 &lt;&gt; "" And sValue_2 &lt;&gt; "일반" then
+  SQL = SQL &amp; " and 집계구분 = '" &amp; sValue_2 &amp; "' "
+ end if
+ SQL = SQL &amp; " order by 판매시작일자 desc, 상품명, 상품코드 "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "exec [p_문자발송_부고안내] '"&amp; code &amp;"', '"&amp; user_id &amp;"', '"&amp; msgno &amp;"', '"&amp; FnAesEncrypt(code, AesEncryptPwd) &amp;"' "
+ SQL2 = "select * from ums_data (nolock) where etc2 = '행사_부고안내' and etc4 = '"&amp; code &amp;"' and dest_phone = '"&amp; msgno &amp;"' "
+ SQL3 = "select * from ums_log (nolock) where etc2 = '행사_부고안내' and etc4 = '"&amp; code &amp;"' and dest_phone = '"&amp; msgno &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ 
+ Set Rs = ConnAplus.execute(SQL2)
+ If Rs.EOF Then
+  sign = "N"
+ Else
+  sign = "Y"
+ End If
+ if sign = "N" then
+  Set Rs = ConnAplus.execute(SQL3)
+  If Rs.EOF Then
+   sign = "N"
+  Else
+   sign = "Y2"
+  End If
+ end if 
+ if sign = "N" then
+  Set Rs = ConnAplus.execute(SQL)
+  sign = "S"
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = "select 행사번호, 사원코드, 사원명, convert(varchar(10), 접수일, 120) as 접수일, 일차, 출동일시, 종료일시 "
+ SQL = SQL &amp; " from 행사_회사지원 " 
+ SQL = SQL &amp; " where 행사번호 = '" &amp; code &amp; "' " 
+ SQL = SQL &amp; " order by 순번 asc "
+ SQL2 = "select convert(varchar(10),dateadd(d,0,left(a.행사시작일시,8)),120) as 행사시작일, isnull(b.본부, '') as 본부 "
+ SQL2 = SQL2 &amp; " , convert(varchar(10),dateadd(d,0,left(a.행사시작일시,8)),120) as 행사시작일_1 "
+ SQL2 = SQL2 &amp; " , convert(varchar(10),dateadd(d,1,left(a.행사시작일시,8)),120) as 행사시작일_2 "
+ SQL2 = SQL2 &amp; " , convert(varchar(10),dateadd(d,2,left(a.행사시작일시,8)),120) as 행사시작일_3 "
+ SQL2 = SQL2 &amp; " , convert(varchar(10),dateadd(d,3,left(a.행사시작일시,8)),120) as 행사시작일_4 "
+ SQL2 = SQL2 &amp; " , convert(varchar(10),dateadd(d,4,left(a.행사시작일시,8)),120) as 행사시작일_5 " 
+ SQL2 = SQL2 &amp; " from 행사마스터 a left outer join 행사의전팀장 b on a.진행팀장 = b.코드 "
+ SQL2 = SQL2 &amp; " where a.행사번호 = '" &amp; code &amp; "' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_DELTE = " DELETE FROM 행사_회사지원 WHERE 행사번호 = '"&amp; code &amp;"' "
+ Set Rs = ConnAplus.execute(SQL_DELTE)
+ For i=0 To UBound(input2)
+  SQL = " INSERT INTO 행사_회사지원 (행사번호, 순번, 사원코드, 사원명, 접수일, 일차, 출동일시, 종료일시 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"', '"&amp; i+1 &amp;"', '"&amp; input2(i) &amp;"', '"&amp; input3(i) &amp;"', '"&amp; input4(i) &amp;"', '"&amp; input5(i) &amp;"', '"&amp; input6(i) &amp;":"&amp; input7(i) &amp;"', '"&amp; input8(i) &amp;":"&amp; input9(i) &amp;"' ) "
+  'response.write SQL
+  'response.End
+  Set Rs = ConnAplus.execute(SQL)
+     Next 
+ if request.Form("input3") &lt;&gt; "" and UBound(input3) = 0 then
+  SQL = " INSERT INTO 행사_회사지원 (행사번호, 순번, 사원코드, 사원명, 접수일, 일차, 출동일시, 종료일시 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"', '1', '"&amp; request.Form("input2") &amp;"', '"&amp; request.Form("input3") &amp;"', '"&amp; request.Form("input4") &amp;"', '"&amp; request.Form("input5") &amp;"', '"&amp; request.Form("input6") &amp;":"&amp; request.Form("input7") &amp;"', '"&amp; request.Form("input8") &amp;":"&amp; request.Form("input9") &amp;"' ) "
+  'response.write SQL
+  'response.End
+  Set Rs = ConnAplus.execute(SQL)
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select top 100 a.사원코드, a.사원명, a.사원구분, left(a.주민번호,6), replace(a.휴대폰,' ',''), isnull(a.지역,''), isnull(b.은행명,''), a.계좌번호, a.예금주명, isnull(a.메모, ''), isnull(c.결과코드, '2') as 결과코드, "
+ SQL = SQL &amp; " 0 as 단가 " 
+ SQL = SQL &amp; " from 행사사원마스터 a left outer join 은행코드 b on a.은행코드 = b.은행코드 " 
+ SQL = SQL &amp; " left outer join (select 이름,주민번호, 결과코드 from 개인실명확인이력 (nolock) where 결과코드 &lt;&gt; '2') c on a.사원명 = c.이름 and a.주민번호 = c.주민번호" 
+ SQL = SQL &amp; " where a.주민번호 is not null and 활성='Y' "
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and a.사원명 like '%" &amp; sValue &amp; "%' "
+  SQL = SQL &amp; " OR LEFT(a.주민번호,6) ='" &amp; sValue &amp; "' "
+ end if
+ SQL = SQL &amp; " order by 사원명 asc " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select 대표명칭 from 공용코드 where 대표코드 =  '00255' " 
+ SQL2 = " select 은행코드,은행명 from 은행코드 where 사용구분 =  'Y' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 대표명칭 from 공용코드 where 대표코드 =  '00255' " 
+ SQL2 = " select 은행코드,은행명 from 은행코드 where 사용구분 =  'Y' "  
+ SQL3 = " select 사원명,사원구분,주민번호,isnull(휴대폰,' ') 휴대폰,은행코드,계좌번호,예금주명,검증,지역,메모 "
+    SQL3 = SQL3 + " from 행사사원마스터  where 사원코드 = '"&amp; code &amp;"' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQL = " exec p_행사도우미등록 'i', '" &amp; helperCode &amp; "', '" &amp; uname &amp; "', '" &amp; jum &amp; "', '" &amp; G_sabun &amp; "', '" &amp; bnkNam &amp; "', '" &amp; bnkCode &amp; "', '" &amp; bnkUser &amp; "','" &amp; hp &amp; "', '" &amp; sabun &amp; "', '', '" &amp; bankValid &amp; "', '" &amp; bankName &amp; "', '" &amp; memo &amp; "' "   
+        ConnAplus.execute(SQL)
+  Response.write SQL
+  SQL_record = "insert into 행사사원계좌변경이력(사원코드,  은행코드, 계좌번호, 예금주명, 검증, 검증예금주명, 등록자)"
+  SQL_record = SQL_record &amp; " values('" &amp; G_sabun &amp; "', '" &amp; bnkNam &amp; "', '" &amp; bnkCode &amp; "', '" &amp; bnkUser &amp; "', '" &amp; bankValid &amp; "', '" &amp; bankName &amp; "', '" &amp; sabun &amp; "')"
+  Response.write SQL_record
+  ConnAplus.execute(SQL_record)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " exec p_행사도우미등록 'i', '"&amp; helperCode &amp;"', '"&amp; uname &amp;"', '"&amp; jum &amp;"', '"&amp; G_sabun &amp;"', '"&amp; bnkNam &amp;"', '"&amp; bnkCode &amp;"', '"&amp; bnkUser &amp;"','"&amp; hp &amp;"', '"&amp; sabun &amp; "', '', '" &amp; bankValid &amp; "', '" &amp; bnkUser &amp; "', '" &amp; memo &amp; "' "
+ 'exec p_행사도우미등록 구분, 도우미구분, 도우미명, 주민번호, 도우미코드, 은행코드, 계좌번호, 예금주명, 휴대폰, 등록자, 지역, 검증, 검증예금주명, 특이사항
+SQL_isExist = "select * "
+ SQL_isExist = SQL_isExist &amp; "from 행사사원계좌변경이력 (nolock) "
+ SQL_isExist = SQL_isExist &amp; "where 1=1 and 사원코드 = '" &amp; G_sabun &amp; "' and 은행코드 = '" &amp; bnkNam &amp; "' and 계좌번호 = '" &amp; bnkCode &amp; "' and 예금주명 = '" &amp; bnkUser &amp; "' "
+ SQL_isExists = "IF NOT EXISTS(select * from 행사사원계좌변경이력 (nolock) "
+ SQL_isExists = SQL_isExists &amp; "where 1=1 and 사원코드='" &amp; G_sabun &amp; "' and 은행코드='" &amp; bnkNam &amp; "' and 계좌번호='" &amp; bnkCode &amp; "' and 예금주명= '" &amp; bnkUser &amp; "')"
+ SQL_isExists = SQL_isExists &amp; " BEGIN insert into 행사사원계좌변경이력(사원코드,  은행코드, 계좌번호, 예금주명, 검증, 검증예금주명, 등록자)"
+ SQL_isExists = SQL_isExists &amp; " values('" &amp; G_sabun &amp; "', '" &amp; bnkNam &amp; "', '" &amp; bnkCode &amp; "', '" &amp; bnkUser &amp; "', '" &amp; bankValid &amp; "', '" &amp; bnkUser &amp; "', '" &amp; sabun &amp; "') END"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select b.단체명 as 단체 "
+ SQL = SQL &amp; " , a.행사번호 as 접수번호 "
+ SQL = SQL &amp; " , left(a.행사시작일시,4) +'.'+ right(left(a.행사시작일시,6),2) +'.'+ right(left(a.행사시작일시,8),2) +' '+ right(left(a.행사시작일시,10),2) +':'+ right(left(a.행사시작일시,12),2) as 접수일시 "
+ SQL = SQL &amp; " , a.진행팀장 as 의전팀장코드 "
+ SQL = SQL &amp; " , c.성함 as 의전팀장 "
+ SQL = SQL &amp; " , c.연락처 as 의전팀장연락처 "
+ SQL = SQL &amp; " , case when a.일반단체구분 in ('용품배송', '근조화환배송', '용품+화환배송', '화환배송') then '배송' else '장례' end as 행사구분 "
+ SQL = SQL &amp; " , d.상품명 as 진행상품 "
+ SQL = SQL &amp; " , isnull((select sum(입금액) from 수납마스터 (nolock) where 계약코드 = a.계약코드),0) as 납입부금 "
+ SQL = SQL &amp; " , left(e.계약일자,4) +'-'+ right(left(e.계약일자,6),2) +'-'+ right(left(e.계약일자,8),2) as 계약일자 "
+ SQL = SQL &amp; " , f.계약자명 as 직원명 "
+ SQL = SQL &amp; " , f.계약자휴대폰 as 직원연락처 "
+ SQL = SQL &amp; " , f.회원명 as 회원명 "
+ SQL = SQL &amp; " , f.휴대폰 as 회원연락처 "
+ SQL = SQL &amp; " , a.행사지점 as 부서명 "
+ SQL = SQL &amp; " , a.행사소속 as 소속 "
+ SQL = SQL &amp; " , a.행사사번 as 직책 "
+ SQL = SQL &amp; " , a.회원과관계 as 고인과의관계 "
+ SQL = SQL &amp; " , a.현위치 "
+ SQL = SQL &amp; " , a.계약코드 "
+ SQL = SQL &amp; " , convert(varchar(16),h.빈소도착,120) as 빈소도착, convert(varchar(16),h.별세일시,120) as 별세일시, isnull(h.고인명,'') as 고인명, h.장례식장명, isnull(i.지원서비스,'') as 지원서비스 "
+ SQL = SQL &amp; " , isnull(convert(varchar(16),i.용품도착일,120),'') as 용품도착일, isnull(convert(varchar(16),i.화환도착일,120),'') as 화환도착일 "
+ SQL = SQL &amp; " , isnull(convert(varchar(16),i.근조기설치일,120),'') as 근조기설치일, isnull(j.서명,'') as 서명, isnull(convert(varchar(16),j.등록일,120),'') as 서명일 "
+ SQL = SQL &amp; " , isnull(k.지원내용, '') 지원내용 "
+ SQL = SQL &amp; " , isnull(k.인수자, '') 인수자 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 상품코드 d (nolock) on a.상품코드 = d.상품코드 "
+ SQL = SQL &amp; " left outer join 계약마스터 e (nolock) on a.계약코드 = e.계약코드 "
+ SQL = SQL &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 "
+ SQL = SQL &amp; " left outer join 행사장례식장 g (nolock) on a.장례식장 = g.코드 "
+ SQL = SQL &amp; " left outer join 행사_고인정보 h (nolock) on a.행사번호 = h.행사번호 "
+ SQL = SQL &amp; " left outer join 행사_기타정보 i (nolock) on a.행사번호 = i.행사번호 "
+ SQL = SQL &amp; " left outer join 행사_회사지원서명 j (nolock) on a.행사번호 = j.행사번호 "
+ SQL = SQL &amp; " left outer join 행사마스터_세부추가 k (nolock) on a.행사번호 = k.행사번호 "
+ SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' "
+ SQL2 = "select 사원명, convert(varchar(10),접수일,120) as 접수일, 일차, 출동일시, 종료일시 "
+ SQL2 = SQL2 &amp; " from 행사_회사지원 (nolock) "
+ SQL2 = SQL2 &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ SQL2 = SQL2 &amp; " order by 순번 asc "
+ SQL3 = " select 파일명, 파일경로 "
+ SQL3 = SQL3 &amp; " from 파일저장 (nolock) "
+ SQL3 = SQL3 &amp; " where 게시판종류 = '행사' and 게시판종류2 = '회사지원입력' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3 = SQL3 &amp; " order by 인덱스 asc "
+ SQL3_1 = " select 파일명, 파일경로 "
+ SQL3_1 = SQL3_1 &amp; " from 파일저장 (nolock) "
+ SQL3_1 = SQL3_1 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '용품' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_1 = SQL3_1 &amp; " order by 인덱스 asc "
+ SQL3_2 = " select 파일명, 파일경로 "
+ SQL3_2 = SQL3_2 &amp; " from 파일저장 (nolock) "
+ SQL3_2 = SQL3_2 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '화환' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_2 = SQL3_2 &amp; " order by 인덱스 asc "
+ SQL3_3 = " select 파일명, 파일경로 "
+ SQL3_3 = SQL3_3 &amp; " from 파일저장 (nolock) "
+ SQL3_3 = SQL3_3 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '조기' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_3 = SQL3_3 &amp; " order by 인덱스 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " INSERT INTO 행사_회사지원서명 (행사번호, 서명) values ('"&amp; code &amp;"', '"&amp; SignImg &amp;"') " 
+ SQL_2 = " UPDATE A SET 인수자 = '"&amp; SignP1 &amp;"' from 행사마스터_세부추가 A where 행사번호 = '"&amp; code &amp;"' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select a.tr_cd, a.product_nm, a.product_amt, a.card_no, b.res_cd, b.res_msg, b.cno, b.auth_no, b.tran_date, b.issuer_nm, b.시스템일자"
+ SQL = SQL &amp; " , a.install_period, datediff(hh, b.시스템일자, getdate()) as 경과시간 "
+ SQL = SQL &amp; " , case when a.tr_cd = '00101000' and a.org_cno &lt;&gt; '' and res_cd = '0000' then "
+ SQL = SQL &amp; "    case when (select count(*) from CARD결제신청 (nolock) where tr_cd = '00201000' and org_cno = a.org_cno) &gt; 0 then 'NO' "
+ SQL = SQL &amp; "    else 'OK' "
+ SQL = SQL &amp; "    end "
+    SQL = SQL &amp; " else 'NO' "
+ SQL = SQL &amp; "   end 취소구분 "
+ SQL = SQL &amp; " , a.영수증수신번호 "
+ SQL = SQL &amp; " from CARD결제신청 a (nolock) inner join CARD결제결과 b (nolock) on a.idx = b.card_idx "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.tr_cd in ( '00101000', '00201000' ) " 
+ SQL = SQL &amp; " and a.상조계약코드= '"&amp; code &amp;"' " 
+ SQL = SQL &amp; " order by b.시스템일자 desc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If install_period = "0" Then
+  install_period_nm = "일시납"
+ Else   
+  install_period_nm = install_period &amp; "개월"
+ End If
+ SQL = "exec [P_문자전송_알림톡_카드현금_영수증] 'aplus_97_001_01', '"&amp; receipt_hp &amp;"', '1688-8890', '"&amp; cno &amp;"', '"&amp; card_gubun &amp;"', '"&amp; card_result &amp;"', '"&amp; product_amt&amp;"', '"&amp; life_sawon_id &amp;"', 'A', '"&amp; install_period_nm &amp;"', '재전송' "
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select a.tr_cd, a.product_nm, a.product_amt, a.self_issue, b.res_cd, b.res_msg, b.cno, b.auth_no, b.tran_date, a.issue_type, b.시스템일자"
+ SQL = SQL &amp; " , a.auth_value, datediff(hh, b.시스템일자, getdate()) as 경과시간 "
+ SQL = SQL &amp; " , case when a.tr_cd = '00201050' and req_type = 'issue' and a.org_cno &lt;&gt; '' and res_cd = '0000' then "
+ SQL = SQL &amp; "    case when (select count(*) from CARD결제신청 (nolock) where tr_cd = '00201050' and req_type = 'cancel' and org_cno = a.org_cno) &gt; 0 then 'NO' "
+ SQL = SQL &amp; "    else 'OK' "
+ SQL = SQL &amp; "    end "
+    SQL = SQL &amp; " else 'NO' "
+ SQL = SQL &amp; "   end 취소구분 "
+ SQL = SQL &amp; " , a.영수증수신번호 "
+ SQL = SQL &amp; " , a.req_type "
+ SQL = SQL &amp; " from CARD결제신청 a (nolock) inner join CARD결제결과 b (nolock) on a.idx = b.card_idx "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.tr_cd in ( '00201050' ) " 
+ SQL = SQL &amp; " and isnull(a.카드결제구분, '') in ('', 'hangsa') " 
+ SQL = SQL &amp; " and a.상조계약코드= '"&amp; code &amp;"' " 
+ SQL = SQL &amp; " order by b.시스템일자 desc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mDate = DateAdd("m",-1*user_boardmax,date())
+ if sDate = "" then
+  sDate = DateAdd("d",-1*user_board,date())
+ end if
+ if eDate = "" then
+  eDate = date()  
+ end if
+ eDate2 = DateAdd("d",1,eDate)
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with receptionListTBL as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY a.시스템일자 desc) AS rowNum, " 
+ SQL = SQL &amp; " a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, b.단체명, d.장례식장, a.행사상태, isnull(e.상태,'') as 상태, a.일반단체구분 "
+ SQL = SQL &amp; " from 행사마스터 a "
+ SQL = SQL &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL = SQL &amp; " left outer join 행사_승인요청 e on a.행사번호 = e.행사번호 "
+ SQL = SQL &amp; " where a.행사상태 in ('진행', '완료') "
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL = SQL &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL = SQL &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if
+    if user_type = "b" then
+        SQL = SQL &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+    end if 
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from receptionListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "
+ SQL_CNT = " select count(*) as count " 
+ SQL_CNT = SQL_CNT &amp; " from 행사마스터 a "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL_CNT = SQL_CNT &amp; " where a.행사상태 in ('진행', '완료') "
+ if sValue &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL_CNT = SQL_CNT &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL_CNT = SQL_CNT &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if
+    if user_type = "b" then
+        SQL_CNT = SQL_CNT &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+    end if
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ 
+ Set Rs = ConnAplus.execute(SQL_CNT)
+ tCnt = Rs("count") 
+ Set Rs = ConnAplus.execute(SQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select 행사번호, 일차, convert(varchar(10), 근무일, 120) as 근무일, 입실시간, 퇴실시간, 내용 "
+ SQL = SQL &amp; " from 행사_장례진행 " 
+ SQL = SQL &amp; " where 행사번호 = '" &amp; code &amp; "' " 
+ SQL = SQL &amp; " order by 일차 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdate = input2 &amp; ":" &amp; input3
+ edate = input4 &amp; ":" &amp; input5
+ SQL = "insert into 행사_장례진행 (행사번호, 일차, 근무일, 입실시간, 퇴실시간, 내용) "
+ SQL = SQL &amp; " values ('"&amp; code &amp;"', '"&amp; input0 &amp;"', '"&amp; input1 &amp;"', '"&amp; sdate &amp;"', '"&amp; edate &amp;"', '"&amp; input6 &amp;"') " 
+ SQL2 = " update 행사_장례진행 set 근무일 = '"&amp; input1 &amp;"', 입실시간 = '"&amp; sdate &amp;"', 퇴실시간 = '"&amp; edate &amp;"', 내용 = '"&amp; input6 &amp;"' "
+ SQL2 = SQL2 &amp; " where 행사번호 = '"&amp; code &amp;"' and 일차 = '"&amp; input0 &amp;"' "
+ SQL3 = " select 행사번호 from 행사_장례진행 where 행사번호 = '"&amp; code &amp;"' and 일차 = '"&amp; input0 &amp;"' "
+ SQL4 = " select 행사번호 from 행사_장례진행 where 행사번호 = '"&amp; code &amp;"' and 일차 = '"&amp; Cint(input0) - 1 &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL3)
+ If Rs.EOF Then
+  if Cint(input0) &gt; 1 then
+   Set Rs2 = ConnAplus.execute(SQL4)
+   If Rs2.EOF Then
+    stat = "error" '이전일 근무일지가 없을때
+   Else
+    stat = "insert" '이전일 근무일지가 있을때
+   End If
+   Set Rs2 = Nothing
+  else
+   stat = "insert" '1일차 근무일지 등록일때
+  end if  
+ Else
+  stat = "update" '등록된 근무일지가 있을때  
+ End If
+ if stat = "insert" then
+  ConnAplus.execute(SQL) '등록
+ elseif stat = "update" then
+  ConnAplus.execute(SQL2) '업데이트
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select b.단체명 as 단체 "
+ SQL = SQL &amp; " , a.행사번호 as 접수번호 "
+ SQL = SQL &amp; " , left(a.행사시작일시,4) +'.'+ right(left(a.행사시작일시,6),2) +'.'+ right(left(a.행사시작일시,8),2) +' '+ right(left(a.행사시작일시,10),2) +':'+ right(left(a.행사시작일시,12),2)   as 접수일시 "
+ SQL = SQL &amp; " , a.진행팀장 as 의전팀장코드 "
+ SQL = SQL &amp; " , c.성함 as 의전팀장 "
+ SQL = SQL &amp; " , c.연락처 as 의전팀장연락처 "
+ SQL = SQL &amp; " , case when a.일반단체구분 in ('용품배송', '근조화환배송', '용품+화환배송', '화환배송') then '배송' else '장례' end as 행사구분 "
+ SQL = SQL &amp; " , d.상품명 as 진행상품 "
+ SQL = SQL &amp; " , isnull((select sum(입금액) from 수납마스터 (nolock) where 계약코드 = a.계약코드),0) as 납입부금 "
+ SQL = SQL &amp; " , left(e.계약일자,4) +'-'+ right(left(e.계약일자,6),2) +'-'+ right(left(e.계약일자,8),2) as 계약일자 "
+ SQL = SQL &amp; " , f.계약자명 as 직원명 "
+ SQL = SQL &amp; " , f.계약자휴대폰 as 직원연락처 "
+ SQL = SQL &amp; " , f.회원명 as 회원명 "
+ SQL = SQL &amp; " , f.휴대폰 as 회원연락처 "
+ SQL = SQL &amp; " , a.행사지점 as 부서명 "
+ SQL = SQL &amp; " , a.행사소속 as 소속 "
+ SQL = SQL &amp; " , a.행사사번 as 직책 "
+ SQL = SQL &amp; " , a.회원과관계 as 고인과의관계 "
+ SQL = SQL &amp; " , a.현위치 "
+ SQL = SQL &amp; " , f.계약코드 "
+ SQL = SQL &amp; " , f.회원코드 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 " 
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 " 
+ SQL = SQL &amp; " left outer join 상품코드 d (nolock) on a.상품코드 = d.상품코드 " 
+ SQL = SQL &amp; " left outer join 계약마스터 e (nolock) on a.계약코드 = e.계약코드 " 
+ SQL = SQL &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 " 
+ SQL = SQL &amp; " left outer join 행사장례식장 g (nolock) on a.장례식장 = g.코드 " 
+ SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select a.행사번호, convert(varchar(16),빈소도착,120) as 빈소도착, isnull(convert(varchar(16),별세일시,120),'') as 별세일시, 고인명, 고인성별, 고인연령, 사망사유, 장례형태, 장례진행종교, 장례식장코드, "
+ SQL = SQL &amp; " 장례식장명, 호실, [1차장지], [1차장지코드], [2차장지], 버스사용여부, 버스장지, 리무진사용여부, 리무진장지, isnull(convert(varchar(16),입관일시,120),'') as 입관일시, isnull(convert(varchar(16),발인일시,120),'') as 발인일시, b.상태 "
+ SQL = SQL &amp; " from 행사_고인정보 a left outer join 행사_승인요청 b on a.행사번호 = b.행사번호 "
+ SQL = SQL &amp; " where a.행사번호 = '" &amp; code &amp; "' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If p24 = "" Then
+  p24 = "00"
+ End if
+ If p25 = "" Then
+  p25 = "00"
+ End If
+ If p27 = "" Then
+  p27 = "00"
+ End If
+ If p28 = "" Then
+  p28 = "00"
+ End If
+ p23_t = p23 &amp; " " &amp; p24 &amp; ":" &amp; p25 &amp; ":00"
+ p26_t = p26 &amp; " " &amp; p27 &amp; ":" &amp; p28 &amp; ":00"
+ SQL = " update 행사_고인정보 set "
+ SQL = SQL &amp; " 장례형태 = '"&amp; p11 &amp;"', 호실 = '"&amp; p15 &amp;"', [1차장지] = '"&amp; p16 &amp;"', "
+ SQL = SQL &amp; " [1차장지코드] = '"&amp; p17 &amp;"', [2차장지] = '"&amp; p18 &amp;"', 버스사용여부 = '"&amp; p19 &amp;"', 버스장지 = '"&amp; p20 &amp;"', 리무진사용여부 = '"&amp; p21 &amp;"', 리무진장지 = '"&amp; p22 &amp;"' "
+ if p23 &lt;&gt; "" then
+  SQL = SQL &amp; " , 입관일시 = '"&amp; p23_t &amp;"' "
+ end if
+ if p26 &lt;&gt; "" then
+  SQL = SQL &amp; " , 발인일시 = '"&amp; p26_t &amp;"' "
+ end if
+ SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If p24 = "" Then
+  p24 = "00"
+ End if
+ If p25 = "" Then
+  p25 = "00"
+ End If
+ If p27 = "" Then
+  p27 = "00"
+ End If
+ If p28 = "" Then
+  p28 = "00"
+ End If
+ If p2 = "" Then
+  p2 = "00"
+ End If
+ If p3 = "" Then
+  p3 = "00"
+ End If
+ If p5 = "" Then
+  p5 = "00"
+ End If
+ If p6 = "" Then
+  p6 = "00"
+ End If
+ p23_t = p23 &amp; " " &amp; p24 &amp; ":" &amp; p25 &amp; ":00"
+ p26_t = p26 &amp; " " &amp; p27 &amp; ":" &amp; p28 &amp; ":00"
+ SQL = " update 행사_고인정보 set "
+ SQL = SQL &amp; " 장례형태 = '"&amp; p11 &amp;"', 호실 = '"&amp; p15 &amp;"', [1차장지] = '"&amp; p16 &amp;"', "
+ SQL = SQL &amp; " [1차장지코드] = '"&amp; p17 &amp;"', [2차장지] = '"&amp; p18 &amp;"', 버스사용여부 = '"&amp; p19 &amp;"', 버스장지 = '"&amp; p20 &amp;"', 리무진사용여부 = '"&amp; p21 &amp;"', 리무진장지 = '"&amp; p22 &amp;"' "
+ if p23 &lt;&gt; "" then
+  SQL = SQL &amp; " , 입관일시 = '"&amp; p23_t &amp;"' "
+ end if
+ if p26 &lt;&gt; "" then
+  SQL = SQL &amp; " , 발인일시 = '"&amp; p26_t &amp;"' "
+ end if
+ SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' " 
+ p1_s = Replace(p1 &amp; p2 &amp; p3, "-", "")
+ p4_s = Replace(p4 &amp; p5 &amp; p6, "-", "")
+ p23_s = Replace(p23 &amp; p24 &amp; p25, "-", "")
+ p26_s = Replace(p26 &amp; p27 &amp; p28, "-", "")
+ SQL2 = " update 행사마스터 set 도착일시 = '"&amp; p1_s &amp;"', 별세일 = '"&amp; p4_s &amp;"', 고인성명 = '"&amp; p7 &amp;"', 고인성별 = '"&amp; p8 &amp;"', 연령 = '"&amp; p9 &amp;"', 부고사유 = '"&amp; p10 &amp;"', "
+ SQL2 = SQL2 &amp; " 장례형태 = '"&amp; p11 &amp;"', 종교 = '"&amp; p12 &amp;"', 장례식장 = '"&amp; p14 &amp;"', 빈소 = '"&amp; p15 &amp;"', 장지 = '"&amp; p16 &amp;"',  "
+ SQL2 = SQL2 &amp; " 장지2 = '"&amp; p18 &amp;"', 버스사용 = '"&amp; p19 &amp;"', 버스방향 = '"&amp; p20 &amp;"', 리무진사용 = '"&amp; p21 &amp;"', 리무진방향 = '"&amp; p22 &amp;"', "
+ SQL2 = SQL2 &amp; " 입관일시 = '"&amp; p23_s &amp;"', 발인일시 = '"&amp; p26_s &amp;"' "
+ SQL2 = SQL2 &amp; " where 행사번호 = '"&amp; code &amp;"' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = "select 행사번호, 상주명, 연락처, 관계, 변경행사구분, 변경상품코드, 변경상품명, 지원서비스, "
+ SQL = SQL &amp; " isnull(convert(varchar(16),용품도착일,120),'') as 용품도착일, isnull(convert(varchar(16),화환도착일,120),'') as 화환도착일, isnull(convert(varchar(16),근조기설치일,120),'') as 근조기설치일 "
+ SQL = SQL &amp; " from 행사_기타정보 " 
+ SQL = SQL &amp; " where 행사번호 = '" &amp; code &amp; "' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>p8_t = p8 &amp; " " &amp; p9 &amp; ":" &amp; p10 &amp; ":00"
+ p11_t = p11 &amp; " " &amp; p12 &amp; ":" &amp; p13 &amp; ":00"
+ p14_t = p14 &amp; " " &amp; p15 &amp; ":" &amp; p16 &amp; ":00"
+ SQL = " update 행사_기타정보 set 행사번호 = '"&amp; code &amp;"' "
+ if p8 &lt;&gt; "" then
+  SQL = SQL &amp; " , 용품도착일 = '"&amp; p8_t &amp;"' "
+ end if
+ if p11 &lt;&gt; "" then
+  SQL = SQL &amp; " , 화환도착일 = '"&amp; p11_t &amp;"' "
+ end if
+ if p14 &lt;&gt; "" then
+  SQL = SQL &amp; " , 근조기설치일 = '"&amp; p14_t &amp;"' "
+ end if  
+ SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select b.단체명 as 단체 "
+ SQL = SQL &amp; " , a.행사번호 as 접수번호 "
+ SQL = SQL &amp; " , left(a.행사시작일시,4) +'.'+ right(left(a.행사시작일시,6),2) +'.'+ right(left(a.행사시작일시,8),2) +' '+ right(left(a.행사시작일시,10),2) +':'+ right(left(a.행사시작일시,12),2) as 접수일시 "
+ SQL = SQL &amp; " , a.진행팀장 as 의전팀장코드 "
+ SQL = SQL &amp; " , c.성함 as 의전팀장 "
+ SQL = SQL &amp; " , c.연락처 as 의전팀장연락처 "
+ SQL = SQL &amp; " , case when a.일반단체구분 in ('용품배송', '근조화환배송', '용품+화환배송', '화환배송') then '배송' else '장례' end as 행사구분 "
+ SQL = SQL &amp; " , d.상품명 as 진행상품 "
+ SQL = SQL &amp; " , isnull((select sum(입금액) from 수납마스터 (nolock) where 계약코드 = a.계약코드),0) as 납입부금 "
+ SQL = SQL &amp; " , left(e.계약일자,4) +'-'+ right(left(e.계약일자,6),2) +'-'+ right(left(e.계약일자,8),2) as 계약일자 "
+ SQL = SQL &amp; " , f.계약자명 as 직원명 "
+ SQL = SQL &amp; " , f.계약자휴대폰 as 직원연락처 "
+ SQL = SQL &amp; " , f.회원명 as 회원명 "
+ SQL = SQL &amp; " , f.휴대폰 as 회원연락처 "
+ SQL = SQL &amp; " , a.행사지점 as 부서명 "
+ SQL = SQL &amp; " , a.행사소속 as 소속 "
+ SQL = SQL &amp; " , a.행사사번 as 직책 "
+ SQL = SQL &amp; " , a.회원과관계 as 고인과의관계 "
+ SQL = SQL &amp; " , a.현위치 "
+ SQL = SQL &amp; " , a.계약코드 "
+ SQL = SQL &amp; " , convert(varchar(16),h.빈소도착,120) as 빈소도착, convert(varchar(16),h.별세일시,120) as 별세일시, isnull(h.고인명,'') as 고인명, h.장례식장명, isnull(i.지원서비스,'') as 지원서비스 "
+ SQL = SQL &amp; " , isnull(convert(varchar(16),i.용품도착일,120),'') as 용품도착일, isnull(convert(varchar(16),i.화환도착일,120),'') as 화환도착일 "
+ SQL = SQL &amp; " , isnull(convert(varchar(16),i.근조기설치일,120),'') as 근조기설치일, isnull(j.서명,'') as 서명, isnull(convert(varchar(16),j.등록일,120),'') as 서명일 "
+ SQL = SQL &amp; " , isnull(k.지원내용, '') 지원내용 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 " 
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 " 
+ SQL = SQL &amp; " left outer join 상품코드 d (nolock) on a.상품코드 = d.상품코드 " 
+ SQL = SQL &amp; " left outer join 계약마스터 e (nolock) on a.계약코드 = e.계약코드 " 
+ SQL = SQL &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 " 
+ SQL = SQL &amp; " left outer join 행사장례식장 g (nolock) on a.장례식장 = g.코드 " 
+ SQL = SQL &amp; " left outer join 행사_고인정보 h on a.행사번호 = h.행사번호 "
+ SQL = SQL &amp; " left outer join 행사_기타정보 i on a.행사번호 = i.행사번호 "
+ SQL = SQL &amp; " left outer join 행사_회사지원서명 j on a.행사번호 = j.행사번호 "
+ SQL = SQL &amp; " left outer join 행사마스터_세부추가 k (nolock) on a.행사번호 = k.행사번호 "
+ SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' " 
+ SQL2 = "select 사원명, convert(varchar(10),접수일,120) as 접수일, 일차, 출동일시, 종료일시 "
+ SQL2 = SQL2 &amp; " from 행사_회사지원 "
+ SQL2 = SQL2 &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ SQL2 = SQL2 &amp; " order by 순번 asc "
+ SQL3 = " select 파일명, 파일경로 "
+ SQL3 = SQL3 &amp; " from 파일저장 "
+ SQL3 = SQL3 &amp; " where 게시판종류 = '행사' and 게시판종류2 = '회사지원입력' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3 = SQL3 &amp; " order by 인덱스 asc "
+ SQL3_1 = " select 파일명, 파일경로 "
+ SQL3_1 = SQL3_1 &amp; " from 파일저장 (nolock) "
+ SQL3_1 = SQL3_1 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '용품' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_1 = SQL3_1 &amp; " order by 인덱스 asc "
+ SQL3_2 = " select 파일명, 파일경로 "
+ SQL3_2 = SQL3_2 &amp; " from 파일저장 (nolock) "
+ SQL3_2 = SQL3_2 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '화환' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_2 = SQL3_2 &amp; " order by 인덱스 asc "
+ SQL3_3 = " select 파일명, 파일경로 "
+ SQL3_3 = SQL3_3 &amp; " from 파일저장 (nolock) "
+ SQL3_3 = SQL3_3 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '조기' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_3 = SQL3_3 &amp; " order by 인덱스 asc "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+ Else  
+  input1 = Rs("의전팀장코드")
+  input2 = Rs("단체")
+  input3 = Rs("접수일시")  
+  input4 = Rs("진행상품")
+  input5 = Rs("고인과의관계")
+  input6 = Rs("빈소도착")
+  input7 = Rs("별세일시")
+  input8 = Rs("고인명")
+  input9 = Rs("장례식장명")
+  input10 = Rs("지원서비스")
+  input11 = Rs("용품도착일")
+  input12 = Rs("화환도착일")
+  input13 = Rs("근조기설치일")  
+  input14 = Rs("서명")
+  input15 = Rs("서명일")
+  input16 = Rs("직원명")
+  input17 = Rs("직원연락처")
+  input18 = Rs("부서명")
+  input19 = Rs("소속")
+  input20 = Rs("직책")
+  input21 = Rs("지원내용")
+ End If
+ Set Rs = ConnAplus.execute(SQL2)
+ If Rs.EOF Then
+  rc = 0
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If
+ Set Rs = ConnAplus.execute(SQL3)
+ If Rs.EOF Then
+  rc2 = 0
+ Else
+  rc2 = Rs.RecordCount
+  arrObj2 = Rs.GetRows(rc2)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_1)
+ If Rs.EOF Then
+  rc2_1 = 0
+ Else
+  rc2_1 = Rs.RecordCount
+  arrObj2_1 = Rs.GetRows(rc2_1)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_2)
+ If Rs.EOF Then
+  rc2_2 = 0
+ Else
+  rc2_2 = Rs.RecordCount
+  arrObj2_2 = Rs.GetRows(rc2_2)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_3)
+ If Rs.EOF Then
+  rc2_3 = 0
+ Else
+  rc2_3 = Rs.RecordCount
+  arrObj2_3 = Rs.GetRows(rc2_3)
+ End If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select 행사상태 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.행사번호= '"&amp; code &amp;"' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = "select a.tr_cd, a.product_nm, a.product_amt, a.card_no, b.res_cd, b.res_msg, b.cno, b.auth_no, b.tran_date, b.issuer_nm, b.시스템일자"
+ SQL = SQL &amp; " , a.install_period, datediff(hh, b.시스템일자, getdate()) as 경과시간 "
+ SQL = SQL &amp; " , case when a.tr_cd = '00101000' and a.org_cno &lt;&gt; '' and res_cd = '0000' then "
+ SQL = SQL &amp; "    case when (select count(*) from CARD결제신청 (nolock) where tr_cd = '00201000' and org_cno = a.org_cno) &gt; 0 then 'NO' "
+ SQL = SQL &amp; "    else 'OK' "
+ SQL = SQL &amp; "    end "
+    SQL = SQL &amp; " else 'NO' "
+ SQL = SQL &amp; "   end 취소구분 "
+ SQL = SQL &amp; " , a.영수증수신번호 "
+ SQL = SQL &amp; " from CARD결제신청 a (nolock) inner join CARD결제결과 b (nolock) on a.idx = b.card_idx "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.tr_cd in ( '00101000', '00201000' ) " 
+ SQL = SQL &amp; " and a.상조계약코드= '"&amp; code &amp;"' " 
+ SQL = SQL &amp; " order by b.시스템일자 desc "
+ SQL2 = " select 행사상태 "
+ SQL2 = SQL2 &amp; " from 행사마스터 a (nolock) "
+ SQL2 = SQL2 &amp; " where 1=1 "
+ SQL2 = SQL2 &amp; " and a.행사번호= '"&amp; code &amp;"' "  
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ 
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+  rc = 0  
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If
+ Set Rs = ConnAplus.execute(SQL2) </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select case when isnull(승인구분,'미승인') = '미승인' then '미승인' else 승인구분 end as 승인 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.행사번호= '"&amp; code &amp;"' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = "select a.tr_cd, a.product_nm, a.product_amt, a.self_issue, b.res_cd, b.res_msg, b.cno, b.auth_no, b.tran_date, a.issue_type, b.시스템일자"
+ SQL = SQL &amp; " , a.auth_value, datediff(hh, b.시스템일자, getdate()) as 경과시간 "
+ SQL = SQL &amp; " , case when a.tr_cd = '00201050' and req_type = 'issue' and a.org_cno &lt;&gt; '' and res_cd = '0000' then "
+ SQL = SQL &amp; "    case when (select count(*) from CARD결제신청 (nolock) where tr_cd = '00201050' and req_type = 'cancel' and org_cno = a.org_cno) &gt; 0 then 'NO' "
+ SQL = SQL &amp; "    else 'OK' "
+ SQL = SQL &amp; "    end "
+    SQL = SQL &amp; " else 'NO' "
+ SQL = SQL &amp; "   end 취소구분 "
+ SQL = SQL &amp; " , a.영수증수신번호 "
+ SQL = SQL &amp; " , a.req_type "
+ SQL = SQL &amp; " from CARD결제신청 a (nolock) inner join CARD결제결과 b (nolock) on a.idx = b.card_idx "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.tr_cd in ( '00201050' ) " 
+ SQL = SQL &amp; " and isnull(a.카드결제구분, '') in ('', 'hangsa') " 
+ SQL = SQL &amp; " and a.상조계약코드= '"&amp; code &amp;"' " 
+ SQL = SQL &amp; " order by b.시스템일자 desc "
+ SQL2 = " select case when isnull(승인구분,'미승인') = '미승인' then '미승인' else 승인구분 end as 승인 "
+ SQL2 = SQL2 &amp; " from 행사마스터 a (nolock) "
+ SQL2 = SQL2 &amp; " where 1=1 "
+ SQL2 = SQL2 &amp; " and a.행사번호= '"&amp; code &amp;"' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select b.단체명 as 단체 "
+ SQL = SQL &amp; " , a.행사번호 as 접수번호 "
+ SQL = SQL &amp; " , left(a.행사시작일시,4) +'.'+ right(left(a.행사시작일시,6),2) +'.'+ right(left(a.행사시작일시,8),2) +' '+ right(left(a.행사시작일시,10),2) +':'+ right(left(a.행사시작일시,12),2) as 접수일시 "
+ SQL = SQL &amp; " , a.진행팀장 as 의전팀장코드 "
+ SQL = SQL &amp; " , c.성함 as 의전팀장 "
+ SQL = SQL &amp; " , c.연락처 as 의전팀장연락처 "
+ SQL = SQL &amp; " , case when a.일반단체구분 in ('용품배송', '근조화환배송', '용품+화환배송', '화환배송') then '배송' else '장례' end as 행사구분 "
+ SQL = SQL &amp; " , d.상품명 as 진행상품 "
+ SQL = SQL &amp; " , isnull((select sum(입금액) from 수납마스터 (nolock) where 계약코드 = a.계약코드),0) as 납입부금 "
+ SQL = SQL &amp; " , left(e.계약일자,4) +'-'+ right(left(e.계약일자,6),2) +'-'+ right(left(e.계약일자,8),2) as 계약일자 "
+ SQL = SQL &amp; " , f.계약자명 as 직원명 "
+ SQL = SQL &amp; " , f.계약자휴대폰 as 직원연락처 "
+ SQL = SQL &amp; " , f.회원명 as 회원명 "
+ SQL = SQL &amp; " , f.휴대폰 as 회원연락처 "
+ SQL = SQL &amp; " , a.행사지점 as 부서명 "
+ SQL = SQL &amp; " , a.행사소속 as 소속 "
+ SQL = SQL &amp; " , a.행사사번 as 직책 "
+ SQL = SQL &amp; " , a.회원과관계 as 고인과의관계 "
+ SQL = SQL &amp; " , a.현위치 "
+ SQL = SQL &amp; " , a.계약코드 "
+ SQL = SQL &amp; " , a.고인성명 as 고인명 "
+ SQL = SQL &amp; " , g.장례식장, isnull(i.지원서비스,'') as 지원서비스 " 
+ SQL = SQL &amp; " , isnull(convert(varchar(16),i.용품도착일,120),'') as 용품도착일, isnull(convert(varchar(16),i.화환도착일,120),'') as 화환도착일 "
+ SQL = SQL &amp; " , isnull(convert(varchar(16),i.근조기설치일,120),'') as 근조기설치일, isnull(j.서명,'') as 서명, isnull(convert(varchar(16),j.등록일,120),'') as 서명일 "
+ SQL = SQL &amp; " , isnull(k.지원내용, '') 지원내용 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 " 
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 " 
+ SQL = SQL &amp; " left outer join 상품코드 d (nolock) on a.상품코드 = d.상품코드 " 
+ SQL = SQL &amp; " left outer join 계약마스터 e (nolock) on a.계약코드 = e.계약코드 " 
+ SQL = SQL &amp; " left outer join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 " 
+ SQL = SQL &amp; " left outer join 행사장례식장 g (nolock) on a.장례식장 = g.코드 "  
+ SQL = SQL &amp; " left outer join 행사_기타정보 i on a.행사번호 = i.행사번호 "
+ SQL = SQL &amp; " left outer join 행사_회사지원서명 j on a.행사번호 = j.행사번호 "
+ SQL = SQL &amp; " left outer join 행사마스터_세부추가 k (nolock) on a.행사번호 = k.행사번호 "
+ SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' " 
+ if user_id = "" then
+  SQL = SQL &amp; " and datediff(d, dateadd(d, -7, getdate()), j.등록일) &gt; 0 "
+ end if 
+ SQL2 = "select 사원명, convert(varchar(10),접수일,120) as 접수일, 일차, 출동일시, 종료일시 "
+ SQL2 = SQL2 &amp; " from 행사_회사지원 "
+ SQL2 = SQL2 &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ SQL2 = SQL2 &amp; " order by 순번 asc "
+ SQL3 = " select 파일명, 파일경로 "
+ SQL3 = SQL3 &amp; " from 파일저장 "
+ SQL3 = SQL3 &amp; " where 게시판종류 = '행사' and 게시판종류2 = '기타정보' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3 = SQL3 &amp; " order by 인덱스 asc "
+ SQL3_1 = " select 파일명, 파일경로 "
+ SQL3_1 = SQL3_1 &amp; " from 파일저장 (nolock) "
+ SQL3_1 = SQL3_1 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '용품' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_1 = SQL3_1 &amp; " order by 인덱스 asc "
+ SQL3_2 = " select 파일명, 파일경로 "
+ SQL3_2 = SQL3_2 &amp; " from 파일저장 (nolock) "
+ SQL3_2 = SQL3_2 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '화환' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_2 = SQL3_2 &amp; " order by 인덱스 asc "
+ SQL3_3 = " select 파일명, 파일경로 "
+ SQL3_3 = SQL3_3 &amp; " from 파일저장 (nolock) "
+ SQL3_3 = SQL3_3 &amp; " where 게시판종류 = '배송' and 게시판종류2 = '조기' and 게시판인덱스 = '"&amp; code &amp;"' "
+ SQL3_3 = SQL3_3 &amp; " order by 인덱스 asc "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+  response.write "&lt;script type='text/javascript'&gt;"
+  response.write "alert('로그인이 필요합니다.');"
+  response.write "location.replace('/gate.asp');"
+  response.write "&lt;/script&gt;" 
+  response.End
+ Else  
+  input1 = Rs("의전팀장코드")
+  input2 = Rs("단체")
+  input3 = Rs("접수일시")  
+  input4 = Rs("진행상품")
+  input5 = Rs("고인과의관계")  
+  input8 = Rs("고인명")
+  input9 = Rs("장례식장") 
+  input10 = Rs("지원서비스") 
+  input11 = Rs("용품도착일")
+  input12 = Rs("화환도착일")
+  input13 = Rs("근조기설치일")  
+  input14 = Rs("서명")
+  input15 = Rs("서명일")
+  input16 = Rs("직원명")
+  input17 = Rs("직원연락처")
+  input18 = Rs("부서명")
+  input19 = Rs("소속")
+  input20 = Rs("직책")
+  input21 = Rs("지원내용")
+ End If
+ Set Rs = ConnAplus.execute(SQL2)
+ If Rs.EOF Then
+  rc = 0
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If
+ Set Rs = ConnAplus.execute(SQL3)
+ If Rs.EOF Then
+  rc2 = 0
+ Else
+  rc2 = Rs.RecordCount
+  arrObj2 = Rs.GetRows(rc2)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_1)
+ If Rs.EOF Then
+  rc2_1 = 0
+ Else
+  rc2_1 = Rs.RecordCount
+  arrObj2_1 = Rs.GetRows(rc2_1)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_2)
+ If Rs.EOF Then
+  rc2_2 = 0
+ Else
+  rc2_2 = Rs.RecordCount
+  arrObj2_2 = Rs.GetRows(rc2_2)
+ End If
+ Set Rs = ConnAplus.execute(SQL3_3)
+ If Rs.EOF Then
+  rc2_3 = 0
+ Else
+  rc2_3 = Rs.RecordCount
+  arrObj2_3 = Rs.GetRows(rc2_3)
+ End If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mDate = DateAdd("m",-1*user_boardmax,date())
+ if sDate = "" then
+  sDate = DateAdd("d",-1*user_board,date())
+ end if
+ if eDate = "" then
+  eDate = date()  
+ end if
+ eDate2 = DateAdd("d",1,eDate)
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with calculationListTBL as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY a.시스템일자 desc) AS rowNum, " 
+ SQL = SQL &amp; " a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, b.단체명, d.장례식장, a.행사상태, isnull(e.상태,'') as 상태, a.일반단체구분 "
+ SQL = SQL &amp; " from 행사마스터 a "
+ SQL = SQL &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 "  
+ SQL = SQL &amp; " left outer join 행사_승인요청 e on a.행사번호 = e.행사번호 "
+ SQL = SQL &amp; " where a.행사상태 in ('진행', '완료') "
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL = SQL &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL = SQL &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if
+    if user_type = "b" then
+        SQL = SQL &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+    end if 
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from calculationListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "
+ SQL_CNT = " select count(*) as count " 
+ SQL_CNT = SQL_CNT &amp; " from 행사마스터 a "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사_승인요청 e on a.행사번호 = e.행사번호 " 
+ SQL_CNT = SQL_CNT &amp; " where a.행사상태 in ('진행', '완료') "
+ if sValue &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ SQL_CNT = SQL_CNT &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL_CNT = SQL_CNT &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if
+    if user_type = "b" then
+        SQL_CNT = SQL_CNT &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+    end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select  행사시작일시, 행사종료일시, 장례식장 as 행사장소, "
+ SQL = SQL &amp; " isnull( "
+ SQL = SQL &amp; "  (select 본부 + '/' + 센터 + '/' + 의전관명+'/'+연락처 from dbo.행사의전팀장 with (nolock) where (코드 = a.진행팀장)),  "
+ SQL = SQL &amp; "  (select     a.진행팀장+space(1)+사원명+' '+휴대폰 from dbo.사원마스터 with (nolock) where (사원코드 = a.진행팀장)) "
+ SQL = SQL &amp; " ) as 의전관,  "
+ SQL = SQL &amp; " a.계약코드 as 회원번호, d.계약자명 as 회원명, d.계약자휴대폰 as 회원연락처, 상주 as 상주명, "
+ SQL = SQL &amp; " 상주휴대폰 as 상주연락처, 고인성명 as 고인명, a.회원과관계  as 회원관계, 입관일시, 발인일시, "
+ SQL = SQL &amp; " 장례형태, 장지, 고인성별 as 성별, 연령 as 나이, 종교, 부고사유 as 사망사유,  "
+ SQL = SQL &amp; " (select 사원명 + ' ' + 휴대폰 from dbo.사원마스터 where 사원코드 = d.모집사원코드) as 영업담당, "
+ SQL = SQL &amp; " (select 사원명 from dbo.행사사원마스터 where 사원코드 = a.장례예식사) AS 장례예식사, a.상품명, a.가입상품명, "
+ SQL = SQL &amp; " (select 단체명 from 행사단체 where 단체코드 = a.행사단체) as 단체명 "
+ SQL = SQL &amp; " from 행사마스터v as a inner join 상품코드 as b on a.상품코드 = b.상품코드 "
+ SQL = SQL &amp; " inner join 계약마스터 as d on a.계약코드 = d.계약코드 " 
+ SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' "
+ SQL = "exec p_행사조회 '" &amp; code &amp; "'"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select a.상품코드, a.상품명, a.수량, a.지급액, a.결재방법, a.거래처명, a.라인번호, a.거래처코드, a.구매구분, a.비고, b.품목분류, b.품목명 "
+ SQL = SQL &amp; " from 행사진행물품 a inner join 행사품목코드 b on a.상품코드 = b.행사품목코드 "
+ SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ SQL = SQL &amp; " and 구분 = '구입' and 수량 &lt;&gt; '' "
+ SQL = SQL &amp; " order by 상품코드 "
+ SQL_P = " select 상세코드, 대표명칭, 상세명칭 "
+ SQL_P = SQL_P &amp; " from 공용코드 " 
+ SQL_P = SQL_P &amp; " where 대표코드 = '00254' "
+ SQL_P = SQL_P &amp; " order by 구분1 "
+ SQL_S = "select 승인구분 from 행사마스터 "
+ SQL_S = SQL_S &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ 
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+  rc = 0  
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If
+ Set Rs = ConnAplus.execute(SQL_P) 
+ If Rs.EOF Then
+  rc2 = 0  
+ Else
+  rc2 = Rs.RecordCount
+  arrObj2 = Rs.GetRows(rc2)
+ End If
+ Set Rs = ConnAplus.execute(SQL_S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_DELTE = " DELETE FROM 행사진행물품 WHERE 행사번호 = '"&amp; code &amp;"' AND 구분 = '구입' "
+ Set Rs = ConnAplus.execute(SQL_DELTE)
+ For i=0 To UBound(input_icode)
+  if UBound(input_pcode) &lt; 0 then
+   input_pcode_v = ""
+  else
+   input_pcode_v = input_pcode(i)
+  end if
+  if UBound(input_partner) &lt; 0 then
+   input_partner_v = ""
+  else
+   input_partner_v = input_partner(i)
+  end if
+  if UBound(input_price) &lt; 0 then
+   input_price_v = 0
+  else
+   input_price_v = input_price(i)
+   if input_price_v = "" then
+    input_price_v = 0
+   end if 
+  end if
+  if UBound(input_pay) &lt; 0 then
+   input_pay_v = ""
+  else
+   input_pay_v = input_pay(i)
+  end if
+  if UBound(input_etc) &lt; 0 then
+   input_etc_v = ""
+  else
+   input_etc_v = input_etc(i)
+  end If
+  if UBound(input_item) &lt; 0 then
+   input_item_v = ""
+  else
+   input_item_v = input_item0(i) &amp; "(" &amp;  input_item(i) &amp; ")"
+  end if
+  SQL = " INSERT INTO 행사진행물품 (행사번호, 구분, 라인번호, 구매구분, 상품코드, 상품명, 거래처코드, 거래처명, 수량, 지급액, 결재방법, 비고, 본부, 센터, 등록자, 시스템일자 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"', '구입', '"&amp; i+1 &amp;"', '', '"&amp; input_icode(i) &amp;"', '"&amp; input_item_v &amp;"', '"&amp; input_pcode_v &amp;"', '"&amp; input_partner_v &amp;"', '"&amp; input_cnt(i) &amp;"', "
+  SQL = SQL &amp; " '"&amp; input_price_v &amp;"', '"&amp; input_pay_v &amp;"', '"&amp; input_etc_v &amp;"', '', '', '"&amp; user_id &amp;"', getdate() ) "  
+  Set Rs = ConnAplus.execute(SQL)
+    Next
+ SQL = "exec [P_행사보고서_카드합계] '"&amp; code &amp;"'"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if sType = "buy" then
+  sType = "기본제공"
+ else
+  sType = "추가비용"
+ end if
+ SQL = " select 행사품목코드, 품목구분, 품목분류, 품목명 "
+ SQL = SQL &amp; " from 행사품목코드 "
+ SQL = SQL &amp; " where 사용여부 = 'Y' " 
+ SQL = SQL &amp; " and 품목구분 in ('"&amp; sType &amp;"', '기본제공+추가비용') "
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and 품목분류 like '%" &amp; sValue &amp; "%' "
+ end if
+ SQL = SQL &amp; " order by 행사품목코드 " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 거래처코드, 지역, 거래처명, 사업자번호, 대표자, 우편주소, 상세주소 "
+ SQL = SQL &amp; " from 의전거래처마스터 "
+ SQL = SQL &amp; " where 계약여부 = '계약' "
+ SQL = SQL &amp; " and 거래처명 not in ( 'N', '기타', '제외', '본부', '베어베터', '천마퀵' ) "
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and 거래처명 like '%" &amp; sValue &amp; "%' "
+ end if
+ SQL = SQL &amp; " order by 거래처명 "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select a.상품코드, a.상품명, a.수량, a.지급액, a.거래처코드, a.거래처명, a.비고, a.구매구분, a.구분, b.품목분류, b.품목명 "
+ SQL = SQL &amp; " from 행사진행물품 a inner join 행사품목코드 b on a.상품코드 = b.행사품목코드 "
+ SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ SQL = SQL &amp; " and 구분 in ('추가','공제','할인','상향','추가상향') and 수량 &lt;&gt; '' "
+ SQL = SQL &amp; " order by 상품코드 "
+ SQL_S = "select 승인구분 from 행사마스터 "
+ SQL_S = SQL_S &amp; " where 행사번호 = '"&amp; code &amp;"' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_DELTE = " DELETE FROM 행사진행물품 WHERE 행사번호 = '"&amp; code &amp;"' AND 구분 in ('추가','공제','할인','상향','추가상향') "
+ Set Rs = ConnAplus.execute(SQL_DELTE)
+ For i=0 To UBound(input_icode)        
+        if UBound(input_price) &lt; 0 then
+   input_price_v = 0
+  else
+   input_price_v = input_price(i)
+   if input_price_v = "" then
+    input_price_v = 0
+   end if 
+  end if
+  if UBound(input_etc) &lt; 0 then
+   input_etc_v = ""
+  else
+   input_etc_v = input_etc(i)
+  end if
+  if UBound(input_item) &lt; 0 then
+   input_item_v = ""
+  else
+   input_item_v = input_item0(i) &amp; "(" &amp;  input_item(i) &amp; ")"
+  end if
+  SQL = " INSERT INTO 행사진행물품 (행사번호, 구분, 라인번호, 구매구분, 상품코드, 상품명, 거래처코드, 거래처명, 수량, 지급액, 결재방법, 비고, 본부, 센터, 등록자, 시스템일자 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"', '"&amp; input_type(i) &amp;"', '"&amp; i+1 &amp;"', 'Y', '"&amp; input_icode(i) &amp;"', '"&amp; input_item_v &amp;"', '', '', '"&amp; input_cnt(i) &amp;"', "
+  SQL = SQL &amp; " '"&amp; input_price_v &amp;"', '', '"&amp; input_etc_v &amp;"', '', '', '"&amp; user_id &amp;"', getdate() ) "
+  Set Rs = ConnAplus.execute(SQL)
+    Next 
+ SQL = "exec [P_행사보고서_카드합계] '"&amp; code &amp;"'"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select 사원코드, 사원명, 구분, 일차, 시작일자, 시작시간, 작업시간, 도우미단가, 작업수당, 시간외수당, 총액, 세액, 지급액, 소득세, 주민세 "
+ SQL = SQL &amp; " from 행사도우미 "
+ SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' " 
+ SQL = SQL &amp; " order by 라인번호 asc "
+ SQL_P = " select 상세코드,대표명칭,상세명칭 "
+ SQL_P = SQL_P &amp; " from 공용코드 " 
+ SQL_P = SQL_P &amp; " where 대표코드 = '00255' "
+ SQL_P = SQL_P &amp; " order by 상세코드 asc "
+ SQL_I = "select 행사시작일시 "
+ SQL_I = SQL_I &amp; " , CONVERT(varchar,DATEADD(dd,1,left(a.행사시작일시,8)),112) as 행사일시2일차 "
+ SQL_I = SQL_I &amp; " , CONVERT(varchar,DATEADD(dd,2,left(a.행사시작일시,8)),112) as 행사일시3일차 "
+ SQL_I = SQL_I &amp; " , CONVERT(varchar,DATEADD(dd,3,left(a.행사시작일시,8)),112) as 행사일시4일차 "
+ SQL_I = SQL_I &amp; " , CONVERT(varchar,DATEADD(dd,4,left(a.행사시작일시,8)),112) as 행사일시5일차 "
+ SQL_I = SQL_I &amp; " , isnull(b.본부,'') 본부 "
+ SQL_I = SQL_I &amp; " from 행사마스터 a (nolock) left outer join 행사의전팀장 b (nolock) on a.진행팀장 = b.코드" 
+ SQL_I = SQL_I &amp; " where a.행사번호 = '"&amp; code &amp;"'" 
+ SQL_S = "select 승인구분 from 행사마스터 "
+ SQL_S = SQL_S &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ 
+ Set Rs = ConnAplus.execute(SQL) 
+ If Rs.EOF Then
+  rc = 0  
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If 
+ Set Rs = ConnAplus.execute(SQL_P) 
+ If Rs.EOF Then
+  rc2 = 0
+ Else
+  rc2 = Rs.RecordCount
+  arrObj2 = Rs.GetRows(rc2)
+ End If
+ Set Rs = ConnAplus.execute(SQL_I) 
+ If Rs.EOF Then
+  sdate_d = ""
+ Else
+  sdate_d = Left(Trim(Rs("행사시작일시")),8)
+  sdate_d2 = Left(Trim(Rs("행사일시2일차")),8)
+  sdate_d3 = Left(Trim(Rs("행사일시3일차")),8)
+  sdate_d4 = Left(Trim(Rs("행사일시4일차")),8)
+  sdate_d5 = Left(Trim(Rs("행사일시5일차")),8)
+  hangsa_bonbu = Rs("본부")
+ End if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">input_mcode = Split(Trim(request.Form("input_mcode")),",")
+ input_hname = Split(Trim(request.Form("input_hname")),",")
+ input_htype = Split(Trim(request.Form("input_htype")),",")
+ input_hday = Split(Trim(request.Form("input_hday")),",")
+ input_hdate = Split(Trim(request.Form("input_hdate")),",")
+ input_htime = Split(Trim(request.Form("input_htime")) ,",") 
+ input_hhour = Split(Trim(request.Form("input_hhour")),",")
+ input_hjobpay = Split(Trim(request.Form("input_hjobpay")),",")
+ input_hworkpay = Split(Trim(request.Form("input_hworkpay")),",")
+ input_hetcpay = Split(Trim(request.Form("input_hetcpay")),",")
+ input_htotalpay = Split(Trim(request.Form("input_htotalpay")),",")
+ input_htex = Split(Trim(request.Form("input_htex")),",")
+ input_hpay = Split(Trim(request.Form("input_hpay")),",")
+ input_htex2 = Split(Trim(request.Form("input_htex2")),",")
+ input_htex3 = Split(Trim(request.Form("input_htex3")),",") </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_DELTE = " DELETE FROM 행사도우미 WHERE 행사번호 = '"&amp; code &amp;"' "
+ Set Rs = ConnAplus.execute(SQL_DELTE)
+ For i=0 To UBound(input_mcode)  
+  SQL = " INSERT INTO 행사도우미 (행사번호, 라인번호, 구분, 사원코드, 사원명, 시작일자, 작업시간, 도우미단가, 작업수당, "
+  SQL = SQL &amp; " 시간외수당, 총액, 지급액, 세액, 일차, 시작시간, 변경세액, 소득세, 주민세, 등록자, 시스템일자 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"', '"&amp; i+1 &amp;"', '"&amp; input_htype(i) &amp;"', '"&amp; input_mcode(i) &amp;"', '"&amp; input_hname(i) &amp;"', '"&amp; input_hdate(i) &amp;"', '"&amp; input_hhour(i) &amp;"', '"&amp; input_hjobpay(i) &amp;"', '"&amp; input_hworkpay(i) &amp;"', "
+  SQL = SQL &amp; " '"&amp; input_hetcpay(i) &amp;"', '"&amp; input_htotalpay(i) &amp;"', '"&amp; input_hpay(i) &amp;"', '"&amp; input_htex(i) &amp;"', '"&amp; input_hday(i) &amp;"', '"&amp; input_htime(i) &amp;"', '"&amp; input_htex(i) &amp;"', '"&amp; input_htex2(i) &amp;"', "  
+  SQL = SQL &amp; " '"&amp; input_htex3(i) &amp;"', '"&amp; user_id &amp;"', getdate() ) "  
+  Set Rs = ConnAplus.execute(SQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select 대표명칭 from 공용코드 where 대표코드 =  '00255' " 
+ SQL2 = " select 은행코드,은행명 from 은행코드 where 사용구분 =  'Y' "  
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> SQL = " exec p_행사도우미등록 'i', '" &amp; helperCode &amp; "', '" &amp; uname &amp; "', '" &amp; jum &amp; "', '" &amp; G_sabun &amp; "', '" &amp; bnkNam &amp; "', '" &amp; bnkCode &amp; "', '" &amp; bnkUser &amp; "','" &amp; hp &amp; "', '" &amp; sabun &amp; "', '', '" &amp; bankValid &amp; "', '" &amp; bankName &amp; "', '" &amp; memo &amp; "' " 
+        ConnAplus.execute(SQL)
+  Response.write SQL
+  SQL_record = "insert into 행사사원계좌변경이력(사원코드,  은행코드, 계좌번호, 예금주명, 검증, 검증예금주명, 등록자)"
+  SQL_record = SQL_record &amp; " values('" &amp; G_sabun &amp; "', '" &amp; bnkNam &amp; "', '" &amp; bnkCode &amp; "', '" &amp; bnkUser &amp; "', '" &amp; bankValid &amp; "', '" &amp; bankName &amp; "', '" &amp; sabun &amp; "')"
+  Response.write SQL_record
+  ConnAplus.execute(SQL_record)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " exec p_행사도우미등록 'i', '"&amp; helperCode &amp;"', '"&amp; uname &amp;"', '"&amp; jum &amp;"', '"&amp; G_sabun &amp;"', '"&amp; bnkNam &amp;"', '"&amp; bnkCode &amp;"', '"&amp; bnkUser &amp;"','"&amp; hp &amp;"', '"&amp; sabun &amp; "', '', '" &amp; bankValid &amp; "', '" &amp; bnkUser &amp; "', '" &amp; memo &amp; "' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ 
+    ConnAplus.execute(SQL)
+ SQL_isExist = "select * "
+ SQL_isExist = SQL_isExist &amp; "from 행사사원계좌변경이력 (nolock) "
+ SQL_isExist = SQL_isExist &amp; "where 1=1 and 사원코드 = '" &amp; G_sabun &amp; "' and 은행코드 = '" &amp; bnkNam &amp; "' and 계좌번호 = '" &amp; bnkCode &amp; "' and 예금주명 = '" &amp; bnkUser &amp; "' "
+ SQL_isExists = "IF NOT EXISTS(select * from 행사사원계좌변경이력 (nolock) "
+ SQL_isExists = SQL_isExists &amp; "where 1=1 and 사원코드='" &amp; G_sabun &amp; "' and 은행코드='" &amp; bnkNam &amp; "' and 계좌번호='" &amp; bnkCode &amp; "' and 예금주명= '" &amp; bnkUser &amp; "')"
+ SQL_isExists = SQL_isExists &amp; " BEGIN insert into 행사사원계좌변경이력(사원코드,  은행코드, 계좌번호, 예금주명, 검증, 검증예금주명, 등록자)"
+ SQL_isExists = SQL_isExists &amp; " values('" &amp; G_sabun &amp; "', '" &amp; bnkNam &amp; "', '" &amp; bnkCode &amp; "', '" &amp; bnkUser &amp; "', '" &amp; bankValid &amp; "', '" &amp; bnkUser &amp; "', '" &amp; sabun &amp; "') END"
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select top 1 구분2 "
+ SQL = SQL &amp; " from 공용코드 a (nolock) " 
+ SQL = SQL &amp; " where 대표코드 = '00256' " 
+ SQL = SQL &amp; " and 상세명칭 = '"&amp; sValue &amp;"' " 
+ SQL = SQL &amp; " and 구분1 = '"&amp; jobtime &amp;"' " 
+ SQL = SQL &amp; " and 구분4 &lt;= '"&amp; jobdate &amp;"' "   
+ SQL = SQL &amp; " order by 구분4 desc " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_DELTE = " DELETE FROM 행사도우미 WHERE 행사번호 = '"&amp; code &amp;"' "
+ Set Rs = ConnAplus.execute(SQL_DELTE)
+  SQL = " INSERT INTO 행사도우미 (행사번호, 라인번호, 구분, 사원코드, 사원명, 시작일자, 작업시간, 도우미단가, 작업수당, "
+  SQL = SQL &amp; " 시간외수당, 총액, 지급액, 세액, 일차, 시작시간, 변경세액, 소득세, 주민세, 등록자, 시스템일자 ) "  
+  SQL = SQL &amp; " select a.행사번호, a.순번 라인번호, b.사원구분 구분, a.사원코드, a.사원명 "
+  SQL = SQL &amp; "  , convert(varchar(8), a.접수일, 112) 시작일자 " ', NULL 종료일자
+  SQL = SQL &amp; " , a.경과시간 작업시간 "
+  SQL = SQL &amp; " , c.구분1 도우미단가 "
+  SQL = SQL &amp; " , (a.경과시간 * c.구분1) 작업수당 " 
+  SQL = SQL &amp; " , 0 시간외수당 " 
+  SQL = SQL &amp; " , (a.경과시간 * c.구분1) 총액 " 
+  SQL = SQL &amp; " , convert(int, (a.경과시간 * c.구분1) " 
+  SQL = SQL &amp; "   - (((a.경과시간 * c.구분1) * 0.03 / 10) * 10) " 
+  SQL = SQL &amp; "   - (((a.경과시간 * c.구분1) * 0.003 / 10) * 10)) 지급액 " 
+  SQL = SQL &amp; " , convert(int, (((a.경과시간 * c.구분1) * 0.03 / 10) * 10)) " 
+  SQL = SQL &amp; "   + convert(int, (((a.경과시간 * c.구분1) * 0.003 / 10) * 10)) 세액 " ' , null 결제방법 
+  SQL = SQL &amp; " , convert(varchar, a.일차) + '일차' 일차 " 
+  SQL = SQL &amp; " , replace(a.출동일시, ':', '') 시작시간 " 
+  SQL = SQL &amp; " , convert(int, (((a.경과시간 * c.구분1) * 0.03 / 10) * 10)) " 
+  SQL = SQL &amp; "   + convert(int, (((a.경과시간 * c.구분1) * 0.003 / 10) * 10)) 변경세액 " 
+  SQL = SQL &amp; " , convert(int, (((a.경과시간 * c.구분1) * 0.03 / 10) * 10)) 속득세 " 
+  SQL = SQL &amp; " , convert(int, (((a.경과시간 * c.구분1) * 0.003 / 10) * 10)) 주민세 " 
+  SQL = SQL &amp; " , '"&amp; user_id &amp;"' 등록자 " 
+  SQL = SQL &amp; " , getdate() 시스템일자 " 
+  SQL = SQL &amp; " from ( select * "
+  SQL = SQL &amp; "    , case when convert(int, left(출동일시,2)) &lt;= convert(int, left(종료일시,2)) then convert(int, left(종료일시,2)) - convert(int, left(출동일시,2)) "
+  SQL = SQL &amp; "      else convert(int, left(종료일시,2)) + 24 - convert(int, left(출동일시,2)) "
+  SQL = SQL &amp; "      end 경과시간 "
+  SQL = SQL &amp; "   from 행사_회사지원 (nolock) ) a " 
+  SQL = SQL &amp; " inner join 행사사원마스터 b (nolock) on a.사원코드 = b.사원코드 " 
+  SQL = SQL &amp; " inner join 공용코드 c (nolock) on b.사원구분 = c.대표명칭 " 
+  SQL = SQL &amp; " where 1=1 " 
+  SQL = SQL &amp; " and c.대표코드 = '00255' " 
+  SQL = SQL &amp; " and a.행사번호 = '"&amp; code &amp;"' "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select 제단, 제단금액, 제단할인율, 제단할인금액, 입금일자, 장지특이사항, 고인특이사항, 행사특이사항 "
+ SQL = SQL &amp; " from 행사특이사항 "
+ SQL = SQL &amp; " where  행사번호 = '" &amp; code &amp; "' "
+ SQL_etc = "select 일차, 내용 from 행사_장례진행 a (nolock) where 행사번호 = '" &amp; code &amp; "' order by 행사번호, 일차 "
+ worklog = ""
+ SQL_S = "select 정산완료일 from 행사마스터 "
+ SQL_S = SQL_S &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL)
+ If Rs.EOF Then
+ Else
+  jedan = Trim(Rs("제단"))
+  jedanpay = FormatNumber(Trim(Rs("제단금액")),0)
+  sale = Rs("제단할인율")
+  salepay = FormatNumber(Rs("제단할인금액"),0)
+  indate = Rs("입금일자")
+  jangjietc = Rs("장지특이사항")
+  goinetc = Rs("고인특이사항")
+  hangsaetc = Rs("행사특이사항")
+  if indate &lt;&gt; "" then
+   indate = left(indate,4)&amp;"-"&amp;mid(indate,5,2)&amp;"-"&amp;mid(indate,7,2)
+  end if  
+ End If
+ Set Rs = ConnAplus.execute(SQL_etc)
+ If Rs.EOF Then
+ Else
+  Do While Rs.EOF = False
+   workday = Rs("일차")
+   content = Rs("내용")
+   worklog = worklog &amp; workday &amp; "일차: " &amp; content &amp;  chr(10) &amp; chr(13)
+   Rs.moveNext
+  loop  
+ End If</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " INSERT INTO 행사특이사항 (행사번호, 제단, 관, 차량, 고인특이사항, 유족특이사항, 의전관행사의견, 단체장례정산, 제단금액, 제단할인율, 제단할인금액, 장지특이사항, 등록자, 시스템일자 " '입금일자, 
+ SQL = SQL &amp; " ) values ( "
+ SQL = SQL &amp; " '"&amp; code &amp;"', '"&amp; jedan &amp;"', '', '', '"&amp; goinetc &amp;"', '', '', '', '"&amp; jedanpay &amp;"', '"&amp; sale &amp;"', '"&amp; salepay &amp;"', '"&amp; jangjietc &amp;"', '"&amp; user_id &amp;"', getdate() ) " ', '"&amp; indate &amp;"'
+ SQL2 = "IF EXISTS(SELECT * FROM 행사특이사항 WHERE 행사번호 = '" &amp; code &amp; "')"
+ SQL2 = SQL2 &amp; " BEGIN UPDATE 행사특이사항 set 제단='" &amp; jedan &amp; "', 제단금액='" &amp; jedanpay &amp; "', 제단할인율='" &amp; sale &amp; "', 제단할인금액='" &amp; salepay
+ SQL2 = SQL2 &amp;  "', 고인특이사항='" &amp; goinetc &amp; "', 장지특이사항='" &amp; jangjietc &amp; "',  시스템일자=getdate() where 행사번호 = '" &amp; code &amp; "'"
+ SQL2 = SQL2 &amp; " END ELSE BEGIN" &amp; SQL &amp; "END"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select a.상품코드, a.상품명, a.수량, a.지급액, a.거래처코드, a.거래처명, a.비고, a.구매구분, a.구분, a.본부, a.센터, isnull(b.단가,0) as 판매금액 "
+ SQL = SQL &amp; " from 행사진행물품 a left outer join 행사용품코드 b on a.상품코드 = b.행사용품코드 "
+ SQL = SQL &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ SQL = SQL &amp; " and 구분 = '자체' "
+ SQL = SQL &amp; " order by 상품코드 "
+ SQL_P = "  select 대표명칭 의전본부명 "
+ SQL_P = SQL_P &amp; " from 공용코드 (nolock) " 
+ SQL_P = SQL_P &amp; " where 대표코드 = '00301' "
+ SQL_P = SQL_P &amp; " and 구분5 = 'Y' "
+ SQL_P = SQL_P &amp; " and 대표명칭 &lt;&gt; '테스트' "
+ SQL_P = SQL_P &amp; " order by 구분4 "
+ SQL_S = "select 승인구분, 본부, 센터 from 행사마스터 (nolock) "
+ SQL_S = SQL_S &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ 
+ Set Rs = ConnAplus.execute(SQL)
+ If Rs.EOF Then
+  rc = 0
+ Else
+  rc = Rs.RecordCount
+  arrObj = Rs.GetRows(rc)
+ End If  
+ Set Rs = ConnAplus.execute(SQL_P)
+ If Rs.EOF Then
+  rc2 = 0  
+ Else
+  rc2 = Rs.RecordCount
+  arrObj2 = Rs.GetRows(rc2)
+ End If
+ Set Rs = ConnAplus.execute(SQL_S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">code = Trim(request.Form("code"))
+ input_icode = Split(Trim(request.Form("input_icode")),",")
+ input_item = Split(Trim(request.Form("input_item")),",")
+ input_item2 = Split(Trim(request.Form("input_item2")),",")
+ input_cnt = Split(Trim(request.Form("input_cnt")),",")
+ input_price = Split(Trim(request.Form("input_price")),",")
+ input_etc = Split(Trim(request.Form("input_etc")),"|")
+ input_center = Split(Trim(request.Form("input_center")),",")
+ input_bonbu = Split(Trim(request.Form("input_bonbu")),",") </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_DELTE = " DELETE FROM 행사진행물품 WHERE 행사번호 = '"&amp; code &amp;"' AND 구분 = '자체' "
+ Set Rs = ConnAplus.execute(SQL_DELTE)
+ For i=0 To UBound(input_icode) 
+  item = input_item(i) &amp; "-" &amp; input_item2(i)
+  price = input_price(i) * input_cnt(i)
+  input_etc_txt = ""
+  input_bonbu_txt = ""
+  input_center_txt = ""
+  if request.Form("input_etc") &lt;&gt; "" then
+   input_etc_txt = input_etc(i)
+  end if
+  if request.Form("input_bonbu") &lt;&gt; "" then    
+   input_bonbu_txt = input_bonbu(i)
+  end if
+  if request.Form("input_center") &lt;&gt; "" then  
+   input_center_txt = input_center(i)
+  end if  
+  SQL = " INSERT INTO 행사진행물품 (행사번호, 구분, 라인번호, 구매구분, 상품코드, 상품명, 수량, 지급액, 비고, 본부, 센터, 등록자, 시스템일자 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; code &amp;"', '자체', '"&amp; i+1 &amp;"', 'Y', '"&amp; input_icode(i) &amp;"', '"&amp; item &amp;"', '"&amp; input_cnt(i) &amp;"', "
+  SQL = SQL &amp; " '"&amp; price &amp;"', '"&amp; input_etc_txt &amp;"', '"&amp; input_bonbu_txt &amp;"', '"&amp; input_center_txt &amp;"', '"&amp; user_id &amp;"', getdate() ) "
+  Set Rs = ConnAplus.execute(SQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " exec p_행사정산등록_자체_재고관리시스템 '"&amp; code &amp;"' "
+ Set Rs = ConnAplus.execute(SQL)
+ SQL = "exec [P_행사보고서_카드합계] '"&amp; code &amp;"'"
+ ConnAplus.execute(SQL)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 행사용품코드, 대분류, 중분류, 소분류, 단위수량, 단위, 단가, 판매가, 업체명 "
+ SQL = SQL &amp; " from 행사용품코드 "
+ SQL = SQL &amp; " where 판매여부 = 'Y' "
+ if sType &lt;&gt; "" then 
+  SQL = SQL &amp; " and 대분류 = '"&amp; sType &amp;"' "
+ end if
+ if sType2 &lt;&gt; "" then 
+  SQL = SQL &amp; " and 중분류 = '"&amp; sType2 &amp;"' "
+ end if
+ if sValue &lt;&gt; "" then 
+  SQL = SQL &amp; " and 중분류 like '%" &amp; sValue &amp; "%' "
+ end if
+ SQL = SQL &amp; " and convert(varchar(8), getdate(), 112) between 판매시작일 and 판매종료일 " 
+ SQL = SQL &amp; " order by 행사용품코드 "
+ SQL_P = "  select distinct 대분류 "
+ SQL_P = SQL_P &amp; " from 행사용품코드 " 
+ SQL_P = SQL_P &amp; " where 판매여부 = 'Y' "
+ SQL_P = SQL_P &amp; " order by 대분류 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "  select distinct 센터 "
+ SQL = SQL &amp; " from 행사의전팀장 "
+ SQL = SQL &amp; " where 본부 = '"&amp; category &amp;"' "
+ SQL = SQL &amp; " and 계약여부 = '계약' "
+ SQL = SQL &amp; " order by 센터 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "  select distinct 중분류 "
+ SQL = SQL &amp; " from 행사용품코드 "
+ SQL = SQL &amp; " where 대분류 = '"&amp; category &amp;"' "
+ SQL = SQL &amp; " and 판매여부 = 'Y' "
+ SQL = SQL &amp; " order by 중분류 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL2 = "select "
+    SQL2 = SQL2 &amp; " ISNULL((select SUM(지급액) from 행사진행물품 where 행사번호 = '"&amp; code &amp;"' and 구분 in ('추가', '상향', '추가상향')), 0) as 추가, " 
+ SQL2 = SQL2 &amp; " ISNULL((select SUM(지급액) from 행사진행물품 where 행사번호 = '"&amp; code &amp;"' and 구분 in ('공제', '할인')), 0) as 할인, "
+    SQL2 = SQL2 &amp; " ISNULL((select SUM(지급액) from 행사진행물품 where 행사번호 = '"&amp; code &amp;"' and 구분 = '구입' and 결재방법 in ('현금','현금영수증 발행','간이영수증 발행')), 0) as 현장지출 "
+ SQL = "exec p_행사정산조회 '" &amp; code &amp; "' " 
+ SQL_S = "select 승인구분 from 행사마스터 "
+ SQL_S = SQL_S &amp; " where 행사번호 = '"&amp; code &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set rs = ConnAplus.execute(SQL2)
+ If rs.EOF Then
+  total_add = 0
+  total_sale = 0
+        total_g8 = 0
+ Else
+  total_add = rs("추가")
+  total_sale = rs("할인")
+        total_g8 = rs("현장지출")
+ End If
+ Set rs = ConnAplus.execute(SQL) 
+ If rs.EOF Then
+ Else
+  g_1 = rs("진행상품금액")
+  'g_2 = rs("추가금액")
+  g_2 = total_add
+  'g_3 = rs("할인상주공제")
+  g_3 = total_sale
+  'g_4 = rs("매출") '매출
+  g_4 = CLng(g_1) + CLng(g_2) - CLng(g_3)        
+  If CLng(g_1) &gt; 0 Then
+   g_4 = CLng(g_1) + CLng(g_2) - CLng(g_3)
+  End If
+  If isnull(rs("부금")) = True Then
+   g_5 = 0
+  Else
+   g_5 = CLng(rs("부금"))
+  End If
+  g_6 = g_4 - g_5 '수입총액
+  'g_8 = rs("현장지출")
+        g_8 = total_g8
+  'g_9 = rs("회사입금액")  
+  g_10 = rs("현금정산액")
+  g_11 = rs("현금정산일자")
+        g_9 = g_10 - g_8
+  If g_11 &lt;&gt; "" Then
+   g_11 = Left(g_11, 4) &amp; "-" &amp; Mid(g_11, 5, 2) &amp; "-" &amp; Right(g_11, 2)
+  End If
+  g_13 = rs("카드사")
+  g_14 = rs("자체용품금액")
+  g_15 = rs("카드결제액")
+  g_16 = rs("총지출경비")  
+  g_18 = rs("지출비율")
+  If g_19 = "" Then
+   g_19 = "N"
+  Else
+   g_19 = "Y"
+  End If
+  g_20 = rs("현금영수증성명")
+  g_21 = rs("현금영수증번호")
+  g_22 = rs("팀장입금액")
+  g_23 = rs("팀장입금일자")
+  If g_23 &lt;&gt; "" Then
+   g_23 = Left(g_23, 4) &amp; "-" &amp; Mid(g_23, 5, 2) &amp; "-" &amp; Right(g_23, 2)
+  End If
+  REM '현금영수증 금액 (부금 + 현금정산액)
+  g_12 = rs("영수증")
+  g_24 = rs("현금영수증승인번호")
+  g_25 = rs("상품권사용여부")
+  If g_25 = "N" Then
+   g_25 = "N"
+  Else
+   g_25 = "Y"
+  End If
+  g_26 = rs("청구금액")
+ End If
+ Set Rs = ConnAplus.execute(SQL_S)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL_DELTE = " DELETE FROM 행사입금 WHERE 행사번호 = '"&amp; code &amp;"' "
+ Set Rs = ConnAplus.execute(SQL_DELTE)
+ SQL = " INSERT INTO 행사입금 (행사번호,진행상품금액,추가금액,할인상주공제,매출,부금,카드수입총액,현장지출, "
+ SQL = SQL &amp; " 회사입금액,현금정산액,현금정산일자,영수증,카드사,카드결제액,자체용품금액, "
+ SQL = SQL &amp; " 총지출경비,지출비율,현금영수증구분,현금영수증성명,현금영수증번호,팀장입금액, "
+ SQL = SQL &amp; " 팀장입금일자,상품권사용여부,현금영수증승인번호,등록자,청구금액 "
+ SQL = SQL &amp; " ) values ( "
+ SQL = SQL &amp; " '"&amp; code &amp;"', '"&amp; g_1 &amp;"', '"&amp; g_2 &amp;"', '"&amp; g_3 &amp;"', '"&amp; g_4 &amp;"', '"&amp; g_5 &amp;"', '"&amp; g_6 &amp;"', '"&amp; g_8 &amp;"', "
+ SQL = SQL &amp; " '"&amp; g_9 &amp;"', '"&amp; g_10 &amp;"', '"&amp; g_11 &amp;"', '"&amp; g_12 &amp;"', '"&amp; g_13 &amp;"', '"&amp; g_15 &amp;"', '"&amp; g_14 &amp;"', "
+ SQL = SQL &amp; " '"&amp; g_16 &amp;"', '"&amp; g_18 &amp;"', '"&amp; g_19 &amp;"', '"&amp; g_20 &amp;"', '"&amp; g_21 &amp;"', '"&amp; g_22 &amp;"', "
+ SQL = SQL &amp; " '"&amp; g_23 &amp;"', '"&amp; g_25 &amp;"', '"&amp; g_24 &amp;"', '"&amp; user_id &amp;"', '"&amp; g_26 &amp;"' "
+ SQL = SQL &amp; " ) "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "select  행사시작일시, 행사종료일시, 장례식장 as 행사장소, "
+ SQL = SQL &amp; " isnull( "
+ SQL = SQL &amp; "  (select 본부 + '/' + 센터 + '/' + 의전관명+'/'+연락처 from dbo.행사의전팀장 with (nolock) where (코드 = a.진행팀장)),  "
+ SQL = SQL &amp; "  (select     a.진행팀장+space(1)+사원명+' '+휴대폰 from dbo.사원마스터 with (nolock) where (사원코드 = a.진행팀장)) "
+ SQL = SQL &amp; " ) as 의전관,  "
+ SQL = SQL &amp; " a.계약코드 as 회원번호, d.계약자명 as 회원명, d.계약자휴대폰 as 회원연락처, 상주 as 상주명, "
+ SQL = SQL &amp; " 상주휴대폰 as 상주연락처, 고인성명 as 고인명, a.회원과관계  as 회원관계, 입관일시, 발인일시, "
+ SQL = SQL &amp; " 장례형태, 장지, 고인성별 as 성별, 연령 as 나이, 종교, 부고사유 as 사망사유,  "
+ SQL = SQL &amp; " (select 사원명 + ' ' + 휴대폰 from dbo.사원마스터 where 사원코드 = d.모집사원코드) as 영업담당, "
+ SQL = SQL &amp; " (select 사원명 from dbo.행사사원마스터 where 사원코드 = a.장례예식사) AS 장례예식사, a.상품명, a.가입상품명, "
+ SQL = SQL &amp; " (select 단체명 from 행사단체 where 단체코드 = a.행사단체) as 단체명 "
+ SQL = SQL &amp; " from 행사마스터v as a inner join 상품코드 as b on a.상품코드 = b.상품코드 "
+ SQL = SQL &amp; " inner join 계약마스터 as d on a.계약코드 = d.계약코드 "
+ SQL = SQL &amp; " where  a.행사번호 = '" &amp; code &amp; "' "
+ SQL = "exec p_행사조회 '" &amp; code &amp; "'"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = "select a.tr_cd, a.product_nm, a.product_amt, a.card_no, b.res_cd, b.res_msg, b.cno, b.auth_no, b.tran_date, b.issuer_nm, b.시스템일자"
+ SQL = SQL &amp; " , a.install_period, datediff(hh, b.시스템일자, getdate()) as 경과시간 "
+ SQL = SQL &amp; " , case when a.tr_cd = '00101000' and a.org_cno &lt;&gt; '' and res_cd = '0000' then "
+ SQL = SQL &amp; "    case when (select count(*) from CARD결제신청 (nolock) where tr_cd = '00201000' and org_cno = a.org_cno) &gt; 0 then 'NO' "
+ SQL = SQL &amp; "    else 'OK' "
+ SQL = SQL &amp; "    end "
+    SQL = SQL &amp; " else 'NO' "
+ SQL = SQL &amp; "   end 취소구분 "
+ SQL = SQL &amp; " , a.영수증수신번호 "
+ SQL = SQL &amp; " from CARD결제신청 a (nolock) inner join CARD결제결과 b (nolock) on a.idx = b.card_idx "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.tr_cd in ( '00101000', '00201000' ) " 
+ SQL = SQL &amp; " and a.상조계약코드= '"&amp; code &amp;"' " 
+ SQL = SQL &amp; " order by b.시스템일자 desc "
+ SQL2 = " select 행사상태 "
+ SQL2 = SQL2 &amp; " from 행사마스터 a (nolock) "
+ SQL2 = SQL2 &amp; " where 1=1 "
+ SQL2 = SQL2 &amp; " and a.행사번호= '"&amp; code &amp;"' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = "select a.tr_cd, a.product_nm, a.product_amt, a.self_issue, b.res_cd, b.res_msg, b.cno, b.auth_no, b.tran_date, a.issue_type, b.시스템일자"
+ SQL = SQL &amp; " , a.auth_value, datediff(hh, b.시스템일자, getdate()) as 경과시간 "
+ SQL = SQL &amp; " , case when a.tr_cd = '00201050' and req_type = 'issue' and a.org_cno &lt;&gt; '' and res_cd = '0000' then "
+ SQL = SQL &amp; "    case when (select count(*) from CARD결제신청 (nolock) where tr_cd = '00201050' and req_type = 'cancel' and org_cno = a.org_cno) &gt; 0 then 'NO' "
+ SQL = SQL &amp; "    else 'OK' "
+ SQL = SQL &amp; "    end "
+    SQL = SQL &amp; " else 'NO' "
+ SQL = SQL &amp; "   end 취소구분 "
+ SQL = SQL &amp; " , a.영수증수신번호 "
+ SQL = SQL &amp; " , a.req_type "
+ SQL = SQL &amp; " from CARD결제신청 a (nolock) inner join CARD결제결과 b (nolock) on a.idx = b.card_idx "
+ SQL = SQL &amp; " where 1=1 "
+ SQL = SQL &amp; " and a.tr_cd in ( '00201050' ) " 
+ SQL = SQL &amp; " and isnull(a.카드결제구분, '') in ('', 'hangsa') " 
+ SQL = SQL &amp; " and a.상조계약코드= '"&amp; code &amp;"' " 
+ SQL = SQL &amp; " order by b.시스템일자 desc "
+ SQL2 = " select case when isnull(승인구분,'미승인') = '미승인' then '미승인' else 승인구분 end as 승인 "
+ SQL2 = SQL2 &amp; " from 행사마스터 a (nolock) "
+ SQL2 = SQL2 &amp; " where 1=1 "
+ SQL2 = SQL2 &amp; " and a.행사번호= '"&amp; code &amp;"' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if page = "" then 
+  page = 1
+ end if
+ if sType = "" then
+  sType = "a"
+ end if
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with boardListTBL as ( "
+ if sType = "a" then
+  SQL = SQL &amp; " select Row_Number() OVER (ORDER BY b.단체명 desc) AS rowNum, "
+ else
+  SQL = SQL &amp; " select Row_Number() OVER (ORDER BY a.상품명 desc) AS rowNum, "
+ end if 
+ SQL = SQL &amp; " a.상품코드, a.상품명, replace(convert(varchar, convert(money, a.상품액), 1), '.00', '') as 상품액변환, a.단체구분, a.파일명, b.단체명 "
+ SQL = SQL &amp; " from 상품코드 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.집계구분 = b.단체명 "
+ if sType = "a" then
+  if sValue &lt;&gt; "" then
+   SQL = SQL &amp; " where b.단체명 like '%"&amp; sValue &amp;"%' "
+  end if
+ else
+  if sValue &lt;&gt; "" then
+   SQL = SQL &amp; " where a.상품명 like '%"&amp; sValue &amp;"%' "
+  end if  
+ end if 
+ SQL = SQL &amp; " and a.상품코드 not in (select 상품코드 from 상품코드 nolock where 단체구분 = '단체' and 판매종료일자 &lt;&gt; '99991231') "
+ SQL = SQL &amp; " ) " 
+ SQL = SQL &amp; " select * from boardListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "  
+ SQL_CNT = " select count(*) as count "
+ SQL_CNT = SQL_CNT &amp; " from 상품코드 a (nolock) " 
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사단체 b (nolock) on a.집계구분 = b.단체명 " 
+ if sType = "a" then
+  if sValue &lt;&gt; "" then
+   SQL_CNT = SQL_CNT &amp; " where b.단체명 like '%"&amp; sValue &amp;"%' "
+  end if
+ else
+  if sValue &lt;&gt; "" then
+   SQL_CNT = SQL_CNT &amp; " where a.상품명 like '%"&amp; sValue &amp;"%' "
+  end if
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> if search = "Y" then 
+        SQL  = " exec P_재고관리_현재_페이징 '"&amp; user_typeame &amp;"', '"&amp; sTypeD &amp;"', '"&amp; sTypeA &amp;"', '"&amp; sTypeB &amp;"', '"&amp; ((page - 1) * sPage) + 1 &amp;"', '"&amp; page * sPage &amp;"' "
+        SQL_CNT = " exec P_재고관리_현재_페이징_카운트 '"&amp; user_typeame &amp;"', '"&amp; sTypeD &amp;"', '"&amp; sTypeA &amp;"', '"&amp; sTypeB &amp;"' "
+        Set ConnAplus = CreateObject("ADODB.Connection")
+        ConnAplus.Open CONN_OBJ 
+        Set Rs = ConnAplus.execute(SQL_CNT)
+        tCnt = Rs("count") 
+        Set Rs = ConnAplus.execute(SQL)
+        If Rs.EOF Then
+            rc = 0  
+        Else
+            rc = Rs.RecordCount
+            arrObj = Rs.GetRows(sPage)  
+        End If 
+        Rs.Close
+        Set Rs = Nothing
+        ConnAplus.Close
+        Set ConnAplus = Nothing  
+    else
+        rc = 0
+    end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 대분류 "
+ SQL = SQL &amp; " from 행사용품코드 (nolock) " 
+ SQL = SQL &amp; " group by 대분류 "
+ SQL = SQL &amp; " order by 대분류 "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 중분류 "
+  SQL = SQL &amp; " from 행사용품코드 (nolock) " 
+  SQL = SQL &amp; " where 대분류 = '"&amp; categorya &amp;"' "
+  SQL = SQL &amp; " group by 중분류 "
+  SQL = SQL &amp; " order by 중분류 "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 소분류 "
+  SQL = SQL &amp; " from 행사용품코드 " 
+  SQL = SQL &amp; " where 중분류 = '"&amp; categoryb &amp;"' "
+  SQL = SQL &amp; " group by 소분류 "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 상세명칭 as 본부 "
+ SQL = SQL &amp; " from 공용코드 " 
+ SQL = SQL &amp; " where 대표코드 = '00301' and 구분5 = 'Y' "
+ SQL = SQL &amp; " order by 구분2 "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if area2 = "" then
+  area2 = "구군별"
+ end if
+ if page = "" then 
+  page = 1
+ end if  
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with jangsaList as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY 시도 asc , 군구 asc ) AS rowNum, "
+ SQL = SQL &amp; " * "  
+ SQL = SQL &amp; " from "
+ SQL = SQL &amp; " 행사장례식장 " 
+ SQL = SQL &amp; " where 영업여부 ='영업' "
+ if area = "" then
+ elseif area2 = "구군별" then
+  SQL = SQL &amp; " and 시도 = '"&amp; area &amp;"' "
+ else  
+  SQL = SQL &amp; " and 시도 = '"&amp; area &amp;"' and 군구 = '"&amp; area2 &amp;"' "
+ end if 
+ if searchtext &lt;&gt; "" then 
+  SQL = SQL &amp; " and 장례식장 like '%"&amp; searchtext &amp;"%' "
+ end if 
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from jangsaList "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " end " 
+ SQL_CNT = " select count(*) as count from 행사장례식장 where 영업여부 ='영업' "
+ if area = "" then
+ elseif area2 = "구군별" then  
+  SQL_CNT = SQL_CNT &amp; " and 시도 = '"&amp; area &amp;"' "  
+ else  
+  SQL_CNT = SQL_CNT &amp; " and 시도 = '"&amp; area &amp;"' and 군구 = '"&amp; area2 &amp;"' "
+ end if 
+ if searchtext &lt;&gt; "" then 
+  SQL_CNT = SQL_CNT &amp; " and 장례식장 like '%"&amp; searchtext &amp;"%' "
+ end if </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = " select 코드,주소,장례식장,연락처, "
+ SQL = SQL &amp; " isnull(이용조건,'') as 이용조건 , isnull(이용관빈소,'') as 이용관빈소 , isnull(이용입관용품,'') as 이용입관용품, "
+ SQL = SQL &amp; " isnull(이용제단,'') as 이용제단 , isnull(이용버스,'') as 이용버스 , isnull(이용리무진,'') as 이용리무진 "
+ SQL = SQL &amp; " from 행사장례식장 "
+ SQL = SQL &amp; " where 코드 = '" &amp; code &amp; "' "
+ SQL2 = " select b.코드,b.평수,b.빈소수, "
+ SQL2 = SQL2 &amp; " isnull(replace(convert(varchar, convert(money, b.일일빈소료), 1), '.00', ''),0) as 일일빈소료, "
+ SQL2 = SQL2 &amp; " isnull(replace(convert(varchar, convert(money, b.시간빈소료), 1), '.00', ''),0) as 시간빈소료 "
+ SQL2 = SQL2 &amp; " from "
+ SQL2 = SQL2 &amp; " 행사장례식장 a inner join 행사빈소시설 b on a.코드 = b.코드 "
+ SQL2 = SQL2 &amp; " where b.코드 = '"&amp; code &amp;"' and b.삭제여부 = 'N' "
+ SQL2 = SQL2 &amp; " order by b.평수 desc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mDate = DateAdd("m",-1*user_boardmax,date())
+ if sDate = "" then
+  sDate = DateAdd("d",-1*user_board,date())
+ end if
+ if eDate = "" then
+  eDate = date()  
+ end if
+ eDate2 = DateAdd("d",1,eDate)
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with receptionListTBL as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY a.시스템일자 desc) AS rowNum, " 
+ SQL = SQL &amp; " a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, b.단체명, d.장례식장, a.행사상태, isnull(e.상태,'') as 상태, a.일반단체구분 "
+ SQL = SQL &amp; " from 행사마스터 a "
+ SQL = SQL &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL = SQL &amp; " left outer join 행사_승인요청 e on a.행사번호 = e.행사번호 "
+ SQL = SQL &amp; " where e.상태 is not NULL "
+ If user_type = "b" Then
+  SQL = SQL &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+ End if
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ if sType &lt;&gt; "" then
+  SQL = SQL &amp; " and e.상태 = '"&amp; sType &amp;"' "
+ end if
+ SQL = SQL &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL = SQL &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from receptionListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "
+ SQL_CNT = " select count(*) as count " 
+ SQL_CNT = SQL_CNT &amp; " from 행사마스터 a "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 " 
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사_승인요청 e on a.행사번호 = e.행사번호 " 
+ SQL_CNT = SQL_CNT &amp; " where  e.상태 is not NULL "
+ If user_type = "b" Then
+  SQL_CNT = SQL_CNT &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+ End if
+ if sValue &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ if sType &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and e.상태 = '"&amp; sType &amp;"' "
+ end if
+ SQL_CNT = SQL_CNT &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ if user_boardmax &gt; 0 then
+  SQL_CNT = SQL_CNT &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mDate = DateAdd("m",-1*user_boardmax,date())
+ if sDate = "" then
+  sDate = DateAdd("d",-1*user_board,date())
+ end if
+ if eDate = "" then
+  eDate = date()
+ end if
+ eDate2 = DateAdd("d",1,eDate) 
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with geunjogiListTBL as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY a.시스템일자 desc) AS rowNum, " 
+ SQL = SQL &amp; " a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, b.단체명, d.장례식장, isnull(e.회수자, '') as 회수자, isnull(convert(varchar(16),e.회수일,120), '') as 회수일, a.행사상태, a.일반단체구분 "
+ SQL = SQL &amp; " from 행사마스터 a "
+ SQL = SQL &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 "
+ SQL = SQL &amp; " left outer join 근조기회수 e on a.행사번호 = e.행사번호 "
+ SQL = SQL &amp; " where a.근조기 = 'Y' "
+ SQL = SQL &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ If user_type = "b" Then
+  SQL = SQL &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+ End if
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ if sType = "회수" then
+  SQL = SQL &amp; " and e.회수일 &lt;&gt; '' "
+ end if
+ if sType = "미회수" then
+  SQL = SQL &amp; " and e.회수일 is null "
+ end if
+ if user_boardmax &gt; 0 then
+  SQL = SQL &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from geunjogiListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "
+ SQL_CNT = " select count(*) as count " 
+ SQL_CNT = SQL_CNT &amp; " from 행사마스터 a "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사단체 b on a.행사단체 = b.단체코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사의전팀장 c on a.진행팀장 = c.코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사장례식장 d on a.장례식장 = d.코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join 근조기회수 e on a.행사번호 = e.행사번호 "
+ SQL_CNT = SQL_CNT &amp; " where a.근조기 = 'Y' " 
+ SQL_CNT = SQL_CNT &amp; " and a.시스템일자 between '"&amp; sDate &amp;"' and '"&amp; eDate2 &amp;"' "
+ If user_type = "b" Then
+  SQL_CNT = SQL_CNT &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+ End if
+ if sValue &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and c.성함 like '%"&amp; sValue &amp;"%' "
+ end if
+ if sType = "회수" then
+  SQL_CNT = SQL_CNT &amp; " and e.회수일 &lt;&gt; '' "
+ end if
+ if sType = "미회수" then
+  SQL_CNT = SQL_CNT &amp; " and e.회수일 is null "
+ end if
+ if user_boardmax &gt; 0 then
+  SQL_CNT = SQL_CNT &amp; " and a.시스템일자 &gt; '"&amp; mDate &amp;"' "
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " SELECT 회수자, convert(varchar(16),회수일,120) as 회수일 "
+ SQL = SQL &amp; " FROM 근조기회수 "
+ SQL = SQL &amp; " WHERE 행사번호 = '"&amp; code &amp;"' " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>input_date = input_cDate &amp; " " &amp; input_cHour &amp; ":" &amp; input_cMin
+ if input_type = "a" then
+  SQL = " INSERT INTO 근조기회수 (행사번호, 회수자, 회수일 "
+  SQL = SQL &amp; " ) values ( "
+  SQL = SQL &amp; " '"&amp; input_code &amp;"','"&amp; input_cName &amp;"','"&amp; input_date &amp;"' ) "
+ elseif input_type = "b" then
+  SQL = " UPDATE 근조기회수 SET 회수자 = '"&amp; input_cName &amp;"', 회수일 = '"&amp; input_date &amp;"' WHERE 행사번호 = '"&amp; input_code &amp;"' "
+ else
+  SQL = " DELETE FROM 근조기회수 WHERE 행사번호 = '"&amp; input_code &amp;"' "
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mDate = DateAdd("m",-1*user_boardmax,date())
+ ToYear = Year(Date)
+ ToMonth = Month(Date)
+ FirstDay = DateSerial(ToYear, ToMonth, 1 )
+ if sDate = "" then
+  sDate = FirstDay
+ end if
+ if eDate = "" then
+  eDate = date()  
+ end if
+ eDate2 = DateAdd("d",1,eDate) 
+ SQL = " EXEC p_통계 '"&amp; sDate &amp;"', '"&amp; eDate &amp;"', '"&amp; sType1 &amp;"', '"&amp; sType2 &amp;"' " 
+ SQL2 = " select 본부 "
+ SQL2 = SQL2 &amp; " from 행사마스터 a (nolock) "
+ SQL2 = SQL2 &amp; " where 본부 is not null "
+ SQL2 = SQL2 &amp; " and left(행사시작일시,8) between '"&amp; replace(sDate,"-","") &amp;"' and '"&amp; replace(eDate,"-","") &amp;"' "
+ If user_type = "b" Then
+  SQL2 = SQL2 &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+ End If
+ SQL2 = SQL2 &amp; " group by 본부 "
+ SQL2 = SQL2 &amp; " order by 본부 asc "
+ SQL3 = " select distinct a.단체코드, a.단체명 "
+ SQL3 = SQL3 &amp; " from 행사단체 a (nolock) "
+ SQL3 = SQL3 &amp; " inner join 행사마스터 b (nolock) on a.단체코드 = b.행사단체 "
+ SQL3 = SQL3 &amp; " where left(b.행사시작일시,8) between '"&amp; replace(sDate,"-","") &amp;"' and '"&amp; replace(eDate,"-","") &amp;"' "
+ If user_type = "b" Then
+  SQL3 = SQL3 &amp; " and b.본부 = '"&amp; user_bunbu &amp;"' "
+ End If 
+ SQL3 = SQL3 &amp; " order by a.단체명 asc "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">if sDate = "" then
+  sDate = DateAdd("d",-15,date())
+ end if
+ if eDate = "" then
+  eDate = date()
+ end if
+ eDate2 = DateAdd("d",0,eDate)
+ SQL = " BEGIN "
+ SQL = SQL &amp; " with qnaListTBL as ( "
+ SQL = SQL &amp; " select Row_Number() OVER (ORDER BY left(a.행사시작일시,8) desc, a.행사번호 desc) AS rowNum " 
+ SQL = SQL &amp; " , a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, b.단체명, d.장례식장, isnull(e.점수6, 0) as 설문조사 "
+ SQL = SQL &amp; " , isnull(g.etc2, '미전송') as etc2_2 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " left outer join 행사단체 b (nolock) on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " left outer join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " left outer join 행사장례식장 d (nolock) on a.장례식장 = d.코드 " 
+ SQL = SQL &amp; " left outer join 행사모니터링 e (nolock) on a.행사번호 = e.행사코드 "
+ SQL = SQL &amp; " left outer join (select isnull(SMS_RCPT_MSG, '') etc2, right(sn,13) etc4 from MZSENDLOG (nolock) "
+ SQL = SQL &amp; "      where SUBJECT = '[A+라이프 효담 상조] 만족도 평가' "
+ SQL = SQL &amp; "                       and PHONE_NUM not in ('01033001620', '01036828963') "
+ SQL = SQL &amp; "                  ) g on a.행사번호 = g.etc4 "
+ SQL = SQL &amp; " where a.행사상태 in ('완료', '진행') "
+ If user_type = "b" Then
+  SQL = SQL &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+ End if
+ if sType = "평가완료" then
+  SQL = SQL &amp; " and isnull(e.점수6, 0) &lt;&gt; 0 "
+ end if
+ if sType = "문자전송완료" then
+  SQL = SQL &amp; " and ( isnull(g.etc2, '미전송') in ('전송성공', '') and isnull(e.점수6, 0) = 0 ) "
+ end If
+ if sType = "문자전송미완료" then
+  SQL = SQL &amp; " and isnull(g.etc2, '미전송') in ('미전송') and isnull(e.점수6, 0) = 0 "
+ end if
+ if sType = "문자전송오류" then
+  SQL = SQL &amp; " and isnull(g.etc2, '미전송') not in ('전송성공', '', '미전송') and isnull(e.점수6, 0) = 0 "
+ end if
+ if sValue &lt;&gt; "" then
+  SQL = SQL &amp; " and c.성함 = '"&amp; sValue &amp;"' "
+ end if
+ SQL = SQL &amp; " and a.일반단체구분 not in ('용품배송', '화환배송', '용품+화환배송', '근조화환배송') "
+ SQL = SQL &amp; " and left(a.행사시작일시,8) between '"&amp; Replace(sDate,"-","") &amp;"' and '"&amp; Replace(eDate2,"-","") &amp;"' "
+ SQL = SQL &amp; " ) "
+ SQL = SQL &amp; " select * from qnaListTBL "
+ SQL = SQL &amp; " where rowNum between (("&amp; page &amp;" - 1) * "&amp; sPage &amp;") + 1 and "&amp; page &amp;" * "&amp; sPage &amp;" "
+ SQL = SQL &amp; " END "
+ SQL_CNT = " select count(*) as count " 
+ SQL_CNT = SQL_CNT &amp; " from 행사마스터 a "
+ SQL_CNT = SQL_CNT &amp; " inner join 행사단체 b (nolock) on a.행사단체 = b.단체코드 "
+ SQL_CNT = SQL_CNT &amp; " inner join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 "
+ SQL_CNT = SQL_CNT &amp; " inner join 행사장례식장 d (nolock) on a.장례식장 = d.코드 " 
+ SQL_CNT = SQL_CNT &amp; " left outer join 행사모니터링 e (nolock) on a.행사번호 = e.행사코드 "
+ SQL_CNT = SQL_CNT &amp; " left outer join (select isnull(SMS_RCPT_MSG, '') etc2, right(sn,13) etc4 from MZSENDLOG (nolock) "
+ SQL_CNT = SQL_CNT &amp; "      where SUBJECT = '[A+라이프 효담 상조] 만족도 평가' "
+ SQL_CNT = SQL_CNT &amp; "                       and PHONE_NUM not in ('01033001620', '01036828963') "
+ SQL_CNT = SQL_CNT &amp; "                  ) g on a.행사번호 = g.etc4 "
+ SQL_CNT = SQL_CNT &amp; " where a.행사상태 in ('완료', '진행') " 
+ If user_type = "b" Then
+  SQL_CNT = SQL_CNT &amp; " and a.본부 = '"&amp; user_bunbu &amp;"' "
+ End if
+ if sType = "평가완료" then
+  SQL_CNT = SQL_CNT &amp; " and isnull(e.점수6, 0) &lt;&gt; 0 "
+ end if
+ if sType = "문자전송완료" then
+  SQL_CNT = SQL_CNT &amp; " and ( isnull(g.etc2, '미전송') in ('전송성공', '') and isnull(e.점수6, 0) = 0) "
+ end If
+ if sType = "문자전송미완료" then
+  SQL_CNT = SQL_CNT &amp; " and isnull(g.etc2, '미전송') in ('미전송') and isnull(e.점수6, 0) = 0 "
+ end if
+ if sType = "문자전송오류" then
+  SQL_CNT = SQL_CNT &amp; " and isnull(g.etc2, '미전송') not in ('전송성공', '', '미전송') and isnull(e.점수6, 0) = 0  "
+ end if
+ if sValue &lt;&gt; "" then
+  SQL_CNT = SQL_CNT &amp; " and c.성함 = '"&amp; sValue &amp;"' "
+ end if
+ SQL_CNT = SQL_CNT &amp; " and a.일반단체구분 not in ('용품배송', '화환배송', '용품+화환배송', '근조화환배송') "
+ SQL_CNT = SQL_CNT &amp; " and left(a.행사시작일시,8) between '"&amp; Replace(sDate,"-","") &amp;"' and '"&amp; Replace(eDate2,"-","") &amp;"' "
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If Right(code,2) = "==" Then
+  DB_ENC = "Y"
+ Else
+  DB_ENC = "N"
+  code = FnAesDecrypt(code, AesEncryptPwd) ' ASP 페이지 암호화
+ End if 
+ if user_id = "S1211059" then
+  'response.write code
+  'response.End
+ end if 
+ if code = "" then 
+  response.End
+ end if
+ SQL = " select a.행사번호, c.성함, convert(varchar(16),a.시스템일자,120) as 행사시작일, a.행사시작일시, a.행사종료일시, b.단체명, d.장례식장, a.고인성명, a.회원과관계, a.의전관, a.계약코드, f.회원코드, "
+ SQL = SQL &amp; " isnull(e.점수1, 0) as qna1, isnull(e.점수2, 0) as qna2, isnull(e.점수3, 0) as qna3, isnull(e.점수4, 0) as qna4, "
+ SQL = SQL &amp; " isnull(e.점수5, 0) as qna5, isnull(e.점수6, 0) as qna6, isnull(e.건의사항, '') as qna7, isnull(e.문제사항, '') as qna8 "
+ SQL = SQL &amp; " , a.일반단체구분 "
+ SQL = SQL &amp; " from 행사마스터 a (nolock) "
+ SQL = SQL &amp; " inner join 행사단체 b (nolock) on a.행사단체 = b.단체코드 "
+ SQL = SQL &amp; " inner join 행사의전팀장 c (nolock) on a.진행팀장 = c.코드 "
+ SQL = SQL &amp; " inner join 행사장례식장 d (nolock) on a.장례식장 = d.코드 "
+ SQL = SQL &amp; " inner join 행사계약마스터 f (nolock) on a.행사번호 = f.행사번호 "
+ SQL = SQL &amp; " left outer join 행사모니터링 e (nolock) on a.행사번호 = e.행사코드 "
+ If DB_ENC = "Y" then
+  SQL = SQL &amp; " where a.행사번호 = dbo.fnDecryption('" &amp; code &amp; "','apluslife') "
+ Else
+  SQL = SQL &amp; " where a.행사번호 = '" &amp; code &amp; "' "
+ End if
+ if user_id = "" then
+  SQL = SQL &amp; " and datediff(d, dateadd(m, -2, getdate()), left(a.행사시작일시,8)) &gt; 0 "
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">If gubun = "일반" Or gubun = "단체" Or gubun = "저가형상향" Then
+  f_url = "qna_write.asp"
+ Else
+  f_url = "qna_write_02.asp"
+ End if
+ total = CInt(qna1) + CInt(qna2) + CInt(qna3) + CInt(qna4) + CInt(qna5) + CInt(qna6)
+ SQL = "Exec p_행사모니터링 'I', '"&amp; code &amp;"', '"&amp; gcode &amp;"', '"&amp; tcode &amp;"', '"&amp; st &amp;"', '"&amp; dt &amp;"', '"&amp; qna1 &amp;"', '"&amp; qna2 &amp;"', '"&amp; qna3 &amp;"', '"&amp; qna4 &amp;"', '"&amp; qna5 &amp;"', '"&amp; qna6 &amp;"', '"&amp; total &amp;"', '"&amp; qna7 &amp;"', '', '"&amp; qna8 &amp;"' "
+ SQL1 = "Exec P_상담결과등록 '회원상담', '', '', '', '', '일반상담', NULL, '"&amp; hcode &amp;"', '"&amp; gcode &amp;"', '아웃콜', '행사모니터링', '통화완료', '고객 만족도 평가 등록', '상담완료', '', 'system', 'system'  "
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL = "exec [P_문자전송_알림톡_행사_발송_템플릿] '"&amp; code &amp;"', 'aplus_98_001_02', '만족도평가_의전팀장' "
+ SQL2 = "select * from MZSENDLOG (nolock) where SUBJECT = '[A+라이프 효담 상조] 만족도 평가' "
+ SQL2 = SQL2 &amp; " and PHONE_NUM not in ('01033001620', '01036828963') and isnull(SMS_RCPT_MSG, '') in ('전송성공', '') and right(sn,13) = '"&amp; code &amp;"' "
+ Set ConnAplus = CreateObject("ADODB.Connection")
+ ConnAplus.Open CONN_OBJ
+ Set Rs = ConnAplus.execute(SQL2)
+ If Rs.EOF Then
+  sign = "N"
+ Else
+  sign = "Y2"
+ End If
+ if sign = "N" then
+  Set Rs = ConnAplus.execute(SQL)
+  sign = "S"
+ end if</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">SQL = " select count(*) as count "
+ SQL = SQL &amp; " from 공지사항N "
+ Set Rs = ConnAplus.execute(SQL)
+ tCnt = Rs("count")
+ '임시 협력업체-해당협력업체이름 또는 기업담당자-담당기업이름
+ user_subname = ""
+ if user_type = "b" then
+  SQL_TXT = " and 게시분류1 in ('전체', '의전팀장') "
+ elseif user_type = "c" then  
+  SQL_TXT = " and (게시분류1 = '전체' or (게시분류1 = '기업담당자' and 게시분류2 in ('전체', '"&amp; user_groupname &amp; " " &amp; user_workplace &amp;"'))) "
+ elseif user_type = "d" then  
+  SQL_TXT = " and (게시분류1 = '전체' or (게시분류1 = '협력업체' and 게시분류2 in ('전체', '"&amp; user_name &amp;"'))) "
+ else
+  SQL_TXT = ""
+ end if
+ SQL = " select 인덱스,작성자,제목,내용,convert(varchar,등록일,102) as 등록일,파일,파일경로, 게시분류1, 게시분류2 " 
+ SQL = SQL &amp; " from 공지사항N "
+ SQL = SQL &amp; " where 상단고정 = 'N' "
+ SQL = SQL &amp; SQL_TXT
+ SQL = SQL &amp; " order by 인덱스 desc "
+ SQL2 = " select 인덱스,작성자,제목,내용,convert(varchar,등록일,102) as 등록일,파일,파일경로,게시분류1,게시분류2 "
+ SQL2 = SQL2 &amp; " from 공지사항N "
+ SQL2 = SQL2 &amp; " where 상단고정 = 'Y' " 
+ SQL2 = SQL2 &amp; SQL_TXT
+ SQL2 = SQL2 &amp; " order by 인덱스 desc " </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -6033,7 +8382,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6073,14 +8422,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6409,7 +8761,7 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
@@ -6426,7 +8778,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
@@ -6441,7 +8793,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
@@ -6458,7 +8810,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
@@ -6473,7 +8825,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -6487,7 +8839,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="4" t="s">
@@ -6501,7 +8853,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="4" t="s">
@@ -6515,7 +8867,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="4" t="s">
@@ -6526,7 +8878,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="E10" s="4" t="s">
@@ -6540,7 +8892,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="165" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="4" t="s">
@@ -6554,7 +8906,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="1" t="s">
         <v>49</v>
       </c>
@@ -6570,7 +8922,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="4" t="s">
@@ -6584,7 +8936,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="A14" s="14"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="E14" s="4" t="s">
@@ -6598,7 +8950,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" ht="132" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="4" t="s">
@@ -6612,7 +8964,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
@@ -6628,7 +8980,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="A17" s="14"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" t="s">
@@ -6642,7 +8994,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="4" t="s">
@@ -6656,7 +9008,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="A19" s="14"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="4" t="s">
@@ -6670,7 +9022,7 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+      <c r="A20" s="14"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="4" t="s">
@@ -6684,7 +9036,7 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="A21" s="14"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="E21" s="4" t="s">
@@ -6698,7 +9050,7 @@
       </c>
     </row>
     <row r="22" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="4" t="s">
@@ -6712,7 +9064,7 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="A23" s="14"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="4" t="s">
@@ -6727,7 +9079,7 @@
       </c>
     </row>
     <row r="24" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="4" t="s">
@@ -6741,7 +9093,7 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="A25" s="14"/>
       <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
@@ -6757,7 +9109,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="4" t="s">
@@ -6771,7 +9123,7 @@
       </c>
     </row>
     <row r="27" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="A27" s="14"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="E27" s="4" t="s">
@@ -6785,7 +9137,7 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="E28" s="4" t="s">
@@ -6799,7 +9151,7 @@
       </c>
     </row>
     <row r="29" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="4" t="s">
@@ -6813,7 +9165,7 @@
       </c>
     </row>
     <row r="30" spans="1:8" ht="192" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="A30" s="14"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="E30" s="4" t="s">
@@ -6827,7 +9179,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="A31" s="14"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="E31" s="4" t="s">
@@ -6841,7 +9193,7 @@
       </c>
     </row>
     <row r="32" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="E32" s="4" t="s">
@@ -6855,7 +9207,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+      <c r="A33" s="14"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="4" t="s">
@@ -6869,7 +9221,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+      <c r="A34" s="14"/>
       <c r="B34" s="1" t="s">
         <v>51</v>
       </c>
@@ -6885,7 +9237,7 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="A35" s="14"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="4" t="s">
@@ -6899,7 +9251,7 @@
       </c>
     </row>
     <row r="36" spans="1:8" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+      <c r="A36" s="14"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" t="s">
@@ -6913,7 +9265,7 @@
       </c>
     </row>
     <row r="37" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="A37" s="14"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="E37" s="4" t="s">
@@ -6927,7 +9279,7 @@
       </c>
     </row>
     <row r="38" spans="1:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+      <c r="A38" s="14"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" t="s">
@@ -6941,7 +9293,7 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
+      <c r="A39" s="14"/>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -6954,7 +9306,7 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="A40" s="14"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" t="s">
@@ -6965,7 +9317,7 @@
       </c>
     </row>
     <row r="41" spans="1:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+      <c r="A41" s="14"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="E41" s="4" t="s">
@@ -6976,7 +9328,7 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
         <v>9</v>
       </c>
@@ -6995,7 +9347,7 @@
       </c>
     </row>
     <row r="43" spans="1:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="A43" s="14"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" t="s">
@@ -7012,19 +9364,19 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="A44" s="14"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="4"/>
       <c r="F44" t="s">
         <v>157</v>
       </c>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="14" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="111.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+      <c r="A45" s="14"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="E45" s="4"/>
@@ -7034,10 +9386,10 @@
       <c r="G45" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="H45" s="13"/>
+      <c r="H45" s="14"/>
     </row>
     <row r="46" spans="1:8" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
+      <c r="A46" s="14"/>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -7053,7 +9405,7 @@
       </c>
     </row>
     <row r="47" spans="1:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
+      <c r="A47" s="14"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" t="s">
@@ -7067,7 +9419,7 @@
       </c>
     </row>
     <row r="48" spans="1:8" ht="129" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+      <c r="A48" s="14"/>
       <c r="B48" s="1" t="s">
         <v>11</v>
       </c>
@@ -7103,7 +9455,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D50" t="s">
@@ -7117,7 +9469,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14"/>
       <c r="E51" s="4" t="s">
         <v>214</v>
       </c>
@@ -7126,7 +9478,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="A52" s="14"/>
       <c r="E52" s="4" t="s">
         <v>215</v>
       </c>
@@ -7138,7 +9490,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="1" t="s">
         <v>60</v>
       </c>
@@ -7156,7 +9508,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
+      <c r="A54" s="14"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="4" t="s">
@@ -7170,7 +9522,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+      <c r="A55" s="14"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="4" t="s">
@@ -7184,7 +9536,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
+      <c r="A56" s="14"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="4" t="s">
@@ -7198,7 +9550,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
+      <c r="A57" s="14"/>
       <c r="B57" s="1" t="s">
         <v>5</v>
       </c>
@@ -7216,7 +9568,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="E58" s="4" t="s">
@@ -7230,7 +9582,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="1" t="s">
         <v>49</v>
       </c>
@@ -7248,7 +9600,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="E60" s="4" t="s">
@@ -7262,7 +9614,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="165" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" t="s">
@@ -7276,7 +9628,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="4" t="s">
@@ -7290,7 +9642,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="1" t="s">
         <v>6</v>
       </c>
@@ -7308,7 +9660,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="E64" s="4" t="s">
@@ -7322,7 +9674,7 @@
       </c>
     </row>
     <row r="65" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="E65" s="4" t="s">
@@ -7336,7 +9688,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="E66" s="4" t="s">
@@ -7350,7 +9702,7 @@
       </c>
     </row>
     <row r="67" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+      <c r="A67" s="14"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="E67" s="4" t="s">
@@ -7364,7 +9716,7 @@
       </c>
     </row>
     <row r="68" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="13"/>
+      <c r="A68" s="14"/>
       <c r="B68" s="1" t="s">
         <v>51</v>
       </c>
@@ -7382,7 +9734,7 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="213" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+      <c r="A69" s="14"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="F69" s="4" t="s">
@@ -7393,7 +9745,7 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
+      <c r="A70" s="14"/>
       <c r="B70" s="1" t="s">
         <v>8</v>
       </c>
@@ -7417,7 +9769,7 @@
       </c>
     </row>
     <row r="71" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="1" t="s">
         <v>9</v>
       </c>
@@ -7438,7 +9790,7 @@
       </c>
     </row>
     <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="E72" s="4" t="s">
@@ -7449,7 +9801,7 @@
       </c>
     </row>
     <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+      <c r="A73" s="14"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="E73" s="4" t="s">
@@ -7463,7 +9815,7 @@
       </c>
     </row>
     <row r="74" spans="1:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
+      <c r="A74" s="14"/>
       <c r="B74" s="1" t="s">
         <v>10</v>
       </c>
@@ -7484,7 +9836,7 @@
       </c>
     </row>
     <row r="75" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+      <c r="A75" s="14"/>
       <c r="B75" s="1" t="s">
         <v>11</v>
       </c>
@@ -7505,7 +9857,7 @@
       </c>
     </row>
     <row r="76" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="E76" s="4" t="s">
@@ -7516,7 +9868,7 @@
       </c>
     </row>
     <row r="77" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+      <c r="A77" s="14"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="E77" s="4" t="s">
@@ -7530,7 +9882,7 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+      <c r="A78" s="14"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
         <v>71</v>
@@ -7546,7 +9898,7 @@
       </c>
     </row>
     <row r="79" spans="1:8" ht="151.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
@@ -7563,7 +9915,7 @@
       </c>
     </row>
     <row r="80" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
+      <c r="A80" s="14"/>
       <c r="B80" s="1" t="s">
         <v>73</v>
       </c>
@@ -7581,7 +9933,7 @@
       </c>
     </row>
     <row r="81" spans="1:8" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+      <c r="A81" s="14"/>
       <c r="B81" s="1" t="s">
         <v>74</v>
       </c>
@@ -7599,7 +9951,7 @@
       </c>
     </row>
     <row r="82" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
+      <c r="A82" s="14"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="E82" s="4" t="s">
@@ -7613,7 +9965,7 @@
       </c>
     </row>
     <row r="83" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="E83" s="4" t="s">
@@ -7627,7 +9979,7 @@
       </c>
     </row>
     <row r="84" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="E84" s="4" t="s">
@@ -7641,7 +9993,7 @@
       </c>
     </row>
     <row r="85" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+      <c r="A85" s="14"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="E85" s="4" t="s">
@@ -7658,7 +10010,7 @@
       </c>
     </row>
     <row r="86" spans="1:8" ht="141" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
+      <c r="A86" s="14"/>
       <c r="B86" s="1" t="s">
         <v>75</v>
       </c>
@@ -7676,7 +10028,7 @@
       </c>
     </row>
     <row r="87" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+      <c r="A87" s="14"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="E87" s="4" t="s">
@@ -7690,7 +10042,7 @@
       </c>
     </row>
     <row r="88" spans="1:8" ht="140.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="E88" s="4" t="s">
@@ -7704,7 +10056,7 @@
       </c>
     </row>
     <row r="89" spans="1:8" ht="210.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+      <c r="A89" s="14"/>
       <c r="B89" s="1" t="s">
         <v>76</v>
       </c>
@@ -7722,7 +10074,7 @@
       </c>
     </row>
     <row r="90" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="E90" s="4" t="s">
@@ -7736,7 +10088,7 @@
       </c>
     </row>
     <row r="91" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="E91" s="4" t="s">
@@ -7753,7 +10105,7 @@
       </c>
     </row>
     <row r="92" spans="1:8" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="E92" s="4" t="s">
@@ -7767,7 +10119,7 @@
       </c>
     </row>
     <row r="93" spans="1:8" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="E93" s="4" t="s">
@@ -7781,7 +10133,7 @@
       </c>
     </row>
     <row r="94" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="E94" s="4" t="s">
@@ -7795,7 +10147,7 @@
       </c>
     </row>
     <row r="95" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+      <c r="A95" s="14"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="E95" s="4" t="s">
@@ -7809,7 +10161,7 @@
       </c>
     </row>
     <row r="96" spans="1:8" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="E96" s="4" t="s">
@@ -7826,7 +10178,7 @@
       </c>
     </row>
     <row r="97" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
+      <c r="A97" s="14"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="E97" s="4" t="s">
@@ -7840,7 +10192,7 @@
       </c>
     </row>
     <row r="98" spans="1:8" ht="178.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
+      <c r="A98" s="14"/>
       <c r="B98" s="1" t="s">
         <v>77</v>
       </c>
@@ -7858,7 +10210,7 @@
       </c>
     </row>
     <row r="99" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
+      <c r="A99" s="14"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="E99" s="4" t="s">
@@ -7872,7 +10224,7 @@
       </c>
     </row>
     <row r="100" spans="1:8" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="1" t="s">
         <v>78</v>
       </c>
@@ -7890,7 +10242,7 @@
       </c>
     </row>
     <row r="101" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="E101" s="4" t="s">
@@ -7904,7 +10256,7 @@
       </c>
     </row>
     <row r="102" spans="1:8" ht="99" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="E102" t="s">
@@ -7918,7 +10270,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="E103" s="4" t="s">
@@ -7932,7 +10284,7 @@
       </c>
     </row>
     <row r="104" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="E104" s="4" t="s">
@@ -7949,7 +10301,7 @@
       </c>
     </row>
     <row r="105" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="E105" s="4" t="s">
@@ -7964,7 +10316,7 @@
       <c r="H105" s="4"/>
     </row>
     <row r="106" spans="1:8" ht="193.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="13"/>
+      <c r="A106" s="14"/>
       <c r="B106" s="1" t="s">
         <v>79</v>
       </c>
@@ -7982,7 +10334,7 @@
       </c>
     </row>
     <row r="107" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="13"/>
+      <c r="A107" s="14"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="E107" s="4" t="s">
@@ -7996,7 +10348,7 @@
       </c>
     </row>
     <row r="108" spans="1:8" ht="185.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="13"/>
+      <c r="A108" s="14"/>
       <c r="B108" s="1" t="s">
         <v>80</v>
       </c>
@@ -8014,7 +10366,7 @@
       </c>
     </row>
     <row r="109" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A109" s="13"/>
+      <c r="A109" s="14"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="E109" s="4" t="s">
@@ -8028,7 +10380,7 @@
       </c>
     </row>
     <row r="110" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
+      <c r="A110" s="14"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="E110" s="4" t="s">
@@ -8042,7 +10394,7 @@
       </c>
     </row>
     <row r="111" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
+      <c r="A111" s="14"/>
       <c r="B111" s="1" t="s">
         <v>8</v>
       </c>
@@ -8066,7 +10418,7 @@
       </c>
     </row>
     <row r="112" spans="1:8" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
+      <c r="A112" s="14"/>
       <c r="B112" s="1" t="s">
         <v>9</v>
       </c>
@@ -8087,7 +10439,7 @@
       </c>
     </row>
     <row r="113" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
+      <c r="A113" s="14"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="E113" s="4" t="s">
@@ -8098,7 +10450,7 @@
       </c>
     </row>
     <row r="114" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="13"/>
+      <c r="A114" s="14"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="E114" s="4" t="s">
@@ -8112,7 +10464,7 @@
       </c>
     </row>
     <row r="115" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
+      <c r="A115" s="14"/>
       <c r="B115" s="1" t="s">
         <v>81</v>
       </c>
@@ -8136,7 +10488,7 @@
       </c>
     </row>
     <row r="116" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="13"/>
+      <c r="A116" s="14"/>
       <c r="B116" s="1" t="s">
         <v>82</v>
       </c>
@@ -8157,7 +10509,7 @@
       </c>
     </row>
     <row r="117" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
+      <c r="A117" s="14"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="E117" s="4" t="s">
@@ -8199,7 +10551,7 @@
       </c>
     </row>
     <row r="120" spans="1:8" ht="218.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D120" t="s">
@@ -8213,7 +10565,7 @@
       </c>
     </row>
     <row r="121" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A121" s="13"/>
+      <c r="A121" s="14"/>
       <c r="C121" s="1" t="s">
         <v>98</v>
       </c>
@@ -8228,7 +10580,7 @@
       </c>
     </row>
     <row r="122" spans="1:8" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="13"/>
+      <c r="A122" s="14"/>
       <c r="C122" s="1" t="s">
         <v>99</v>
       </c>
@@ -8243,7 +10595,7 @@
       </c>
     </row>
     <row r="123" spans="1:8" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
+      <c r="A123" s="14"/>
       <c r="C123" s="1" t="s">
         <v>100</v>
       </c>
@@ -8258,7 +10610,7 @@
       </c>
     </row>
     <row r="124" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
+      <c r="A124" s="14"/>
       <c r="C124" s="1" t="s">
         <v>101</v>
       </c>
@@ -8273,7 +10625,7 @@
       </c>
     </row>
     <row r="125" spans="1:8" ht="209.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D125" t="s">
@@ -8287,7 +10639,7 @@
       </c>
     </row>
     <row r="126" spans="1:8" ht="162" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="13"/>
+      <c r="A126" s="14"/>
       <c r="D126" t="s">
         <v>113</v>
       </c>
@@ -8299,7 +10651,7 @@
       </c>
     </row>
     <row r="127" spans="1:8" ht="243" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D127" t="s">
@@ -8316,7 +10668,7 @@
       </c>
     </row>
     <row r="128" spans="1:8" ht="200.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="13"/>
+      <c r="A128" s="14"/>
       <c r="D128" t="s">
         <v>23</v>
       </c>
@@ -8359,7 +10711,7 @@
       </c>
     </row>
     <row r="131" spans="1:8" ht="213" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D131" t="s">
@@ -8373,7 +10725,7 @@
       </c>
     </row>
     <row r="132" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A132" s="13"/>
+      <c r="A132" s="14"/>
       <c r="D132" t="s">
         <v>120</v>
       </c>
@@ -8385,7 +10737,7 @@
       </c>
     </row>
     <row r="133" spans="1:8" ht="231" x14ac:dyDescent="0.3">
-      <c r="A133" s="13"/>
+      <c r="A133" s="14"/>
       <c r="D133" t="s">
         <v>119</v>
       </c>
@@ -8411,7 +10763,7 @@
       </c>
     </row>
     <row r="135" spans="1:8" ht="204.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D135" t="s">
@@ -8425,7 +10777,7 @@
       </c>
     </row>
     <row r="136" spans="1:8" ht="238.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="13"/>
+      <c r="A136" s="14"/>
       <c r="D136" t="s">
         <v>126</v>
       </c>
@@ -8435,7 +10787,7 @@
       </c>
     </row>
     <row r="137" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="13"/>
+      <c r="A137" s="14"/>
       <c r="D137" t="s">
         <v>127</v>
       </c>
@@ -8591,8 +10943,8 @@
   <dimension ref="A1:I126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+      <pane ySplit="1" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G132" sqref="G126:G132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8634,7 +10986,7 @@
       <c r="I1" s="8"/>
     </row>
     <row r="2" spans="1:9" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1"/>
@@ -8645,9 +10997,12 @@
       <c r="E2" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
+      <c r="G2" s="4" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="168" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="14"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -8658,9 +11013,12 @@
       <c r="E3" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="33" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
+      <c r="G3" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="14"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="E4" s="4" t="s">
@@ -8669,9 +11027,12 @@
       <c r="F4" t="s">
         <v>131</v>
       </c>
+      <c r="G4" s="4" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="E5" s="4" t="s">
@@ -8680,9 +11041,12 @@
       <c r="F5" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
+      <c r="G5" s="16" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="171.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="14"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="E6" s="4" t="s">
@@ -8691,9 +11055,12 @@
       <c r="F6" t="s">
         <v>133</v>
       </c>
+      <c r="G6" s="4" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="E7" s="4" t="s">
@@ -8704,7 +11071,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="E8" s="4" t="s">
@@ -8713,9 +11080,12 @@
       <c r="F8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
+      <c r="G8" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="E9" s="4" t="s">
@@ -8724,9 +11094,12 @@
       <c r="F9" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
+      <c r="G9" s="4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="174" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="14"/>
       <c r="B10" s="1" t="s">
         <v>49</v>
       </c>
@@ -8737,9 +11110,12 @@
       <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G10" s="4" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="11" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="E11" s="4" t="s">
@@ -8748,9 +11124,12 @@
       <c r="F11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
+      <c r="G11" s="4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="132" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="E12" s="4" t="s">
@@ -8759,9 +11138,12 @@
       <c r="F12" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
+      <c r="G12" s="4" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="E13" s="4" t="s">
@@ -8770,9 +11152,12 @@
       <c r="F13" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="13"/>
+      <c r="G13" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="164.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="14"/>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
@@ -8783,9 +11168,12 @@
       <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G14" s="4" t="s">
+        <v>397</v>
+      </c>
     </row>
     <row r="15" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="13"/>
+      <c r="A15" s="14"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="E15" s="4" t="s">
@@ -8794,9 +11182,12 @@
       <c r="F15" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" ht="66" x14ac:dyDescent="0.3">
-      <c r="A16" s="13"/>
+      <c r="G15" s="4" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="A16" s="14"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="E16" s="4" t="s">
@@ -8805,9 +11196,12 @@
       <c r="F16" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13"/>
+      <c r="G16" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A17" s="14"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="E17" s="4" t="s">
@@ -8816,9 +11210,12 @@
       <c r="F17" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A18" s="13"/>
+      <c r="G17" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="152.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="14"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="E18" s="4" t="s">
@@ -8827,24 +11224,29 @@
       <c r="F18" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A19" s="13"/>
+      <c r="G18" s="4" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A19" s="14"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="E19" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F19" s="10" t="s">
+      <c r="F19" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="G19" s="10"/>
+      <c r="G19" s="12" t="s">
+        <v>401</v>
+      </c>
       <c r="H19" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
+    <row r="20" spans="1:8" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="E20" s="4" t="s">
@@ -8853,10 +11255,12 @@
       <c r="F20" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="10"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="13"/>
+      <c r="G20" s="12" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="14"/>
       <c r="B21" s="1" t="s">
         <v>50</v>
       </c>
@@ -8867,9 +11271,12 @@
       <c r="E21" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G21" s="4" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="13"/>
+      <c r="A22" s="14"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="E22" s="4" t="s">
@@ -8878,9 +11285,12 @@
       <c r="F22" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A23" s="13"/>
+      <c r="G22" s="4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A23" s="14"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="E23" s="4" t="s">
@@ -8889,9 +11299,12 @@
       <c r="F23" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A24" s="13"/>
+      <c r="G23" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A24" s="14"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="E24" s="4" t="s">
@@ -8900,9 +11313,12 @@
       <c r="F24" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
+      <c r="G24" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="14"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="E25" s="4" t="s">
@@ -8911,9 +11327,12 @@
       <c r="F25" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
+      <c r="G25" s="4" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A26" s="14"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="E26" s="4" t="s">
@@ -8922,9 +11341,12 @@
       <c r="F26" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A27" s="13"/>
+      <c r="G26" s="4" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="E27" s="4" t="s">
@@ -8933,9 +11355,12 @@
       <c r="F27" t="s">
         <v>150</v>
       </c>
+      <c r="G27" s="4" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13"/>
+      <c r="A28" s="14"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="E28" s="4" t="s">
@@ -8944,9 +11369,12 @@
       <c r="F28" t="s">
         <v>151</v>
       </c>
+      <c r="G28" s="4" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="29" spans="1:8" ht="88.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="13"/>
+      <c r="A29" s="14"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="E29" s="4" t="s">
@@ -8955,9 +11383,12 @@
       <c r="F29" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
+      <c r="G29" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="14"/>
       <c r="B30" s="1" t="s">
         <v>51</v>
       </c>
@@ -8968,9 +11399,12 @@
       <c r="E30" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
+      <c r="G30" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A31" s="14"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="E31" s="4" t="s">
@@ -8979,9 +11413,12 @@
       <c r="F31" t="s">
         <v>153</v>
       </c>
+      <c r="G31" s="4" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
+      <c r="A32" s="14"/>
       <c r="B32" s="1" t="s">
         <v>8</v>
       </c>
@@ -8993,19 +11430,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
+    <row r="33" spans="1:7" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="14"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="E33" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="249" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
+    <row r="34" spans="1:7" ht="249" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="14"/>
       <c r="B34" s="1" t="s">
         <v>9</v>
       </c>
@@ -9016,12 +11453,15 @@
       <c r="E34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
+      <c r="G34" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="14"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="E35" s="4"/>
@@ -9029,17 +11469,20 @@
         <v>157</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
+    <row r="36" spans="1:7" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A36" s="14"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="E36" s="4"/>
       <c r="F36" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
+      <c r="G36" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="234.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="14"/>
       <c r="B37" s="1" t="s">
         <v>10</v>
       </c>
@@ -9050,12 +11493,12 @@
       <c r="E37" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="4" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="231" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:7" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
       <c r="B38" s="1" t="s">
         <v>11</v>
       </c>
@@ -9066,12 +11509,15 @@
       <c r="E38" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="13" t="s">
+      <c r="G38" s="4" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="14" t="s">
         <v>35</v>
       </c>
       <c r="D39" t="s">
@@ -9080,9 +11526,12 @@
       <c r="E39" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13"/>
+      <c r="G39" s="4" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="14"/>
       <c r="E40" s="4" t="s">
         <v>214</v>
       </c>
@@ -9090,17 +11539,20 @@
         <v>157</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="66" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13"/>
+    <row r="41" spans="1:7" ht="66" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="14"/>
       <c r="E41" s="4" t="s">
         <v>215</v>
       </c>
       <c r="F41" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A42" s="13"/>
+      <c r="G41" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="14"/>
       <c r="B42" s="1" t="s">
         <v>60</v>
       </c>
@@ -9113,9 +11565,12 @@
       <c r="E42" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="13"/>
+      <c r="G42" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="14"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="E43" s="4" t="s">
@@ -9124,9 +11579,12 @@
       <c r="F43" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="66" x14ac:dyDescent="0.3">
-      <c r="A44" s="13"/>
+      <c r="G43" s="4" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A44" s="14"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="E44" s="4" t="s">
@@ -9135,9 +11593,12 @@
       <c r="F44" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A45" s="13"/>
+      <c r="G44" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A45" s="14"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="E45" s="4" t="s">
@@ -9146,9 +11607,12 @@
       <c r="F45" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A46" s="13"/>
+      <c r="G45" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="14"/>
       <c r="B46" s="1" t="s">
         <v>5</v>
       </c>
@@ -9161,9 +11625,12 @@
       <c r="E46" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A47" s="13"/>
+      <c r="G46" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="186.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="14"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="E47" s="4" t="s">
@@ -9172,9 +11639,12 @@
       <c r="F47" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A48" s="13"/>
+      <c r="G47" s="4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="173.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="14"/>
       <c r="B48" s="1" t="s">
         <v>49</v>
       </c>
@@ -9187,9 +11657,12 @@
       <c r="E48" t="s">
         <v>31</v>
       </c>
+      <c r="G48" s="4" t="s">
+        <v>418</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="13"/>
+      <c r="A49" s="14"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="E49" s="4" t="s">
@@ -9198,9 +11671,12 @@
       <c r="F49" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A50" s="13"/>
+      <c r="G49" s="4" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A50" s="14"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="E50" t="s">
@@ -9209,9 +11685,12 @@
       <c r="F50" t="s">
         <v>139</v>
       </c>
+      <c r="G50" s="4" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="13"/>
+      <c r="A51" s="14"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="E51" s="4" t="s">
@@ -9220,9 +11699,12 @@
       <c r="F51" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="13"/>
+      <c r="G51" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="148.5" x14ac:dyDescent="0.3">
+      <c r="A52" s="14"/>
       <c r="B52" s="1" t="s">
         <v>6</v>
       </c>
@@ -9235,9 +11717,12 @@
       <c r="E52" t="s">
         <v>31</v>
       </c>
+      <c r="G52" s="4" t="s">
+        <v>421</v>
+      </c>
     </row>
     <row r="53" spans="1:8" ht="69" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="13"/>
+      <c r="A53" s="14"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="E53" s="4" t="s">
@@ -9246,9 +11731,12 @@
       <c r="F53" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A54" s="13"/>
+      <c r="G53" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="E54" s="4" t="s">
@@ -9257,9 +11745,12 @@
       <c r="F54" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="13"/>
+      <c r="G54" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A55" s="14"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="E55" s="4" t="s">
@@ -9268,9 +11759,12 @@
       <c r="F55" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A56" s="13"/>
+      <c r="G55" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="14"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="E56" s="4" t="s">
@@ -9279,9 +11773,12 @@
       <c r="F56" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A57" s="13"/>
+      <c r="G56" s="4" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="14"/>
       <c r="B57" s="1" t="s">
         <v>51</v>
       </c>
@@ -9294,9 +11791,12 @@
       <c r="E57" t="s">
         <v>31</v>
       </c>
+      <c r="G57" s="4" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="58" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="13"/>
+      <c r="A58" s="14"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="F58" s="4" t="s">
@@ -9305,7 +11805,7 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:8" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="13"/>
+      <c r="A59" s="14"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -9318,15 +11818,18 @@
       <c r="E59" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="4" t="s">
         <v>154</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="H59" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="138" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="13"/>
+      <c r="A60" s="14"/>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
@@ -9339,12 +11842,15 @@
       <c r="E60" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="G60" s="4" t="s">
+        <v>425</v>
+      </c>
     </row>
     <row r="61" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="13"/>
+      <c r="A61" s="14"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="E61" s="4" t="s">
@@ -9355,7 +11861,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="13"/>
+      <c r="A62" s="14"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="E62" s="4" t="s">
@@ -9364,9 +11870,12 @@
       <c r="F62" t="s">
         <v>158</v>
       </c>
+      <c r="G62" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="63" spans="1:8" ht="206.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="13"/>
+      <c r="A63" s="14"/>
       <c r="B63" s="1" t="s">
         <v>10</v>
       </c>
@@ -9379,15 +11888,18 @@
       <c r="E63" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="4" t="s">
         <v>154</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="H63" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="13"/>
+      <c r="A64" s="14"/>
       <c r="B64" s="1" t="s">
         <v>11</v>
       </c>
@@ -9400,12 +11912,15 @@
       <c r="E64" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="G64" s="4" t="s">
+        <v>427</v>
+      </c>
     </row>
     <row r="65" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="13"/>
+      <c r="A65" s="14"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="E65" s="4" t="s">
@@ -9416,7 +11931,7 @@
       </c>
     </row>
     <row r="66" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="13"/>
+      <c r="A66" s="14"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="E66" s="4" t="s">
@@ -9425,9 +11940,12 @@
       <c r="F66" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="13"/>
+      <c r="G66" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="163.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="14"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1" t="s">
         <v>71</v>
@@ -9438,9 +11956,12 @@
       <c r="E67" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="13" t="s">
+      <c r="G67" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="207" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="14" t="s">
         <v>36</v>
       </c>
       <c r="D68" t="s">
@@ -9452,9 +11973,12 @@
       <c r="F68" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="13"/>
+      <c r="G68" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="14"/>
       <c r="B69" s="1" t="s">
         <v>73</v>
       </c>
@@ -9467,9 +11991,12 @@
       <c r="E69" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="13"/>
+      <c r="G69" s="4" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="14"/>
       <c r="B70" s="1" t="s">
         <v>74</v>
       </c>
@@ -9482,9 +12009,12 @@
       <c r="E70" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G70" s="4" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="13"/>
+      <c r="A71" s="14"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="E71" s="4" t="s">
@@ -9493,9 +12023,12 @@
       <c r="F71" t="s">
         <v>173</v>
       </c>
+      <c r="G71" s="4" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="54" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+      <c r="A72" s="14"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="E72" s="4" t="s">
@@ -9504,9 +12037,12 @@
       <c r="F72" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="13"/>
+      <c r="G72" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="182.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="14"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="E73" s="4" t="s">
@@ -9515,9 +12051,12 @@
       <c r="F73" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="13"/>
+      <c r="G73" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="A74" s="14"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="E74" s="4" t="s">
@@ -9526,12 +12065,15 @@
       <c r="F74" t="s">
         <v>172</v>
       </c>
+      <c r="G74" s="4" t="s">
+        <v>434</v>
+      </c>
       <c r="H74" s="4" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="13"/>
+    <row r="75" spans="1:8" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="A75" s="14"/>
       <c r="B75" s="1" t="s">
         <v>75</v>
       </c>
@@ -9544,9 +12086,12 @@
       <c r="E75" t="s">
         <v>31</v>
       </c>
+      <c r="G75" s="4" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="76" spans="1:8" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="13"/>
+      <c r="A76" s="14"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="E76" s="4" t="s">
@@ -9555,9 +12100,12 @@
       <c r="F76" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="13"/>
+      <c r="G76" s="4" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="14"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="E77" s="4" t="s">
@@ -9566,9 +12114,12 @@
       <c r="F77" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="13"/>
+      <c r="G77" s="4" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="14"/>
       <c r="B78" s="1" t="s">
         <v>76</v>
       </c>
@@ -9581,20 +12132,26 @@
       <c r="E78" t="s">
         <v>31</v>
       </c>
+      <c r="G78" s="4" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="79" spans="1:8" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="13"/>
+      <c r="A79" s="14"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="E79" s="4" t="s">
-        <v>181</v>
+        <v>438</v>
       </c>
       <c r="F79" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A80" s="13"/>
+      <c r="G79" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="14"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="E80" s="4" t="s">
@@ -9603,12 +12160,15 @@
       <c r="F80" t="s">
         <v>148</v>
       </c>
+      <c r="G80" s="4" t="s">
+        <v>404</v>
+      </c>
       <c r="H80" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="13"/>
+    <row r="81" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A81" s="14"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="E81" s="4" t="s">
@@ -9617,9 +12177,12 @@
       <c r="F81" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A82" s="13"/>
+      <c r="G81" s="4" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="165" x14ac:dyDescent="0.3">
+      <c r="A82" s="14"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="E82" s="4" t="s">
@@ -9628,9 +12191,12 @@
       <c r="F82" t="s">
         <v>150</v>
       </c>
+      <c r="G82" s="4" t="s">
+        <v>406</v>
+      </c>
     </row>
     <row r="83" spans="1:8" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="13"/>
+      <c r="A83" s="14"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="E83" s="4" t="s">
@@ -9639,9 +12205,12 @@
       <c r="F83" t="s">
         <v>151</v>
       </c>
+      <c r="G83" s="4" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="84" spans="1:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="13"/>
+      <c r="A84" s="14"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="E84" s="4" t="s">
@@ -9650,9 +12219,12 @@
       <c r="F84" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A85" s="13"/>
+      <c r="G84" s="4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="A85" s="14"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="E85" s="4" t="s">
@@ -9661,12 +12233,15 @@
       <c r="F85" t="s">
         <v>178</v>
       </c>
+      <c r="G85" s="4" t="s">
+        <v>443</v>
+      </c>
       <c r="H85" s="4" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A86" s="13"/>
+    <row r="86" spans="1:8" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="14"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="E86" s="4" t="s">
@@ -9675,9 +12250,12 @@
       <c r="F86" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A87" s="13"/>
+      <c r="G86" s="4" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="197.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="14"/>
       <c r="B87" s="1" t="s">
         <v>77</v>
       </c>
@@ -9690,9 +12268,12 @@
       <c r="E87" t="s">
         <v>31</v>
       </c>
+      <c r="G87" s="4" t="s">
+        <v>445</v>
+      </c>
     </row>
     <row r="88" spans="1:8" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="13"/>
+      <c r="A88" s="14"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="E88" s="4" t="s">
@@ -9701,9 +12282,12 @@
       <c r="F88" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A89" s="13"/>
+      <c r="G88" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="14"/>
       <c r="B89" s="1" t="s">
         <v>78</v>
       </c>
@@ -9716,20 +12300,26 @@
       <c r="E89" t="s">
         <v>31</v>
       </c>
+      <c r="G89" s="4" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="90" spans="1:8" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="13"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="E90" s="4" t="s">
-        <v>189</v>
+        <v>448</v>
       </c>
       <c r="F90" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A91" s="13"/>
+      <c r="G90" s="4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="A91" s="14"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="E91" t="s">
@@ -9738,9 +12328,12 @@
       <c r="F91" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A92" s="13"/>
+      <c r="G91" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="147" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="14"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="E92" s="4" t="s">
@@ -9749,9 +12342,12 @@
       <c r="F92" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A93" s="13"/>
+      <c r="G92" s="4" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A93" s="14"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="E93" s="4" t="s">
@@ -9760,12 +12356,15 @@
       <c r="F93" t="s">
         <v>184</v>
       </c>
+      <c r="G93" s="4" t="s">
+        <v>452</v>
+      </c>
       <c r="H93" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A94" s="13"/>
+    <row r="94" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A94" s="14"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="E94" s="4" t="s">
@@ -9774,10 +12373,13 @@
       <c r="F94" t="s">
         <v>186</v>
       </c>
+      <c r="G94" s="4" t="s">
+        <v>453</v>
+      </c>
       <c r="H94" s="4"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A95" s="13"/>
+    <row r="95" spans="1:8" ht="194.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="14"/>
       <c r="B95" s="1" t="s">
         <v>79</v>
       </c>
@@ -9790,9 +12392,12 @@
       <c r="E95" t="s">
         <v>31</v>
       </c>
+      <c r="G95" s="4" t="s">
+        <v>454</v>
+      </c>
     </row>
     <row r="96" spans="1:8" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="13"/>
+      <c r="A96" s="14"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="E96" s="4" t="s">
@@ -9801,9 +12406,12 @@
       <c r="F96" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A97" s="13"/>
+      <c r="G96" s="4" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="14"/>
       <c r="B97" s="1" t="s">
         <v>80</v>
       </c>
@@ -9816,9 +12424,12 @@
       <c r="E97" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" ht="66" x14ac:dyDescent="0.3">
-      <c r="A98" s="13"/>
+      <c r="G97" s="4" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A98" s="14"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="E98" s="4" t="s">
@@ -9827,20 +12438,26 @@
       <c r="F98" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A99" s="13"/>
+      <c r="G98" s="4" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A99" s="14"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="E99" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="4" t="s">
         <v>142</v>
       </c>
+      <c r="G99" s="4" t="s">
+        <v>399</v>
+      </c>
     </row>
     <row r="100" spans="1:8" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="13"/>
+      <c r="A100" s="14"/>
       <c r="B100" s="1" t="s">
         <v>8</v>
       </c>
@@ -9853,15 +12470,18 @@
       <c r="E100" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="F100" t="s">
+      <c r="F100" s="4" t="s">
         <v>154</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="H100" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:8" ht="191.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="13"/>
+      <c r="A101" s="14"/>
       <c r="B101" s="1" t="s">
         <v>9</v>
       </c>
@@ -9874,12 +12494,15 @@
       <c r="E101" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F101" s="4" t="s">
         <v>154</v>
       </c>
+      <c r="G101" s="4" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="102" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="13"/>
+      <c r="A102" s="14"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="E102" s="4" t="s">
@@ -9890,7 +12513,7 @@
       </c>
     </row>
     <row r="103" spans="1:8" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="13"/>
+      <c r="A103" s="14"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="E103" s="4" t="s">
@@ -9899,9 +12522,12 @@
       <c r="F103" t="s">
         <v>158</v>
       </c>
+      <c r="G103" s="4" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="104" spans="1:8" ht="153" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="13"/>
+      <c r="A104" s="14"/>
       <c r="B104" s="1" t="s">
         <v>81</v>
       </c>
@@ -9914,15 +12540,18 @@
       <c r="E104" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F104" s="4" t="s">
         <v>154</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>426</v>
       </c>
       <c r="H104" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="105" spans="1:8" ht="189.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="13"/>
+      <c r="A105" s="14"/>
       <c r="B105" s="1" t="s">
         <v>82</v>
       </c>
@@ -9935,8 +12564,11 @@
       <c r="E105" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F105" s="4" t="s">
         <v>154</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>458</v>
       </c>
     </row>
     <row r="106" spans="1:8" ht="87" customHeight="1" x14ac:dyDescent="0.3">
@@ -9960,8 +12592,11 @@
       <c r="F107" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" ht="132" x14ac:dyDescent="0.3">
+      <c r="G107" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>37</v>
       </c>
@@ -9971,12 +12606,15 @@
       <c r="E108" s="4" t="s">
         <v>130</v>
       </c>
+      <c r="G108" s="4" t="s">
+        <v>459</v>
+      </c>
       <c r="H108" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A109" s="13" t="s">
+    <row r="109" spans="1:8" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="14" t="s">
         <v>38</v>
       </c>
       <c r="D109" t="s">
@@ -9985,9 +12623,12 @@
       <c r="E109" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A110" s="13"/>
+      <c r="G109" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A110" s="14"/>
       <c r="C110" s="1" t="s">
         <v>98</v>
       </c>
@@ -9997,9 +12638,12 @@
       <c r="E110" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A111" s="13"/>
+      <c r="G110" s="4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="99" x14ac:dyDescent="0.3">
+      <c r="A111" s="14"/>
       <c r="C111" s="1" t="s">
         <v>99</v>
       </c>
@@ -10009,9 +12653,12 @@
       <c r="E111" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="A112" s="13"/>
+      <c r="G111" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A112" s="14"/>
       <c r="C112" s="1" t="s">
         <v>100</v>
       </c>
@@ -10021,9 +12668,12 @@
       <c r="E112" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A113" s="13"/>
+      <c r="G112" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A113" s="14"/>
       <c r="C113" s="1" t="s">
         <v>101</v>
       </c>
@@ -10033,9 +12683,12 @@
       <c r="E113" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A114" s="13" t="s">
+      <c r="G113" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="154.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="14" t="s">
         <v>39</v>
       </c>
       <c r="D114" t="s">
@@ -10044,18 +12697,24 @@
       <c r="E114" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A115" s="13"/>
+      <c r="G114" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="14"/>
       <c r="D115" t="s">
         <v>113</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A116" s="13" t="s">
+      <c r="G115" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="14" t="s">
         <v>40</v>
       </c>
       <c r="D116" t="s">
@@ -10064,24 +12723,30 @@
       <c r="E116" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="G116" s="4" t="s">
+        <v>467</v>
+      </c>
       <c r="H116" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A117" s="13"/>
+    <row r="117" spans="1:8" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A117" s="14"/>
       <c r="D117" t="s">
         <v>61</v>
       </c>
       <c r="E117" s="4" t="s">
         <v>31</v>
       </c>
+      <c r="G117" s="4" t="s">
+        <v>415</v>
+      </c>
       <c r="H117" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A118" s="13" t="s">
+    <row r="118" spans="1:8" ht="161.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="14" t="s">
         <v>41</v>
       </c>
       <c r="D118" t="s">
@@ -10090,26 +12755,35 @@
       <c r="E118" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A119" s="13"/>
+      <c r="G118" s="4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="A119" s="14"/>
       <c r="D119" t="s">
         <v>120</v>
       </c>
       <c r="E119" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" ht="181.5" x14ac:dyDescent="0.3">
-      <c r="A120" s="13"/>
+      <c r="G119" s="4" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="114.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="14"/>
       <c r="D120" t="s">
         <v>119</v>
       </c>
       <c r="E120" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" ht="66" x14ac:dyDescent="0.3">
+      <c r="G120" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>42</v>
       </c>
@@ -10119,9 +12793,12 @@
       <c r="E121" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" ht="132" x14ac:dyDescent="0.3">
-      <c r="A122" s="13" t="s">
+      <c r="G121" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="155.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="14" t="s">
         <v>43</v>
       </c>
       <c r="D122" t="s">
@@ -10130,24 +12807,33 @@
       <c r="E122" s="4" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A123" s="13"/>
+      <c r="G122" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="180" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="14"/>
       <c r="D123" t="s">
         <v>126</v>
       </c>
       <c r="E123" s="4"/>
+      <c r="G123" s="4" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="124" spans="1:8" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="13"/>
+      <c r="A124" s="14"/>
       <c r="D124" t="s">
         <v>127</v>
       </c>
       <c r="E124" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G124" s="4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="165.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1"/>
       <c r="D125" t="s">
         <v>129</v>
@@ -10155,13 +12841,19 @@
       <c r="E125" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="G125" s="4" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>19</v>
       </c>
       <c r="D126" s="2" t="s">
         <v>22</v>
+      </c>
+      <c r="G126" s="4" t="s">
+        <v>476</v>
       </c>
       <c r="H126" s="6" t="s">
         <v>44</v>
@@ -10183,6 +12875,7 @@
     <hyperlink ref="F19" r:id="rId1" display="http://pdf.apluslife.co.kr/UTF/item_view.asp?spum_file="/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10205,25 +12898,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -10353,7 +13046,7 @@
       <c r="F4" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
     </row>
@@ -10370,7 +13063,7 @@
       <c r="F5" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="G5" s="13"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="1:7" ht="174.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
@@ -10385,7 +13078,7 @@
       <c r="F6" s="4" t="s">
         <v>378</v>
       </c>
-      <c r="G6" s="13"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2"/>
@@ -10398,7 +13091,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="13"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="1:7" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -10413,7 +13106,7 @@
       <c r="F8" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G8" s="13"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -10426,7 +13119,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="1:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
@@ -10441,7 +13134,7 @@
       <c r="F10" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="G10" s="13"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="1:7" ht="189" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
